--- a/code/Screener/record.xlsx
+++ b/code/Screener/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\wiki\wiki\dev\python\Python-Stock\code\Screener\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAC52005-401D-4774-9127-7C0CBDEC3716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DF5A97-431F-4F99-9669-5F4F101AA1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-18120" windowWidth="28110" windowHeight="18240" xr2:uid="{785F8A36-E86A-4BD6-94E8-FC2E8B05B64B}"/>
   </bookViews>
@@ -45,6 +45,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3329,7 +3351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3379,9 +3401,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3392,9 +3411,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -3404,6 +3420,13 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3446,7 +3469,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{800A4AE0-8832-82D1-6FCB-13DE068DAB5D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3507,7 +3530,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEACA21A-1A8F-8F7C-3B57-145588D9A99D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3573,7 +3596,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{384AACC3-18A5-297F-81C8-08C85D6F790F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3634,7 +3657,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1C9BB9E-9C8C-0BD3-34B3-C197CD43EBED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3700,7 +3723,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BA4DC29-5CFF-7C26-7818-7936808786E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3761,7 +3784,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2131B327-1994-B889-4AFE-8FF23FC59AC2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3822,7 +3845,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60E8078E-5BF8-4E90-7F6A-BC83B93E3849}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3888,7 +3911,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23B7348A-504D-C559-446F-21DCF71169C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3949,7 +3972,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D25518B4-23B7-C3D4-012D-735A2C041586}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4015,7 +4038,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BDD1587-939C-34C0-0953-D4FBA81D1DAA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4076,7 +4099,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0AACDC2-ADB1-2DA4-11F4-A37C8EA16722}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4142,7 +4165,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DF96C57-6C97-88E3-1AB7-6C715EB7F16C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4203,7 +4226,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E4D639E-2F2C-944A-E325-4B3509DEAC9C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4269,7 +4292,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A09BEDF-E02C-9991-E3A4-24B40A8E5D87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4330,7 +4353,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0FE7D88-4CB3-8385-C8BC-23D7EEDC5346}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4396,7 +4419,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{861BDBF1-C1CD-E54D-DD67-06EE24263B24}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4457,7 +4480,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B876998-2903-0012-9311-CE8D81BA637C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4523,7 +4546,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD92BB1D-EB6C-CBA4-447E-9EB43B4CD366}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4584,7 +4607,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BE9B09F-4EC6-22EF-3046-E4BF4C5AF9E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4650,7 +4673,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7A40239-A4C2-2485-39C3-7175A25B91BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4711,7 +4734,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC97946E-BFDE-EB49-79F2-7246F38FC159}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4777,7 +4800,7 @@
                   <a14:compatExt spid="_x0000_s10243"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09C1BFAA-8BC5-F43B-6A8F-CA1681FA0938}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4827,7 +4850,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89D6DEC3-40CF-AD93-D5BB-3C8A2329FAF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4888,7 +4911,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E4EA3D4-5686-AE0C-365F-5837C83833C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4954,7 +4977,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66484773-2BDC-5D97-F537-256C2AF81800}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5015,7 +5038,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CE6F07F-78F6-20FE-F15B-B820A2BDDB09}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5081,7 +5104,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D5916FE-F90B-4D84-D381-D4D1286424E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5142,7 +5165,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE740E01-83CC-6FC0-A477-EEC7EF4D6006}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5485,45 +5508,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42EC1B12-8D19-48E1-AE18-CC4CE60CD15C}">
-  <dimension ref="B9:P51"/>
+  <dimension ref="B9:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="19"/>
+    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="2:16">
-      <c r="I9">
-        <f>SUM(I11:I49)</f>
-        <v>-25252</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" ht="77.25">
-      <c r="J10" t="s">
+    <row r="9" spans="2:17">
+      <c r="H9" s="19"/>
+      <c r="J9">
+        <f>SUM(J11:J49)</f>
+        <v>-25784.559999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" ht="77.25">
+      <c r="K10" t="s">
         <v>11</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>190</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="M10" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="M10" s="15" t="s">
+      <c r="N10" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>416</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="11" spans="2:16">
+    <row r="11" spans="2:17">
       <c r="B11" s="1">
         <v>44714</v>
       </c>
@@ -5536,35 +5561,39 @@
       <c r="E11">
         <v>102</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="19" cm="1">
+        <f t="array" ref="F11">SUMPRODUCT(($C$11:$C$51=C11)*($E$11:$E$51))</f>
+        <v>0</v>
+      </c>
+      <c r="G11">
         <v>48.99</v>
       </c>
-      <c r="G11">
-        <f t="shared" ref="G11:G18" si="0">F11*E11</f>
+      <c r="H11">
+        <f t="shared" ref="H11:H18" si="0">G11*E11</f>
         <v>4996.9800000000005</v>
       </c>
-      <c r="H11">
-        <f t="shared" ref="H11:H18" si="1">IF(D11="Buy",-1,1)</f>
+      <c r="I11">
+        <f t="shared" ref="I11:I18" si="1">IF(D11="Buy",-1,1)</f>
         <v>-1</v>
       </c>
-      <c r="I11">
-        <f t="shared" ref="I11:I18" si="2">H11*G11</f>
+      <c r="J11">
+        <f t="shared" ref="J11:J18" si="2">I11*H11</f>
         <v>-4996.9800000000005</v>
       </c>
-      <c r="N11">
-        <f>AVERAGE(N26:N32)</f>
+      <c r="O11">
+        <f>AVERAGE(O26:O32)</f>
         <v>78.400000000000006</v>
       </c>
-      <c r="O11" s="16">
-        <f>AVERAGE(O26:O60)</f>
+      <c r="P11" s="16">
+        <f>AVERAGE(P26:P60)</f>
         <v>2.1790212754845828E-3</v>
       </c>
-      <c r="P11" s="16">
-        <f>(1+O11)^92</f>
+      <c r="Q11" s="16">
+        <f>(1+P11)^92</f>
         <v>1.2217104193544945</v>
       </c>
     </row>
-    <row r="12" spans="2:16">
+    <row r="12" spans="2:17">
       <c r="B12" s="1">
         <v>44714</v>
       </c>
@@ -5577,23 +5606,27 @@
       <c r="E12">
         <v>16</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="19" cm="1">
+        <f t="array" ref="F12">SUMPRODUCT(($C$11:$C$51=C12)*($E$11:$E$51))</f>
+        <v>6</v>
+      </c>
+      <c r="G12">
         <v>318.58</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <f t="shared" si="0"/>
         <v>5097.28</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <f t="shared" si="2"/>
         <v>-5097.28</v>
       </c>
     </row>
-    <row r="13" spans="2:16">
+    <row r="13" spans="2:17">
       <c r="B13" s="1">
         <v>44717</v>
       </c>
@@ -5604,25 +5637,28 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>102</v>
-      </c>
-      <c r="F13">
+        <v>-102</v>
+      </c>
+      <c r="F13" s="19" cm="1">
+        <f t="array" ref="F13">SUMPRODUCT(($C$11:$C$51=C13)*($E$11:$E$51))</f>
+        <v>0</v>
+      </c>
+      <c r="G13">
         <v>48.26</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <f t="shared" si="0"/>
-        <v>4922.5199999999995</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>-4922.5199999999995</v>
       </c>
       <c r="I13">
+        <v>-1</v>
+      </c>
+      <c r="J13">
         <f t="shared" si="2"/>
         <v>4922.5199999999995</v>
       </c>
     </row>
-    <row r="14" spans="2:16">
+    <row r="14" spans="2:17">
       <c r="B14" s="1">
         <v>44717</v>
       </c>
@@ -5633,25 +5669,28 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>16</v>
-      </c>
-      <c r="F14">
+        <v>-16</v>
+      </c>
+      <c r="F14" s="19" cm="1">
+        <f t="array" ref="F14">SUMPRODUCT(($C$11:$C$51=C14)*($E$11:$E$51))</f>
+        <v>6</v>
+      </c>
+      <c r="G14">
         <v>313.27</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <f t="shared" si="0"/>
-        <v>5012.32</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I14">
+        <v>-5012.32</v>
+      </c>
+      <c r="I14" s="19">
+        <v>-1</v>
+      </c>
+      <c r="J14">
         <f t="shared" si="2"/>
         <v>5012.32</v>
       </c>
     </row>
-    <row r="15" spans="2:16">
+    <row r="15" spans="2:17">
       <c r="B15" s="1">
         <v>44719</v>
       </c>
@@ -5664,23 +5703,26 @@
       <c r="E15">
         <v>6</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="19" cm="1">
+        <f t="array" ref="F15">SUMPRODUCT(($C$11:$C$51=C15)*($E$11:$E$51))</f>
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>178.03</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <f t="shared" si="0"/>
         <v>1068.18</v>
       </c>
-      <c r="H15">
-        <f t="shared" si="1"/>
+      <c r="I15" s="19">
         <v>-1</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <f t="shared" si="2"/>
         <v>-1068.18</v>
       </c>
     </row>
-    <row r="16" spans="2:16">
+    <row r="16" spans="2:17">
       <c r="B16" s="1">
         <v>44719</v>
       </c>
@@ -5693,23 +5735,26 @@
       <c r="E16">
         <v>9</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="19" cm="1">
+        <f t="array" ref="F16">SUMPRODUCT(($C$11:$C$51=C16)*($E$11:$E$51))</f>
+        <v>9</v>
+      </c>
+      <c r="G16">
         <v>109.92</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <f t="shared" si="0"/>
         <v>989.28</v>
       </c>
-      <c r="H16">
-        <f t="shared" si="1"/>
+      <c r="I16" s="19">
         <v>-1</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <f t="shared" si="2"/>
         <v>-989.28</v>
       </c>
     </row>
-    <row r="17" spans="2:16">
+    <row r="17" spans="2:17">
       <c r="B17" s="1">
         <v>44719</v>
       </c>
@@ -5722,23 +5767,26 @@
       <c r="E17">
         <v>9</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="19" cm="1">
+        <f t="array" ref="F17">SUMPRODUCT(($C$11:$C$51=C17)*($E$11:$E$51))</f>
+        <v>0</v>
+      </c>
+      <c r="G17">
         <v>122.55</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <f t="shared" si="0"/>
         <v>1102.95</v>
       </c>
-      <c r="H17">
-        <f t="shared" si="1"/>
+      <c r="I17" s="19">
         <v>-1</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <f t="shared" si="2"/>
         <v>-1102.95</v>
       </c>
     </row>
-    <row r="18" spans="2:16">
+    <row r="18" spans="2:17">
       <c r="B18" s="1">
         <v>44720</v>
       </c>
@@ -5751,23 +5799,26 @@
       <c r="E18">
         <v>9</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="19" cm="1">
+        <f t="array" ref="F18">SUMPRODUCT(($C$11:$C$51=C18)*($E$11:$E$51))</f>
+        <v>0</v>
+      </c>
+      <c r="G18">
         <v>103.21</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <f t="shared" si="0"/>
         <v>928.89</v>
       </c>
-      <c r="H18">
-        <f t="shared" si="1"/>
+      <c r="I18" s="19">
         <v>-1</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <f t="shared" si="2"/>
         <v>-928.89</v>
       </c>
     </row>
-    <row r="19" spans="2:16">
+    <row r="19" spans="2:17">
       <c r="B19" s="1">
         <v>44720</v>
       </c>
@@ -5778,25 +5829,28 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <v>9</v>
-      </c>
-      <c r="F19">
+        <v>-9</v>
+      </c>
+      <c r="F19" s="19" cm="1">
+        <f t="array" ref="F19">SUMPRODUCT(($C$11:$C$51=C19)*($E$11:$E$51))</f>
+        <v>0</v>
+      </c>
+      <c r="G19">
         <v>103.5</v>
       </c>
-      <c r="G19">
-        <f t="shared" ref="G19:G27" si="3">F19*E19</f>
+      <c r="H19">
+        <f t="shared" ref="H19:H27" si="3">G19*E19</f>
+        <v>-931.5</v>
+      </c>
+      <c r="I19" s="19">
+        <v>-1</v>
+      </c>
+      <c r="J19">
+        <f t="shared" ref="J19:J27" si="4">I19*H19</f>
         <v>931.5</v>
       </c>
-      <c r="H19">
-        <f t="shared" ref="H19:H25" si="4">IF(D19="Buy",-1,1)</f>
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <f t="shared" ref="I19:I27" si="5">H19*G19</f>
-        <v>931.5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16">
+    </row>
+    <row r="20" spans="2:17">
       <c r="B20" s="1">
         <v>44719</v>
       </c>
@@ -5807,25 +5861,28 @@
         <v>3</v>
       </c>
       <c r="E20">
+        <v>-9</v>
+      </c>
+      <c r="F20" s="19" cm="1">
+        <f t="array" ref="F20">SUMPRODUCT(($C$11:$C$51=C20)*($E$11:$E$51))</f>
         <v>9</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>111.36</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <f t="shared" si="3"/>
+        <v>-1002.24</v>
+      </c>
+      <c r="I20" s="19">
+        <v>-1</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="4"/>
         <v>1002.24</v>
       </c>
-      <c r="H20">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="5"/>
-        <v>1002.24</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16">
+    </row>
+    <row r="21" spans="2:17">
       <c r="B21" s="1">
         <v>44719</v>
       </c>
@@ -5836,25 +5893,28 @@
         <v>3</v>
       </c>
       <c r="E21">
-        <v>9</v>
-      </c>
-      <c r="F21">
+        <v>-9</v>
+      </c>
+      <c r="F21" s="19" cm="1">
+        <f t="array" ref="F21">SUMPRODUCT(($C$11:$C$51=C21)*($E$11:$E$51))</f>
+        <v>0</v>
+      </c>
+      <c r="G21">
         <v>118.56</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <f t="shared" si="3"/>
+        <v>-1067.04</v>
+      </c>
+      <c r="I21" s="19">
+        <v>-1</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="4"/>
         <v>1067.04</v>
       </c>
-      <c r="H21">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="5"/>
-        <v>1067.04</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16">
+    </row>
+    <row r="22" spans="2:17">
       <c r="B22" s="1">
         <v>44720</v>
       </c>
@@ -5865,25 +5925,28 @@
         <v>3</v>
       </c>
       <c r="E22">
-        <v>9</v>
-      </c>
-      <c r="F22">
+        <v>-6</v>
+      </c>
+      <c r="F22" s="19" cm="1">
+        <f t="array" ref="F22">SUMPRODUCT(($C$11:$C$51=C22)*($E$11:$E$51))</f>
+        <v>0</v>
+      </c>
+      <c r="G22">
         <v>177.52</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <f t="shared" si="3"/>
-        <v>1597.68</v>
-      </c>
-      <c r="H22">
+        <v>-1065.1200000000001</v>
+      </c>
+      <c r="I22" s="19">
+        <v>-1</v>
+      </c>
+      <c r="J22">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="5"/>
-        <v>1597.68</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16">
+        <v>1065.1200000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17">
       <c r="B23" s="1">
         <v>44722</v>
       </c>
@@ -5896,23 +5959,26 @@
       <c r="E23">
         <v>20</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="19" cm="1">
+        <f t="array" ref="F23">SUMPRODUCT(($C$11:$C$51=C23)*($E$11:$E$51))</f>
+        <v>41</v>
+      </c>
+      <c r="G23">
         <v>48.94</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <f t="shared" si="3"/>
         <v>978.8</v>
       </c>
-      <c r="H23">
+      <c r="I23" s="19">
+        <v>-1</v>
+      </c>
+      <c r="J23">
         <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="5"/>
         <v>-978.8</v>
       </c>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:17">
       <c r="B24" s="1">
         <v>44723</v>
       </c>
@@ -5925,29 +5991,32 @@
       <c r="E24">
         <v>3</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="19" cm="1">
+        <f t="array" ref="F24">SUMPRODUCT(($C$11:$C$51=C24)*($E$11:$E$51))</f>
+        <v>6</v>
+      </c>
+      <c r="G24">
         <v>305.58999999999997</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <f t="shared" si="3"/>
         <v>916.77</v>
       </c>
-      <c r="H24">
+      <c r="I24" s="19">
+        <v>-1</v>
+      </c>
+      <c r="J24">
         <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="5"/>
         <v>-916.77</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>10</v>
       </c>
-      <c r="L24" s="1">
+      <c r="M24" s="1">
         <v>44763</v>
       </c>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:17">
       <c r="B25" s="1">
         <v>44723</v>
       </c>
@@ -5960,29 +6029,32 @@
       <c r="E25">
         <v>16</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="19" cm="1">
+        <f t="array" ref="F25">SUMPRODUCT(($C$11:$C$51=C25)*($E$11:$E$51))</f>
+        <v>32</v>
+      </c>
+      <c r="G25">
         <v>63.85</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <f t="shared" si="3"/>
         <v>1021.6</v>
       </c>
-      <c r="H25">
+      <c r="I25" s="19">
+        <v>-1</v>
+      </c>
+      <c r="J25">
         <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="5"/>
         <v>-1021.6</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>10</v>
       </c>
-      <c r="L25" s="1">
+      <c r="M25" s="1">
         <v>44749</v>
       </c>
     </row>
-    <row r="26" spans="2:16">
+    <row r="26" spans="2:17">
       <c r="B26" s="1">
         <v>44724</v>
       </c>
@@ -5995,47 +6067,50 @@
       <c r="E26">
         <v>3</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="19" cm="1">
+        <f t="array" ref="F26">SUMPRODUCT(($C$11:$C$51=C26)*($E$11:$E$51))</f>
+        <v>6</v>
+      </c>
+      <c r="G26">
         <v>305.99</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <f t="shared" si="3"/>
         <v>917.97</v>
       </c>
-      <c r="H26">
-        <f t="shared" ref="H26:H43" si="6">IF(D26="Buy",-1,1)</f>
+      <c r="I26" s="19">
         <v>-1</v>
       </c>
-      <c r="I26">
-        <f t="shared" si="5"/>
+      <c r="J26">
+        <f t="shared" si="4"/>
         <v>-917.97</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>10</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>141</v>
       </c>
-      <c r="L26" s="1">
+      <c r="M26" s="1">
         <v>44808</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>0.1</v>
       </c>
-      <c r="N26" s="16">
-        <f>L26-B26</f>
+      <c r="O26" s="16">
+        <f>M26-B26</f>
         <v>84</v>
       </c>
-      <c r="O26" s="16">
-        <f>(1+M26)^(1/N26)-1</f>
+      <c r="P26" s="16">
+        <f>(1+N26)^(1/O26)-1</f>
         <v>1.135288950835589E-3</v>
       </c>
-      <c r="P26" s="16">
-        <f>(1+O26)^92</f>
+      <c r="Q26" s="16">
+        <f>(1+P26)^92</f>
         <v>1.1100303305665855</v>
       </c>
     </row>
-    <row r="27" spans="2:16">
+    <row r="27" spans="2:17">
       <c r="B27" s="1">
         <v>44724</v>
       </c>
@@ -6048,32 +6123,35 @@
       <c r="E27">
         <v>100</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="19" cm="1">
+        <f t="array" ref="F27">SUMPRODUCT(($C$11:$C$51=C27)*($E$11:$E$51))</f>
+        <v>32</v>
+      </c>
+      <c r="G27">
         <v>66.5</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <f t="shared" si="3"/>
         <v>6650</v>
       </c>
-      <c r="H27">
-        <f t="shared" si="6"/>
+      <c r="I27" s="19">
         <v>-1</v>
       </c>
-      <c r="I27">
-        <f t="shared" si="5"/>
+      <c r="J27">
+        <f t="shared" si="4"/>
         <v>-6650</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>10</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>142</v>
       </c>
-      <c r="L27" s="1">
+      <c r="M27" s="1">
         <v>44766</v>
       </c>
     </row>
-    <row r="28" spans="2:16">
+    <row r="28" spans="2:17">
       <c r="B28" s="1">
         <v>44724</v>
       </c>
@@ -6084,34 +6162,37 @@
         <v>3</v>
       </c>
       <c r="E28">
-        <v>100</v>
-      </c>
-      <c r="F28">
+        <v>-100</v>
+      </c>
+      <c r="F28" s="19" cm="1">
+        <f t="array" ref="F28">SUMPRODUCT(($C$11:$C$51=C28)*($E$11:$E$51))</f>
+        <v>32</v>
+      </c>
+      <c r="G28">
         <v>63.75</v>
       </c>
-      <c r="G28">
-        <f t="shared" ref="G28" si="7">F28*E28</f>
+      <c r="H28">
+        <f t="shared" ref="H28" si="5">G28*E28</f>
+        <v>-6375</v>
+      </c>
+      <c r="I28" s="19">
+        <v>-1</v>
+      </c>
+      <c r="J28">
+        <f t="shared" ref="J28" si="6">I28*H28</f>
         <v>6375</v>
       </c>
-      <c r="H28">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <f t="shared" ref="I28" si="8">H28*G28</f>
-        <v>6375</v>
-      </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>10</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>142</v>
       </c>
-      <c r="L28" s="1">
+      <c r="M28" s="1">
         <v>44766</v>
       </c>
     </row>
-    <row r="29" spans="2:16">
+    <row r="29" spans="2:17">
       <c r="B29" s="1">
         <v>44724</v>
       </c>
@@ -6124,47 +6205,50 @@
       <c r="E29">
         <v>16</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="19" cm="1">
+        <f t="array" ref="F29">SUMPRODUCT(($C$11:$C$51=C29)*($E$11:$E$51))</f>
+        <v>32</v>
+      </c>
+      <c r="G29">
         <v>63.75</v>
       </c>
-      <c r="G29">
-        <f t="shared" ref="G29:G50" si="9">F29*E29</f>
+      <c r="H29">
+        <f t="shared" ref="H29:H50" si="7">G29*E29</f>
         <v>1020</v>
       </c>
-      <c r="H29">
-        <f t="shared" si="6"/>
+      <c r="I29" s="19">
         <v>-1</v>
       </c>
-      <c r="I29">
-        <f t="shared" ref="I29:I43" si="10">H29*G29</f>
+      <c r="J29">
+        <f t="shared" ref="J29:J43" si="8">I29*H29</f>
         <v>-1020</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>10</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>142</v>
       </c>
-      <c r="L29" s="1">
+      <c r="M29" s="1">
         <v>44815</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>0.41</v>
       </c>
-      <c r="N29" s="16">
-        <f>L29-B29</f>
+      <c r="O29" s="16">
+        <f t="shared" ref="O29:O51" si="9">M29-B29</f>
         <v>91</v>
       </c>
-      <c r="O29" s="16">
-        <f>(1+M29)^(1/N29)-1</f>
+      <c r="P29" s="16">
+        <f t="shared" ref="P29:P51" si="10">(1+N29)^(1/O29)-1</f>
         <v>3.7828480137320764E-3</v>
       </c>
-      <c r="P29" s="16">
-        <f>(1+O29)^92</f>
+      <c r="Q29" s="16">
+        <f t="shared" ref="Q29:Q51" si="11">(1+P29)^92</f>
         <v>1.4153338156993678</v>
       </c>
     </row>
-    <row r="30" spans="2:16">
+    <row r="30" spans="2:17">
       <c r="B30" s="1">
         <v>44724</v>
       </c>
@@ -6177,47 +6261,50 @@
       <c r="E30">
         <v>6</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="19" cm="1">
+        <f t="array" ref="F30">SUMPRODUCT(($C$11:$C$51=C30)*($E$11:$E$51))</f>
+        <v>6</v>
+      </c>
+      <c r="G30">
         <v>176.69</v>
       </c>
-      <c r="G30">
+      <c r="H30">
+        <f t="shared" si="7"/>
+        <v>1060.1399999999999</v>
+      </c>
+      <c r="I30" s="19">
+        <v>-1</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="8"/>
+        <v>-1060.1399999999999</v>
+      </c>
+      <c r="K30" t="s">
+        <v>112</v>
+      </c>
+      <c r="L30" t="s">
+        <v>163</v>
+      </c>
+      <c r="M30" s="1">
+        <v>44787</v>
+      </c>
+      <c r="N30">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="O30" s="16">
         <f t="shared" si="9"/>
-        <v>1060.1399999999999</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="I30">
+        <v>63</v>
+      </c>
+      <c r="P30" s="16">
         <f t="shared" si="10"/>
-        <v>-1060.1399999999999</v>
-      </c>
-      <c r="J30" t="s">
-        <v>112</v>
-      </c>
-      <c r="K30" t="s">
-        <v>163</v>
-      </c>
-      <c r="L30" s="1">
-        <v>44787</v>
-      </c>
-      <c r="M30">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="N30" s="16">
-        <f>L30-B30</f>
-        <v>63</v>
-      </c>
-      <c r="O30" s="16">
-        <f>(1+M30)^(1/N30)-1</f>
         <v>1.9980443135318993E-3</v>
       </c>
-      <c r="P30" s="16">
-        <f>(1+O30)^92</f>
+      <c r="Q30" s="16">
+        <f t="shared" si="11"/>
         <v>1.2015791869493655</v>
       </c>
     </row>
-    <row r="31" spans="2:16">
+    <row r="31" spans="2:17">
       <c r="B31" s="1">
         <v>44724</v>
       </c>
@@ -6230,47 +6317,50 @@
       <c r="E31">
         <v>12</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="19" cm="1">
+        <f t="array" ref="F31">SUMPRODUCT(($C$11:$C$51=C31)*($E$11:$E$51))</f>
+        <v>12</v>
+      </c>
+      <c r="G31">
         <v>84</v>
       </c>
-      <c r="G31">
+      <c r="H31">
+        <f t="shared" si="7"/>
+        <v>1008</v>
+      </c>
+      <c r="I31" s="19">
+        <v>-1</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="8"/>
+        <v>-1008</v>
+      </c>
+      <c r="K31" t="s">
+        <v>415</v>
+      </c>
+      <c r="L31" t="s">
+        <v>142</v>
+      </c>
+      <c r="M31" s="1">
+        <v>44801</v>
+      </c>
+      <c r="N31">
+        <v>0.17</v>
+      </c>
+      <c r="O31" s="16">
         <f t="shared" si="9"/>
-        <v>1008</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="I31">
+        <v>77</v>
+      </c>
+      <c r="P31" s="16">
         <f t="shared" si="10"/>
-        <v>-1008</v>
-      </c>
-      <c r="J31" t="s">
-        <v>415</v>
-      </c>
-      <c r="K31" t="s">
-        <v>142</v>
-      </c>
-      <c r="L31" s="1">
-        <v>44801</v>
-      </c>
-      <c r="M31">
-        <v>0.17</v>
-      </c>
-      <c r="N31" s="16">
-        <f>L31-B31</f>
-        <v>77</v>
-      </c>
-      <c r="O31" s="16">
-        <f>(1+M31)^(1/N31)-1</f>
         <v>2.0410899187346399E-3</v>
       </c>
-      <c r="P31" s="16">
-        <f>(1+O31)^92</f>
+      <c r="Q31" s="16">
+        <f t="shared" si="11"/>
         <v>1.2063374816411372</v>
       </c>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:17">
       <c r="B32" s="1">
         <v>44724</v>
       </c>
@@ -6283,47 +6373,50 @@
       <c r="E32">
         <v>9</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="19" cm="1">
+        <f t="array" ref="F32">SUMPRODUCT(($C$11:$C$51=C32)*($E$11:$E$51))</f>
+        <v>9</v>
+      </c>
+      <c r="G32">
         <v>108.34</v>
       </c>
-      <c r="G32">
+      <c r="H32">
+        <f t="shared" si="7"/>
+        <v>975.06000000000006</v>
+      </c>
+      <c r="I32" s="19">
+        <v>-1</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="8"/>
+        <v>-975.06000000000006</v>
+      </c>
+      <c r="K32" t="s">
+        <v>415</v>
+      </c>
+      <c r="L32" t="s">
+        <v>142</v>
+      </c>
+      <c r="M32" s="1">
+        <v>44801</v>
+      </c>
+      <c r="N32">
+        <v>0.12</v>
+      </c>
+      <c r="O32" s="16">
         <f t="shared" si="9"/>
-        <v>975.06000000000006</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="I32">
+        <v>77</v>
+      </c>
+      <c r="P32" s="16">
         <f t="shared" si="10"/>
-        <v>-975.06000000000006</v>
-      </c>
-      <c r="J32" t="s">
-        <v>415</v>
-      </c>
-      <c r="K32" t="s">
-        <v>142</v>
-      </c>
-      <c r="L32" s="1">
-        <v>44801</v>
-      </c>
-      <c r="M32">
-        <v>0.12</v>
-      </c>
-      <c r="N32" s="16">
-        <f>L32-B32</f>
-        <v>77</v>
-      </c>
-      <c r="O32" s="16">
-        <f>(1+M32)^(1/N32)-1</f>
         <v>1.4728847386982213E-3</v>
       </c>
-      <c r="P32" s="16">
-        <f>(1+O32)^92</f>
+      <c r="Q32" s="16">
+        <f t="shared" si="11"/>
         <v>1.1450012193329568</v>
       </c>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="2:17">
       <c r="B33" s="1">
         <v>44724</v>
       </c>
@@ -6336,47 +6429,50 @@
       <c r="E33">
         <v>6</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="19" cm="1">
+        <f t="array" ref="F33">SUMPRODUCT(($C$11:$C$51=C33)*($E$11:$E$51))</f>
+        <v>6</v>
+      </c>
+      <c r="G33">
         <v>180.07</v>
       </c>
-      <c r="G33">
+      <c r="H33">
+        <f t="shared" si="7"/>
+        <v>1080.42</v>
+      </c>
+      <c r="I33" s="19">
+        <v>-1</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="8"/>
+        <v>-1080.42</v>
+      </c>
+      <c r="K33" t="s">
+        <v>433</v>
+      </c>
+      <c r="L33" t="s">
+        <v>11</v>
+      </c>
+      <c r="M33" s="1">
+        <v>44801</v>
+      </c>
+      <c r="N33">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="O33">
         <f t="shared" si="9"/>
-        <v>1080.42</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="I33">
+        <v>77</v>
+      </c>
+      <c r="P33">
         <f t="shared" si="10"/>
-        <v>-1080.42</v>
-      </c>
-      <c r="J33" t="s">
-        <v>433</v>
-      </c>
-      <c r="K33" t="s">
-        <v>11</v>
-      </c>
-      <c r="L33" s="1">
-        <v>44801</v>
-      </c>
-      <c r="M33">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="N33">
-        <f>L33-B33</f>
-        <v>77</v>
-      </c>
-      <c r="O33">
-        <f>(1+M33)^(1/N33)-1</f>
         <v>1.6115046098634789E-3</v>
       </c>
-      <c r="P33">
-        <f>(1+O33)^92</f>
+      <c r="Q33">
+        <f t="shared" si="11"/>
         <v>1.1596741873887326</v>
       </c>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="2:17">
       <c r="B34" s="1">
         <v>44724</v>
       </c>
@@ -6389,47 +6485,50 @@
       <c r="E34">
         <v>3</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="19" cm="1">
+        <f t="array" ref="F34">SUMPRODUCT(($C$11:$C$51=C34)*($E$11:$E$51))</f>
+        <v>3</v>
+      </c>
+      <c r="G34">
         <v>339.23</v>
       </c>
-      <c r="G34">
+      <c r="H34">
+        <f t="shared" si="7"/>
+        <v>1017.69</v>
+      </c>
+      <c r="I34" s="19">
+        <v>-1</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="8"/>
+        <v>-1017.69</v>
+      </c>
+      <c r="K34" t="s">
+        <v>435</v>
+      </c>
+      <c r="L34" t="s">
+        <v>11</v>
+      </c>
+      <c r="M34" s="1">
+        <v>44766</v>
+      </c>
+      <c r="N34">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="O34">
         <f t="shared" si="9"/>
-        <v>1017.69</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="I34">
+        <v>42</v>
+      </c>
+      <c r="P34">
         <f t="shared" si="10"/>
-        <v>-1017.69</v>
-      </c>
-      <c r="J34" t="s">
-        <v>435</v>
-      </c>
-      <c r="K34" t="s">
-        <v>11</v>
-      </c>
-      <c r="L34" s="1">
-        <v>44766</v>
-      </c>
-      <c r="M34">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="N34">
-        <f>L34-B34</f>
-        <v>42</v>
-      </c>
-      <c r="O34">
-        <f>(1+M34)^(1/N34)-1</f>
         <v>2.2501629544413593E-3</v>
       </c>
-      <c r="P34">
-        <f>(1+O34)^92</f>
+      <c r="Q34">
+        <f t="shared" si="11"/>
         <v>1.22971499588866</v>
       </c>
     </row>
-    <row r="35" spans="2:16">
+    <row r="35" spans="2:17">
       <c r="B35" s="1">
         <v>44724</v>
       </c>
@@ -6442,47 +6541,50 @@
       <c r="E35">
         <v>20</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="19" cm="1">
+        <f t="array" ref="F35">SUMPRODUCT(($C$11:$C$51=C35)*($E$11:$E$51))</f>
+        <v>20</v>
+      </c>
+      <c r="G35">
         <v>47.95</v>
       </c>
-      <c r="G35">
+      <c r="H35">
+        <f t="shared" si="7"/>
+        <v>959</v>
+      </c>
+      <c r="I35" s="19">
+        <v>-1</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="8"/>
+        <v>-959</v>
+      </c>
+      <c r="K35" t="s">
+        <v>415</v>
+      </c>
+      <c r="L35" t="s">
+        <v>163</v>
+      </c>
+      <c r="M35" s="1">
+        <v>44815</v>
+      </c>
+      <c r="N35">
+        <v>0.12</v>
+      </c>
+      <c r="O35">
         <f t="shared" si="9"/>
-        <v>959</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="I35">
+        <v>91</v>
+      </c>
+      <c r="P35">
         <f t="shared" si="10"/>
-        <v>-959</v>
-      </c>
-      <c r="J35" t="s">
-        <v>415</v>
-      </c>
-      <c r="K35" t="s">
-        <v>163</v>
-      </c>
-      <c r="L35" s="1">
-        <v>44815</v>
-      </c>
-      <c r="M35">
-        <v>0.12</v>
-      </c>
-      <c r="N35">
-        <f>L35-B35</f>
-        <v>91</v>
-      </c>
-      <c r="O35">
-        <f>(1+M35)^(1/N35)-1</f>
         <v>1.2461459636541328E-3</v>
       </c>
-      <c r="P35">
-        <f>(1+O35)^92</f>
+      <c r="Q35">
+        <f t="shared" si="11"/>
         <v>1.1213956834792898</v>
       </c>
     </row>
-    <row r="36" spans="2:16">
+    <row r="36" spans="2:17">
       <c r="B36" s="1">
         <v>44724</v>
       </c>
@@ -6495,47 +6597,50 @@
       <c r="E36">
         <v>10</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="19" cm="1">
+        <f t="array" ref="F36">SUMPRODUCT(($C$11:$C$51=C36)*($E$11:$E$51))</f>
+        <v>10</v>
+      </c>
+      <c r="G36">
         <v>100.4</v>
       </c>
-      <c r="G36">
+      <c r="H36">
+        <f t="shared" si="7"/>
+        <v>1004</v>
+      </c>
+      <c r="I36" s="19">
+        <v>-1</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="8"/>
+        <v>-1004</v>
+      </c>
+      <c r="K36" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="L36" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="M36" s="1">
+        <v>44815</v>
+      </c>
+      <c r="N36">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O36" s="18">
         <f t="shared" si="9"/>
-        <v>1004</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="I36">
+        <v>91</v>
+      </c>
+      <c r="P36" s="18">
         <f t="shared" si="10"/>
-        <v>-1004</v>
-      </c>
-      <c r="J36" s="18" t="s">
-        <v>415</v>
-      </c>
-      <c r="K36" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="L36" s="1">
-        <v>44815</v>
-      </c>
-      <c r="M36">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="N36" s="18">
-        <f>L36-B36</f>
-        <v>91</v>
-      </c>
-      <c r="O36" s="18">
-        <f>(1+M36)^(1/N36)-1</f>
         <v>1.4409081274349145E-3</v>
       </c>
-      <c r="P36" s="18">
-        <f>(1+O36)^92</f>
+      <c r="Q36" s="18">
+        <f t="shared" si="11"/>
         <v>1.1416426352652658</v>
       </c>
     </row>
-    <row r="37" spans="2:16">
+    <row r="37" spans="2:17">
       <c r="B37" s="1">
         <v>44724</v>
       </c>
@@ -6548,47 +6653,50 @@
       <c r="E37">
         <v>14</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="19" cm="1">
+        <f t="array" ref="F37">SUMPRODUCT(($C$11:$C$51=C37)*($E$11:$E$51))</f>
+        <v>14</v>
+      </c>
+      <c r="G37">
         <v>73.89</v>
       </c>
-      <c r="G37">
+      <c r="H37">
+        <f t="shared" si="7"/>
+        <v>1034.46</v>
+      </c>
+      <c r="I37" s="19">
+        <v>-1</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="8"/>
+        <v>-1034.46</v>
+      </c>
+      <c r="K37" t="s">
+        <v>415</v>
+      </c>
+      <c r="L37" t="s">
+        <v>141</v>
+      </c>
+      <c r="M37" s="1">
+        <v>44815</v>
+      </c>
+      <c r="N37">
+        <v>0.35</v>
+      </c>
+      <c r="O37" s="18">
         <f t="shared" si="9"/>
-        <v>1034.46</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="I37">
+        <v>91</v>
+      </c>
+      <c r="P37" s="18">
         <f t="shared" si="10"/>
-        <v>-1034.46</v>
-      </c>
-      <c r="J37" t="s">
-        <v>415</v>
-      </c>
-      <c r="K37" t="s">
-        <v>141</v>
-      </c>
-      <c r="L37" s="1">
-        <v>44815</v>
-      </c>
-      <c r="M37">
-        <v>0.35</v>
-      </c>
-      <c r="N37" s="18">
-        <f>L37-B37</f>
-        <v>91</v>
-      </c>
-      <c r="O37" s="18">
-        <f>(1+M37)^(1/N37)-1</f>
         <v>3.303296563134106E-3</v>
       </c>
-      <c r="P37" s="18">
-        <f>(1+O37)^92</f>
+      <c r="Q37" s="18">
+        <f t="shared" si="11"/>
         <v>1.3544594503602096</v>
       </c>
     </row>
-    <row r="38" spans="2:16">
+    <row r="38" spans="2:17">
       <c r="B38" s="1">
         <v>44724</v>
       </c>
@@ -6601,47 +6709,50 @@
       <c r="E38">
         <v>33</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="19" cm="1">
+        <f t="array" ref="F38">SUMPRODUCT(($C$11:$C$51=C38)*($E$11:$E$51))</f>
+        <v>33</v>
+      </c>
+      <c r="G38">
         <v>30.21</v>
       </c>
-      <c r="G38">
+      <c r="H38">
+        <f t="shared" si="7"/>
+        <v>996.93000000000006</v>
+      </c>
+      <c r="I38" s="19">
+        <v>-1</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="8"/>
+        <v>-996.93000000000006</v>
+      </c>
+      <c r="K38" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="L38" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="M38" s="1">
+        <v>44815</v>
+      </c>
+      <c r="N38" s="18">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O38" s="18">
         <f t="shared" si="9"/>
-        <v>996.93000000000006</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="I38">
+        <v>91</v>
+      </c>
+      <c r="P38" s="18">
         <f t="shared" si="10"/>
-        <v>-996.93000000000006</v>
-      </c>
-      <c r="J38" s="18" t="s">
-        <v>415</v>
-      </c>
-      <c r="K38" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="L38" s="1">
-        <v>44815</v>
-      </c>
-      <c r="M38" s="18">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="N38" s="18">
-        <f>L38-B38</f>
-        <v>91</v>
-      </c>
-      <c r="O38" s="18">
-        <f>(1+M38)^(1/N38)-1</f>
         <v>2.7164309397338382E-3</v>
       </c>
-      <c r="P38" s="18">
-        <f>(1+O38)^92</f>
+      <c r="Q38" s="18">
+        <f t="shared" si="11"/>
         <v>1.2834770316028687</v>
       </c>
     </row>
-    <row r="39" spans="2:16">
+    <row r="39" spans="2:17">
       <c r="B39" s="1">
         <v>44724</v>
       </c>
@@ -6654,47 +6765,50 @@
       <c r="E39">
         <v>21</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="19" cm="1">
+        <f t="array" ref="F39">SUMPRODUCT(($C$11:$C$51=C39)*($E$11:$E$51))</f>
+        <v>41</v>
+      </c>
+      <c r="G39">
         <v>48.75</v>
       </c>
-      <c r="G39">
+      <c r="H39">
+        <f t="shared" si="7"/>
+        <v>1023.75</v>
+      </c>
+      <c r="I39" s="19">
+        <v>-1</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="8"/>
+        <v>-1023.75</v>
+      </c>
+      <c r="K39" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="L39" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="M39" s="1">
+        <v>44745</v>
+      </c>
+      <c r="N39">
+        <v>0.11</v>
+      </c>
+      <c r="O39">
         <f t="shared" si="9"/>
-        <v>1023.75</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="I39">
+        <v>21</v>
+      </c>
+      <c r="P39">
         <f t="shared" si="10"/>
-        <v>-1023.75</v>
-      </c>
-      <c r="J39" s="18" t="s">
-        <v>415</v>
-      </c>
-      <c r="K39" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="L39" s="1">
-        <v>44745</v>
-      </c>
-      <c r="M39">
-        <v>0.11</v>
-      </c>
-      <c r="N39">
-        <f>L39-B39</f>
-        <v>21</v>
-      </c>
-      <c r="O39">
-        <f>(1+M39)^(1/N39)-1</f>
         <v>4.981893106467794E-3</v>
       </c>
-      <c r="P39">
-        <f>(1+O39)^92</f>
+      <c r="Q39">
+        <f t="shared" si="11"/>
         <v>1.5796388699807264</v>
       </c>
     </row>
-    <row r="40" spans="2:16">
+    <row r="40" spans="2:17">
       <c r="B40" s="1">
         <v>44724</v>
       </c>
@@ -6707,47 +6821,50 @@
       <c r="E40">
         <v>7</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="19" cm="1">
+        <f t="array" ref="F40">SUMPRODUCT(($C$11:$C$51=C40)*($E$11:$E$51))</f>
+        <v>7</v>
+      </c>
+      <c r="G40">
         <v>144</v>
       </c>
-      <c r="G40">
+      <c r="H40">
+        <f t="shared" si="7"/>
+        <v>1008</v>
+      </c>
+      <c r="I40" s="19">
+        <v>-1</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="8"/>
+        <v>-1008</v>
+      </c>
+      <c r="K40" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="L40" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="M40" s="1">
+        <v>44815</v>
+      </c>
+      <c r="N40" s="18">
+        <v>0.11</v>
+      </c>
+      <c r="O40" s="18">
         <f t="shared" si="9"/>
-        <v>1008</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="I40">
+        <v>91</v>
+      </c>
+      <c r="P40" s="18">
         <f t="shared" si="10"/>
-        <v>-1008</v>
-      </c>
-      <c r="J40" s="18" t="s">
-        <v>415</v>
-      </c>
-      <c r="K40" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="L40" s="1">
-        <v>44815</v>
-      </c>
-      <c r="M40" s="18">
-        <v>0.11</v>
-      </c>
-      <c r="N40" s="18">
-        <f>L40-B40</f>
-        <v>91</v>
-      </c>
-      <c r="O40" s="18">
-        <f>(1+M40)^(1/N40)-1</f>
         <v>1.1474711970971274E-3</v>
       </c>
-      <c r="P40" s="18">
-        <f>(1+O40)^92</f>
+      <c r="Q40" s="18">
+        <f t="shared" si="11"/>
         <v>1.111273693028771</v>
       </c>
     </row>
-    <row r="41" spans="2:16">
+    <row r="41" spans="2:17">
       <c r="B41" s="1">
         <v>44724</v>
       </c>
@@ -6760,47 +6877,50 @@
       <c r="E41">
         <v>8</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="19" cm="1">
+        <f t="array" ref="F41">SUMPRODUCT(($C$11:$C$51=C41)*($E$11:$E$51))</f>
+        <v>8</v>
+      </c>
+      <c r="G41">
         <v>127.72</v>
       </c>
-      <c r="G41">
+      <c r="H41">
+        <f t="shared" si="7"/>
+        <v>1021.76</v>
+      </c>
+      <c r="I41" s="19">
+        <v>-1</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="8"/>
+        <v>-1021.76</v>
+      </c>
+      <c r="K41" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="L41" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="M41" s="1">
+        <v>44815</v>
+      </c>
+      <c r="N41">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="O41" s="18">
         <f t="shared" si="9"/>
-        <v>1021.76</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="I41">
+        <v>91</v>
+      </c>
+      <c r="P41" s="18">
         <f t="shared" si="10"/>
-        <v>-1021.76</v>
-      </c>
-      <c r="J41" s="18" t="s">
-        <v>415</v>
-      </c>
-      <c r="K41" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="L41" s="1">
-        <v>44815</v>
-      </c>
-      <c r="M41">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="N41" s="18">
-        <f>L41-B41</f>
-        <v>91</v>
-      </c>
-      <c r="O41" s="18">
-        <f>(1+M41)^(1/N41)-1</f>
         <v>1.0078392710637374E-3</v>
       </c>
-      <c r="P41" s="18">
-        <f>(1+O41)^92</f>
+      <c r="Q41" s="18">
+        <f t="shared" si="11"/>
         <v>1.0971045918410911</v>
       </c>
     </row>
-    <row r="42" spans="2:16">
+    <row r="42" spans="2:17">
       <c r="B42" s="1">
         <v>44724</v>
       </c>
@@ -6813,47 +6933,50 @@
       <c r="E42">
         <v>20</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="19" cm="1">
+        <f t="array" ref="F42">SUMPRODUCT(($C$11:$C$51=C42)*($E$11:$E$51))</f>
+        <v>20</v>
+      </c>
+      <c r="G42">
         <v>53.54</v>
       </c>
-      <c r="G42">
+      <c r="H42">
+        <f t="shared" si="7"/>
+        <v>1070.8</v>
+      </c>
+      <c r="I42" s="19">
+        <v>-1</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="8"/>
+        <v>-1070.8</v>
+      </c>
+      <c r="K42" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="L42" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="M42" s="1">
+        <v>44815</v>
+      </c>
+      <c r="N42">
+        <v>0.22</v>
+      </c>
+      <c r="O42" s="18">
         <f t="shared" si="9"/>
-        <v>1070.8</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="I42">
+        <v>91</v>
+      </c>
+      <c r="P42" s="18">
         <f t="shared" si="10"/>
-        <v>-1070.8</v>
-      </c>
-      <c r="J42" s="18" t="s">
-        <v>415</v>
-      </c>
-      <c r="K42" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="L42" s="1">
-        <v>44815</v>
-      </c>
-      <c r="M42">
-        <v>0.22</v>
-      </c>
-      <c r="N42" s="18">
-        <f>L42-B42</f>
-        <v>91</v>
-      </c>
-      <c r="O42" s="18">
-        <f>(1+M42)^(1/N42)-1</f>
         <v>2.1875635052042153E-3</v>
       </c>
-      <c r="P42" s="18">
-        <f>(1+O42)^92</f>
+      <c r="Q42" s="18">
+        <f t="shared" si="11"/>
         <v>1.222668827476334</v>
       </c>
     </row>
-    <row r="43" spans="2:16">
+    <row r="43" spans="2:17">
       <c r="B43" s="1">
         <v>44724</v>
       </c>
@@ -6866,47 +6989,50 @@
       <c r="E43">
         <v>20</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="19" cm="1">
+        <f t="array" ref="F43">SUMPRODUCT(($C$11:$C$51=C43)*($E$11:$E$51))</f>
+        <v>20</v>
+      </c>
+      <c r="G43">
         <v>51.5</v>
       </c>
-      <c r="G43">
+      <c r="H43">
+        <f t="shared" si="7"/>
+        <v>1030</v>
+      </c>
+      <c r="I43" s="19">
+        <v>-1</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="8"/>
+        <v>-1030</v>
+      </c>
+      <c r="K43" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="L43" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="M43" s="1">
+        <v>44815</v>
+      </c>
+      <c r="N43">
+        <v>0.73</v>
+      </c>
+      <c r="O43" s="18">
         <f t="shared" si="9"/>
-        <v>1030</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="I43">
+        <v>91</v>
+      </c>
+      <c r="P43" s="18">
         <f t="shared" si="10"/>
-        <v>-1030</v>
-      </c>
-      <c r="J43" s="18" t="s">
-        <v>415</v>
-      </c>
-      <c r="K43" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="L43" s="1">
-        <v>44815</v>
-      </c>
-      <c r="M43">
-        <v>0.73</v>
-      </c>
-      <c r="N43" s="18">
-        <f>L43-B43</f>
-        <v>91</v>
-      </c>
-      <c r="O43" s="18">
-        <f>(1+M43)^(1/N43)-1</f>
         <v>6.0414888024045155E-3</v>
       </c>
-      <c r="P43" s="18">
-        <f>(1+O43)^92</f>
+      <c r="Q43" s="18">
+        <f t="shared" si="11"/>
         <v>1.7404517756281392</v>
       </c>
     </row>
-    <row r="44" spans="2:16">
+    <row r="44" spans="2:17">
       <c r="B44" s="1">
         <v>44724</v>
       </c>
@@ -6919,47 +7045,50 @@
       <c r="E44">
         <v>30</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="19" cm="1">
+        <f t="array" ref="F44">SUMPRODUCT(($C$11:$C$51=C44)*($E$11:$E$51))</f>
+        <v>30</v>
+      </c>
+      <c r="G44">
         <v>34.44</v>
       </c>
-      <c r="G44">
+      <c r="H44">
+        <f t="shared" si="7"/>
+        <v>1033.1999999999998</v>
+      </c>
+      <c r="I44" s="19">
+        <v>-1</v>
+      </c>
+      <c r="J44" s="18">
+        <f t="shared" ref="J44:J45" si="12">I44*H44</f>
+        <v>-1033.1999999999998</v>
+      </c>
+      <c r="K44" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="L44" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="M44" s="1">
+        <v>44815</v>
+      </c>
+      <c r="N44" s="18">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="O44" s="18">
         <f t="shared" si="9"/>
-        <v>1033.1999999999998</v>
-      </c>
-      <c r="H44" s="18">
-        <f t="shared" ref="H44:H45" si="11">IF(D44="Buy",-1,1)</f>
-        <v>-1</v>
-      </c>
-      <c r="I44" s="18">
-        <f t="shared" ref="I44:I45" si="12">H44*G44</f>
-        <v>-1033.1999999999998</v>
-      </c>
-      <c r="J44" s="18" t="s">
-        <v>415</v>
-      </c>
-      <c r="K44" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="L44" s="1">
-        <v>44815</v>
-      </c>
-      <c r="M44" s="18">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="N44" s="18">
-        <f>L44-B44</f>
         <v>91</v>
       </c>
-      <c r="O44" s="18">
-        <f>(1+M44)^(1/N44)-1</f>
+      <c r="P44" s="18">
+        <f t="shared" si="10"/>
         <v>2.5865494959438351E-3</v>
       </c>
-      <c r="P44" s="18">
-        <f>(1+O44)^92</f>
+      <c r="Q44" s="18">
+        <f t="shared" si="11"/>
         <v>1.2682719851123665</v>
       </c>
     </row>
-    <row r="45" spans="2:16">
+    <row r="45" spans="2:17">
       <c r="B45" s="1">
         <v>44724</v>
       </c>
@@ -6972,47 +7101,50 @@
       <c r="E45">
         <v>23</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="19" cm="1">
+        <f t="array" ref="F45">SUMPRODUCT(($C$11:$C$51=C45)*($E$11:$E$51))</f>
+        <v>23</v>
+      </c>
+      <c r="G45">
         <v>44.15</v>
       </c>
-      <c r="G45">
-        <f t="shared" si="9"/>
+      <c r="H45">
+        <f t="shared" si="7"/>
         <v>1015.4499999999999</v>
       </c>
-      <c r="H45">
-        <f t="shared" si="11"/>
+      <c r="I45" s="19">
         <v>-1</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <f t="shared" si="12"/>
         <v>-1015.4499999999999</v>
       </c>
-      <c r="J45" s="18" t="s">
+      <c r="K45" s="18" t="s">
         <v>415</v>
       </c>
-      <c r="K45" s="18" t="s">
+      <c r="L45" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="L45" s="1">
+      <c r="M45" s="1">
         <v>44815</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>0.13</v>
       </c>
-      <c r="N45" s="18">
-        <f>L45-B45</f>
+      <c r="O45" s="18">
+        <f t="shared" si="9"/>
         <v>91</v>
       </c>
-      <c r="O45" s="18">
-        <f>(1+M45)^(1/N45)-1</f>
+      <c r="P45" s="18">
+        <f t="shared" si="10"/>
         <v>1.3439532058281412E-3</v>
       </c>
-      <c r="P45" s="18">
-        <f>(1+O45)^92</f>
+      <c r="Q45" s="18">
+        <f t="shared" si="11"/>
         <v>1.1315186671225852</v>
       </c>
     </row>
-    <row r="46" spans="2:16">
+    <row r="46" spans="2:17">
       <c r="B46" s="1">
         <v>44724</v>
       </c>
@@ -7025,47 +7157,50 @@
       <c r="E46">
         <v>15</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="19" cm="1">
+        <f t="array" ref="F46">SUMPRODUCT(($C$11:$C$51=C46)*($E$11:$E$51))</f>
+        <v>15</v>
+      </c>
+      <c r="G46">
         <v>66.5</v>
       </c>
-      <c r="G46">
+      <c r="H46">
+        <f t="shared" si="7"/>
+        <v>997.5</v>
+      </c>
+      <c r="I46" s="19">
+        <v>-1</v>
+      </c>
+      <c r="J46" s="18">
+        <f t="shared" ref="J46" si="13">I46*H46</f>
+        <v>-997.5</v>
+      </c>
+      <c r="K46" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="L46" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="M46" s="1">
+        <v>44815</v>
+      </c>
+      <c r="N46">
+        <v>0.16</v>
+      </c>
+      <c r="O46" s="18">
         <f t="shared" si="9"/>
-        <v>997.5</v>
-      </c>
-      <c r="H46" s="18">
-        <f t="shared" ref="H46" si="13">IF(D46="Buy",-1,1)</f>
-        <v>-1</v>
-      </c>
-      <c r="I46" s="18">
-        <f t="shared" ref="I46" si="14">H46*G46</f>
-        <v>-997.5</v>
-      </c>
-      <c r="J46" s="18" t="s">
-        <v>415</v>
-      </c>
-      <c r="K46" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="L46" s="1">
-        <v>44815</v>
-      </c>
-      <c r="M46">
-        <v>0.16</v>
-      </c>
-      <c r="N46" s="18">
-        <f>L46-B46</f>
         <v>91</v>
       </c>
-      <c r="O46" s="18">
-        <f>(1+M46)^(1/N46)-1</f>
+      <c r="P46" s="18">
+        <f t="shared" si="10"/>
         <v>1.6323198533032546E-3</v>
       </c>
-      <c r="P46" s="18">
-        <f>(1+O46)^92</f>
+      <c r="Q46" s="18">
+        <f t="shared" si="11"/>
         <v>1.1618934910298244</v>
       </c>
     </row>
-    <row r="47" spans="2:16">
+    <row r="47" spans="2:17">
       <c r="B47" s="1">
         <v>44724</v>
       </c>
@@ -7078,47 +7213,50 @@
       <c r="E47">
         <v>4</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="19" cm="1">
+        <f t="array" ref="F47">SUMPRODUCT(($C$11:$C$51=C47)*($E$11:$E$51))</f>
+        <v>4</v>
+      </c>
+      <c r="G47">
         <v>270.8</v>
       </c>
-      <c r="G47">
+      <c r="H47">
+        <f t="shared" si="7"/>
+        <v>1083.2</v>
+      </c>
+      <c r="I47" s="19">
+        <v>-1</v>
+      </c>
+      <c r="J47" s="18">
+        <f t="shared" ref="J47" si="14">I47*H47</f>
+        <v>-1083.2</v>
+      </c>
+      <c r="K47" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="L47" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="M47" s="1">
+        <v>44815</v>
+      </c>
+      <c r="N47" s="18">
+        <v>0.09</v>
+      </c>
+      <c r="O47" s="18">
         <f t="shared" si="9"/>
-        <v>1083.2</v>
-      </c>
-      <c r="H47" s="18">
-        <f t="shared" ref="H47" si="15">IF(D47="Buy",-1,1)</f>
-        <v>-1</v>
-      </c>
-      <c r="I47" s="18">
-        <f t="shared" ref="I47" si="16">H47*G47</f>
-        <v>-1083.2</v>
-      </c>
-      <c r="J47" s="18" t="s">
-        <v>415</v>
-      </c>
-      <c r="K47" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="L47" s="1">
-        <v>44815</v>
-      </c>
-      <c r="M47" s="18">
-        <v>0.09</v>
-      </c>
-      <c r="N47" s="18">
-        <f>L47-B47</f>
         <v>91</v>
       </c>
-      <c r="O47" s="18">
-        <f>(1+M47)^(1/N47)-1</f>
+      <c r="P47" s="18">
+        <f t="shared" si="10"/>
         <v>9.4745620432945543E-4</v>
       </c>
-      <c r="P47" s="18">
-        <f>(1+O47)^92</f>
+      <c r="Q47" s="18">
+        <f t="shared" si="11"/>
         <v>1.0910327272627209</v>
       </c>
     </row>
-    <row r="48" spans="2:16">
+    <row r="48" spans="2:17">
       <c r="B48" s="1">
         <v>44724</v>
       </c>
@@ -7131,47 +7269,50 @@
       <c r="E48">
         <v>16</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="19" cm="1">
+        <f t="array" ref="F48">SUMPRODUCT(($C$11:$C$51=C48)*($E$11:$E$51))</f>
+        <v>16</v>
+      </c>
+      <c r="G48">
         <v>63.54</v>
       </c>
-      <c r="G48">
+      <c r="H48">
+        <f t="shared" si="7"/>
+        <v>1016.64</v>
+      </c>
+      <c r="I48" s="19">
+        <v>-1</v>
+      </c>
+      <c r="J48" s="18">
+        <f t="shared" ref="J48" si="15">I48*H48</f>
+        <v>-1016.64</v>
+      </c>
+      <c r="K48" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="L48" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="M48" s="1">
+        <v>44815</v>
+      </c>
+      <c r="N48" s="18">
+        <v>0.3</v>
+      </c>
+      <c r="O48" s="18">
         <f t="shared" si="9"/>
-        <v>1016.64</v>
-      </c>
-      <c r="H48" s="18">
-        <f t="shared" ref="H48" si="17">IF(D48="Buy",-1,1)</f>
-        <v>-1</v>
-      </c>
-      <c r="I48" s="18">
-        <f t="shared" ref="I48" si="18">H48*G48</f>
-        <v>-1016.64</v>
-      </c>
-      <c r="J48" s="18" t="s">
-        <v>415</v>
-      </c>
-      <c r="K48" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="L48" s="1">
-        <v>44815</v>
-      </c>
-      <c r="M48" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="N48" s="18">
-        <f>L48-B48</f>
         <v>91</v>
       </c>
-      <c r="O48" s="18">
-        <f>(1+M48)^(1/N48)-1</f>
+      <c r="P48" s="18">
+        <f t="shared" si="10"/>
         <v>2.8872839838995912E-3</v>
       </c>
-      <c r="P48" s="18">
-        <f>(1+O48)^92</f>
+      <c r="Q48" s="18">
+        <f t="shared" si="11"/>
         <v>1.3037534691790746</v>
       </c>
     </row>
-    <row r="49" spans="2:16">
+    <row r="49" spans="2:17">
       <c r="B49" s="1">
         <v>44724</v>
       </c>
@@ -7184,47 +7325,50 @@
       <c r="E49">
         <v>12</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="19" cm="1">
+        <f t="array" ref="F49">SUMPRODUCT(($C$11:$C$51=C49)*($E$11:$E$51))</f>
+        <v>12</v>
+      </c>
+      <c r="G49">
         <v>86.3</v>
       </c>
-      <c r="G49">
+      <c r="H49">
+        <f t="shared" si="7"/>
+        <v>1035.5999999999999</v>
+      </c>
+      <c r="I49" s="19">
+        <v>-1</v>
+      </c>
+      <c r="J49" s="18">
+        <f t="shared" ref="J49:J50" si="16">I49*H49</f>
+        <v>-1035.5999999999999</v>
+      </c>
+      <c r="K49" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="L49" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="M49" s="1">
+        <v>44801</v>
+      </c>
+      <c r="N49">
+        <v>0.12</v>
+      </c>
+      <c r="O49" s="18">
         <f t="shared" si="9"/>
-        <v>1035.5999999999999</v>
-      </c>
-      <c r="H49" s="18">
-        <f t="shared" ref="H49:H50" si="19">IF(D49="Buy",-1,1)</f>
-        <v>-1</v>
-      </c>
-      <c r="I49" s="18">
-        <f t="shared" ref="I49:I50" si="20">H49*G49</f>
-        <v>-1035.5999999999999</v>
-      </c>
-      <c r="J49" s="18" t="s">
-        <v>415</v>
-      </c>
-      <c r="K49" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="L49" s="1">
-        <v>44801</v>
-      </c>
-      <c r="M49">
-        <v>0.12</v>
-      </c>
-      <c r="N49" s="18">
-        <f>L49-B49</f>
         <v>77</v>
       </c>
-      <c r="O49" s="18">
-        <f>(1+M49)^(1/N49)-1</f>
+      <c r="P49" s="18">
+        <f t="shared" si="10"/>
         <v>1.4728847386982213E-3</v>
       </c>
-      <c r="P49" s="18">
-        <f>(1+O49)^92</f>
+      <c r="Q49" s="18">
+        <f t="shared" si="11"/>
         <v>1.1450012193329568</v>
       </c>
     </row>
-    <row r="50" spans="2:16">
+    <row r="50" spans="2:17">
       <c r="B50" s="1">
         <v>44724</v>
       </c>
@@ -7237,47 +7381,50 @@
       <c r="E50">
         <v>13</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="19" cm="1">
+        <f t="array" ref="F50">SUMPRODUCT(($C$11:$C$51=C50)*($E$11:$E$51))</f>
+        <v>13</v>
+      </c>
+      <c r="G50">
         <v>76.400000000000006</v>
       </c>
-      <c r="G50">
+      <c r="H50">
+        <f t="shared" si="7"/>
+        <v>993.2</v>
+      </c>
+      <c r="I50" s="19">
+        <v>-1</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="16"/>
+        <v>-993.2</v>
+      </c>
+      <c r="K50" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="L50" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="M50" s="1">
+        <v>44780</v>
+      </c>
+      <c r="N50">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="O50" s="18">
         <f t="shared" si="9"/>
-        <v>993.2</v>
-      </c>
-      <c r="H50">
-        <f t="shared" si="19"/>
-        <v>-1</v>
-      </c>
-      <c r="I50">
-        <f t="shared" si="20"/>
-        <v>-993.2</v>
-      </c>
-      <c r="J50" s="18" t="s">
-        <v>415</v>
-      </c>
-      <c r="K50" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="L50" s="1">
-        <v>44780</v>
-      </c>
-      <c r="M50">
-        <v>9.4899999999999998E-2</v>
-      </c>
-      <c r="N50" s="18">
-        <f>L50-B50</f>
         <v>56</v>
       </c>
-      <c r="O50" s="18">
-        <f>(1+M50)^(1/N50)-1</f>
+      <c r="P50" s="18">
+        <f t="shared" si="10"/>
         <v>1.6202940261609289E-3</v>
       </c>
-      <c r="P50" s="18">
-        <f>(1+O50)^92</f>
+      <c r="Q50" s="18">
+        <f t="shared" si="11"/>
         <v>1.1606107956028482</v>
       </c>
     </row>
-    <row r="51" spans="2:16">
+    <row r="51" spans="2:17">
       <c r="B51" s="1">
         <v>44724</v>
       </c>
@@ -7290,48 +7437,51 @@
       <c r="E51" s="18">
         <v>7</v>
       </c>
-      <c r="F51" s="18">
+      <c r="F51" s="19" cm="1">
+        <f t="array" ref="F51">SUMPRODUCT(($C$11:$C$51=C51)*($E$11:$E$51))</f>
+        <v>7</v>
+      </c>
+      <c r="G51" s="18">
         <v>155.49</v>
       </c>
-      <c r="G51" s="18">
-        <f t="shared" ref="G51" si="21">F51*E51</f>
+      <c r="H51" s="18">
+        <f t="shared" ref="H51" si="17">G51*E51</f>
         <v>1088.43</v>
       </c>
-      <c r="H51" s="18">
-        <f t="shared" ref="H51" si="22">IF(D51="Buy",-1,1)</f>
+      <c r="I51" s="19">
         <v>-1</v>
       </c>
-      <c r="I51" s="18">
-        <f t="shared" ref="I51" si="23">H51*G51</f>
+      <c r="J51" s="18">
+        <f t="shared" ref="J51" si="18">I51*H51</f>
         <v>-1088.43</v>
       </c>
-      <c r="J51" s="18" t="s">
+      <c r="K51" s="18" t="s">
         <v>415</v>
       </c>
-      <c r="K51" s="18" t="s">
+      <c r="L51" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="L51" s="1">
+      <c r="M51" s="1">
         <v>44815</v>
       </c>
-      <c r="M51">
+      <c r="N51">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N51" s="18">
-        <f>L51-B51</f>
+      <c r="O51" s="18">
+        <f t="shared" si="9"/>
         <v>91</v>
       </c>
-      <c r="O51" s="18">
-        <f>(1+M51)^(1/N51)-1</f>
+      <c r="P51" s="18">
+        <f t="shared" si="10"/>
         <v>1.4409081274349145E-3</v>
       </c>
-      <c r="P51" s="18">
-        <f>(1+O51)^92</f>
+      <c r="Q51" s="18">
+        <f t="shared" si="11"/>
         <v>1.1416426352652658</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="O26:O51">
+  <conditionalFormatting sqref="P26:P51">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -7604,10 +7754,10 @@
       <c r="A37" s="10"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B38" s="20"/>
+      <c r="B38" s="28"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="6"/>
@@ -7664,10 +7814,10 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="20"/>
+      <c r="B47" s="28"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="6"/>
@@ -7990,10 +8140,10 @@
       <c r="A34" s="10"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="20"/>
+      <c r="B35" s="28"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="6"/>
@@ -8050,10 +8200,10 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="B44" s="20"/>
+      <c r="B44" s="28"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="6"/>
@@ -8550,10 +8700,10 @@
       <c r="A14" s="10"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="20"/>
+      <c r="B15" s="28"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="6"/>
@@ -8610,10 +8760,10 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="B24" s="20"/>
+      <c r="B24" s="28"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="6"/>
@@ -8928,10 +9078,10 @@
       <c r="A31" s="10"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="20"/>
+      <c r="B32" s="28"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="6"/>
@@ -8988,10 +9138,10 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="B41" s="20"/>
+      <c r="B41" s="28"/>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="6"/>
@@ -9515,10 +9665,10 @@
       <c r="A34" s="10"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="20"/>
+      <c r="B35" s="28"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="6"/>
@@ -9575,10 +9725,10 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="B44" s="20"/>
+      <c r="B44" s="28"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="6"/>
@@ -9906,10 +10056,10 @@
       <c r="A34" s="10"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="20"/>
+      <c r="B35" s="28"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="6"/>
@@ -9966,10 +10116,10 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="B44" s="20"/>
+      <c r="B44" s="28"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="6"/>
@@ -11109,10 +11259,10 @@
       <c r="A34" s="10"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="20"/>
+      <c r="B35" s="28"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="6"/>
@@ -11169,10 +11319,10 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="B44" s="20"/>
+      <c r="B44" s="28"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="6"/>
@@ -11785,10 +11935,10 @@
       <c r="A62" s="10"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="19" t="s">
+      <c r="A63" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B63" s="20"/>
+      <c r="B63" s="28"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="6"/>
@@ -11845,10 +11995,10 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="19" t="s">
+      <c r="A72" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="B72" s="20"/>
+      <c r="B72" s="28"/>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="6"/>
@@ -12308,10 +12458,10 @@
       <c r="A31" s="10"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="20"/>
+      <c r="B32" s="28"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="6"/>
@@ -12368,10 +12518,10 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="B41" s="20"/>
+      <c r="B41" s="28"/>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="6"/>
@@ -13240,37 +13390,37 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>497</v>
       </c>
     </row>
@@ -13278,12 +13428,12 @@
       <c r="A8" s="2"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>498</v>
       </c>
     </row>
@@ -13291,12 +13441,12 @@
       <c r="A11" s="2"/>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="20" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="20" t="s">
         <v>500</v>
       </c>
     </row>
@@ -13304,12 +13454,12 @@
       <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>502</v>
       </c>
     </row>
@@ -13317,12 +13467,12 @@
       <c r="A17" s="2"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="20" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="20" t="s">
         <v>504</v>
       </c>
     </row>
@@ -13330,12 +13480,12 @@
       <c r="A20" s="2"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="20" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="20" t="s">
         <v>506</v>
       </c>
     </row>
@@ -13343,12 +13493,12 @@
       <c r="A23" s="2"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="20" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="20" t="s">
         <v>508</v>
       </c>
     </row>
@@ -13409,7 +13559,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="23"/>
+      <c r="A28" s="22"/>
     </row>
     <row r="29" spans="1:9" ht="30">
       <c r="A29" s="12"/>
@@ -13456,13 +13606,13 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="23"/>
+      <c r="A31" s="22"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="20"/>
+      <c r="B32" s="28"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="12"/>
@@ -13511,18 +13661,18 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="22"/>
+      <c r="A39" s="21"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="22" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="B41" s="20"/>
+      <c r="B41" s="28"/>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="12"/>
@@ -13547,168 +13697,168 @@
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="22" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="25"/>
+      <c r="A46" s="23"/>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="20" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="20" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="20" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="20" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="21" t="s">
+      <c r="A51" s="20" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="21" t="s">
+      <c r="A52" s="20" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="20" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="25"/>
+      <c r="A54" s="23"/>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="21" t="s">
+      <c r="A55" s="20" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="20" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="21" t="s">
+      <c r="A57" s="20" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="21" t="s">
+      <c r="A58" s="20" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="21" t="s">
+      <c r="A59" s="20" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="21" t="s">
+      <c r="A60" s="20" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="21" t="s">
+      <c r="A61" s="20" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="21" t="s">
+      <c r="A62" s="20" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="21" t="s">
+      <c r="A63" s="20" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="21" t="s">
+      <c r="A64" s="20" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="21" t="s">
+      <c r="A65" s="20" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="21" t="s">
+      <c r="A66" s="20" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="21" t="s">
+      <c r="A67" s="20" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="21" t="s">
+      <c r="A68" s="20" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="21" t="s">
+      <c r="A69" s="20" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="21" t="s">
+      <c r="A70" s="20" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="21" t="s">
+      <c r="A71" s="20" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="21" t="s">
+      <c r="A72" s="20" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="21" t="s">
+      <c r="A73" s="20" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="21" t="s">
+      <c r="A74" s="20" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="21" t="s">
+      <c r="A75" s="20" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="21" t="s">
+      <c r="A76" s="20" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="21" t="s">
+      <c r="A77" s="20" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="21" t="s">
+      <c r="A78" s="20" t="s">
         <v>535</v>
       </c>
     </row>
@@ -13716,207 +13866,207 @@
       <c r="A79" s="2"/>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="21" t="s">
+      <c r="A80" s="20" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="21" t="s">
+      <c r="A81" s="20" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="21" t="s">
+      <c r="A82" s="20" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="21" t="s">
+      <c r="A83" s="20" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="21" t="s">
+      <c r="A84" s="20" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="21" t="s">
+      <c r="A85" s="20" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="21" t="s">
+      <c r="A86" s="20" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="21" t="s">
+      <c r="A87" s="20" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="21" t="s">
+      <c r="A88" s="20" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="21" t="s">
+      <c r="A89" s="20" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="21" t="s">
+      <c r="A90" s="20" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="21" t="s">
+      <c r="A91" s="20" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="21" t="s">
+      <c r="A92" s="20" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="21" t="s">
+      <c r="A93" s="20" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="21" t="s">
+      <c r="A94" s="20" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="21" t="s">
+      <c r="A95" s="20" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="21" t="s">
+      <c r="A96" s="20" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="21" t="s">
+      <c r="A97" s="20" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="21" t="s">
+      <c r="A98" s="20" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="21" t="s">
+      <c r="A99" s="20" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="21" t="s">
+      <c r="A100" s="20" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="21" t="s">
+      <c r="A101" s="20" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="21" t="s">
+      <c r="A102" s="20" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="21" t="s">
+      <c r="A103" s="20" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="21" t="s">
+      <c r="A104" s="20" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="21" t="s">
+      <c r="A105" s="20" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="21" t="s">
+      <c r="A106" s="20" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="21" t="s">
+      <c r="A107" s="20" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="21" t="s">
+      <c r="A108" s="20" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="21" t="s">
+      <c r="A109" s="20" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="21" t="s">
+      <c r="A110" s="20" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="21" t="s">
+      <c r="A111" s="20" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="21" t="s">
+      <c r="A112" s="20" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="21" t="s">
+      <c r="A113" s="20" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="21" t="s">
+      <c r="A114" s="20" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="21" t="s">
+      <c r="A115" s="20" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="21" t="s">
+      <c r="A116" s="20" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="21" t="s">
+      <c r="A117" s="20" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="21" t="s">
+      <c r="A118" s="20" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="21" t="s">
+      <c r="A119" s="20" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" s="21" t="s">
+      <c r="A120" s="20" t="s">
         <v>575</v>
       </c>
     </row>
@@ -13924,232 +14074,232 @@
       <c r="A121" s="2"/>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" s="21" t="s">
+      <c r="A122" s="20" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="123" spans="1:1">
-      <c r="A123" s="21" t="s">
+      <c r="A123" s="20" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="21" t="s">
+      <c r="A124" s="20" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" s="21" t="s">
+      <c r="A125" s="20" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="126" spans="1:1">
-      <c r="A126" s="21" t="s">
+      <c r="A126" s="20" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="127" spans="1:1">
-      <c r="A127" s="21" t="s">
+      <c r="A127" s="20" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="128" spans="1:1">
-      <c r="A128" s="21" t="s">
+      <c r="A128" s="20" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="21" t="s">
+      <c r="A129" s="20" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="130" spans="1:1">
-      <c r="A130" s="21" t="s">
+      <c r="A130" s="20" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="21" t="s">
+      <c r="A131" s="20" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="132" spans="1:1">
-      <c r="A132" s="21" t="s">
+      <c r="A132" s="20" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="133" spans="1:1">
-      <c r="A133" s="21" t="s">
+      <c r="A133" s="20" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="21" t="s">
+      <c r="A134" s="20" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="135" spans="1:1">
-      <c r="A135" s="21" t="s">
+      <c r="A135" s="20" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="136" spans="1:1">
-      <c r="A136" s="21" t="s">
+      <c r="A136" s="20" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="21" t="s">
+      <c r="A137" s="20" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="138" spans="1:1">
-      <c r="A138" s="21" t="s">
+      <c r="A138" s="20" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="139" spans="1:1">
-      <c r="A139" s="21" t="s">
+      <c r="A139" s="20" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="140" spans="1:1">
-      <c r="A140" s="21" t="s">
+      <c r="A140" s="20" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="141" spans="1:1">
-      <c r="A141" s="21" t="s">
+      <c r="A141" s="20" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="142" spans="1:1">
-      <c r="A142" s="21" t="s">
+      <c r="A142" s="20" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="143" spans="1:1">
-      <c r="A143" s="21" t="s">
+      <c r="A143" s="20" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="144" spans="1:1">
-      <c r="A144" s="21" t="s">
+      <c r="A144" s="20" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="145" spans="1:1">
-      <c r="A145" s="21" t="s">
+      <c r="A145" s="20" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="146" spans="1:1">
-      <c r="A146" s="21" t="s">
+      <c r="A146" s="20" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="147" spans="1:1">
-      <c r="A147" s="21" t="s">
+      <c r="A147" s="20" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="148" spans="1:1">
-      <c r="A148" s="21" t="s">
+      <c r="A148" s="20" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="149" spans="1:1">
-      <c r="A149" s="21" t="s">
+      <c r="A149" s="20" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="150" spans="1:1">
-      <c r="A150" s="21" t="s">
+      <c r="A150" s="20" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="151" spans="1:1">
-      <c r="A151" s="21" t="s">
+      <c r="A151" s="20" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="152" spans="1:1">
-      <c r="A152" s="21" t="s">
+      <c r="A152" s="20" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="153" spans="1:1">
-      <c r="A153" s="21" t="s">
+      <c r="A153" s="20" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="154" spans="1:1">
-      <c r="A154" s="21" t="s">
+      <c r="A154" s="20" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="155" spans="1:1">
-      <c r="A155" s="21" t="s">
+      <c r="A155" s="20" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="156" spans="1:1">
-      <c r="A156" s="21" t="s">
+      <c r="A156" s="20" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="157" spans="1:1">
-      <c r="A157" s="21" t="s">
+      <c r="A157" s="20" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="158" spans="1:1">
-      <c r="A158" s="21" t="s">
+      <c r="A158" s="20" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="159" spans="1:1">
-      <c r="A159" s="21" t="s">
+      <c r="A159" s="20" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="160" spans="1:1">
-      <c r="A160" s="21" t="s">
+      <c r="A160" s="20" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="161" spans="1:1">
-      <c r="A161" s="21" t="s">
+      <c r="A161" s="20" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="162" spans="1:1">
-      <c r="A162" s="21" t="s">
+      <c r="A162" s="20" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="163" spans="1:1">
-      <c r="A163" s="21" t="s">
+      <c r="A163" s="20" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="164" spans="1:1">
-      <c r="A164" s="21" t="s">
+      <c r="A164" s="20" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="165" spans="1:1">
-      <c r="A165" s="21" t="s">
+      <c r="A165" s="20" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="166" spans="1:1">
-      <c r="A166" s="21" t="s">
+      <c r="A166" s="20" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="167" spans="1:1">
-      <c r="A167" s="21" t="s">
+      <c r="A167" s="20" t="s">
         <v>621</v>
       </c>
     </row>
@@ -14157,172 +14307,172 @@
       <c r="A168" s="2"/>
     </row>
     <row r="169" spans="1:1">
-      <c r="A169" s="21" t="s">
+      <c r="A169" s="20" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="170" spans="1:1">
-      <c r="A170" s="21" t="s">
+      <c r="A170" s="20" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="171" spans="1:1">
-      <c r="A171" s="21" t="s">
+      <c r="A171" s="20" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="172" spans="1:1">
-      <c r="A172" s="21" t="s">
+      <c r="A172" s="20" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="173" spans="1:1">
-      <c r="A173" s="21" t="s">
+      <c r="A173" s="20" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="174" spans="1:1">
-      <c r="A174" s="21" t="s">
+      <c r="A174" s="20" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="175" spans="1:1">
-      <c r="A175" s="21" t="s">
+      <c r="A175" s="20" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="176" spans="1:1">
-      <c r="A176" s="21" t="s">
+      <c r="A176" s="20" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="177" spans="1:1">
-      <c r="A177" s="21" t="s">
+      <c r="A177" s="20" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="178" spans="1:1">
-      <c r="A178" s="21" t="s">
+      <c r="A178" s="20" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="179" spans="1:1">
-      <c r="A179" s="21" t="s">
+      <c r="A179" s="20" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="180" spans="1:1">
-      <c r="A180" s="21" t="s">
+      <c r="A180" s="20" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="181" spans="1:1">
-      <c r="A181" s="21" t="s">
+      <c r="A181" s="20" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="182" spans="1:1">
-      <c r="A182" s="21" t="s">
+      <c r="A182" s="20" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="183" spans="1:1">
-      <c r="A183" s="21" t="s">
+      <c r="A183" s="20" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="184" spans="1:1">
-      <c r="A184" s="21" t="s">
+      <c r="A184" s="20" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="185" spans="1:1">
-      <c r="A185" s="21" t="s">
+      <c r="A185" s="20" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="186" spans="1:1">
-      <c r="A186" s="21" t="s">
+      <c r="A186" s="20" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="187" spans="1:1">
-      <c r="A187" s="21" t="s">
+      <c r="A187" s="20" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="188" spans="1:1">
-      <c r="A188" s="21" t="s">
+      <c r="A188" s="20" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="189" spans="1:1">
-      <c r="A189" s="21" t="s">
+      <c r="A189" s="20" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="190" spans="1:1">
-      <c r="A190" s="21" t="s">
+      <c r="A190" s="20" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="191" spans="1:1">
-      <c r="A191" s="21" t="s">
+      <c r="A191" s="20" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="192" spans="1:1">
-      <c r="A192" s="21" t="s">
+      <c r="A192" s="20" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="193" spans="1:1">
-      <c r="A193" s="21" t="s">
+      <c r="A193" s="20" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="194" spans="1:1">
-      <c r="A194" s="21" t="s">
+      <c r="A194" s="20" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="195" spans="1:1">
-      <c r="A195" s="21" t="s">
+      <c r="A195" s="20" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="196" spans="1:1">
-      <c r="A196" s="21" t="s">
+      <c r="A196" s="20" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="197" spans="1:1">
-      <c r="A197" s="21" t="s">
+      <c r="A197" s="20" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="198" spans="1:1">
-      <c r="A198" s="21" t="s">
+      <c r="A198" s="20" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="199" spans="1:1">
-      <c r="A199" s="21" t="s">
+      <c r="A199" s="20" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="200" spans="1:1">
-      <c r="A200" s="21" t="s">
+      <c r="A200" s="20" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="201" spans="1:1">
-      <c r="A201" s="21" t="s">
+      <c r="A201" s="20" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="202" spans="1:1">
-      <c r="A202" s="21" t="s">
+      <c r="A202" s="20" t="s">
         <v>655</v>
       </c>
     </row>
@@ -14330,75 +14480,75 @@
       <c r="A203" s="2"/>
     </row>
     <row r="204" spans="1:1">
-      <c r="A204" s="21" t="s">
+      <c r="A204" s="20" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="205" spans="1:1">
-      <c r="A205" s="21" t="s">
+      <c r="A205" s="20" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="206" spans="1:1">
-      <c r="A206" s="21" t="s">
+      <c r="A206" s="20" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="207" spans="1:1">
-      <c r="A207" s="21" t="s">
+      <c r="A207" s="20" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="208" spans="1:1">
-      <c r="A208" s="21" t="s">
+      <c r="A208" s="20" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="209" spans="1:1">
-      <c r="A209" s="21" t="s">
+      <c r="A209" s="20" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="210" spans="1:1">
-      <c r="A210" s="21" t="s">
+      <c r="A210" s="20" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="211" spans="1:1">
-      <c r="A211" s="21" t="s">
+      <c r="A211" s="20" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="212" spans="1:1">
-      <c r="A212" s="21" t="s">
+      <c r="A212" s="20" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="213" spans="1:1">
-      <c r="A213" s="21" t="s">
+      <c r="A213" s="20" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="214" spans="1:1">
-      <c r="A214" s="21" t="s">
+      <c r="A214" s="20" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="215" spans="1:1">
-      <c r="A215" s="21" t="s">
+      <c r="A215" s="20" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="216" spans="1:1">
-      <c r="A216" s="26" t="s">
+      <c r="A216" s="24" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="217" spans="1:1">
-      <c r="A217" s="27"/>
+      <c r="A217" s="25"/>
     </row>
     <row r="218" spans="1:1">
-      <c r="A218" s="28" t="s">
+      <c r="A218" s="26" t="s">
         <v>669</v>
       </c>
     </row>
@@ -14683,10 +14833,10 @@
       <c r="A34" s="10"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="20"/>
+      <c r="B35" s="28"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="6"/>
@@ -14743,10 +14893,10 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="B44" s="20"/>
+      <c r="B44" s="28"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="6"/>
@@ -15232,10 +15382,10 @@
       <c r="A37" s="10"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B38" s="20"/>
+      <c r="B38" s="28"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="6"/>
@@ -15292,10 +15442,10 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="20"/>
+      <c r="B47" s="28"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="6"/>

--- a/code/Screener/record.xlsx
+++ b/code/Screener/record.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\wiki\wiki\dev\python\Python-Stock\code\Screener\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DF5A97-431F-4F99-9669-5F4F101AA1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A845B2-8425-46F8-AEB6-53906B9428F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-18120" windowWidth="28110" windowHeight="18240" xr2:uid="{785F8A36-E86A-4BD6-94E8-FC2E8B05B64B}"/>
+    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" activeTab="1" xr2:uid="{785F8A36-E86A-4BD6-94E8-FC2E8B05B64B}"/>
   </bookViews>
   <sheets>
     <sheet name="Record book" sheetId="1" r:id="rId1"/>
-    <sheet name="2022-06-12 FANG" sheetId="18" r:id="rId2"/>
-    <sheet name="2022-06-12 NFG" sheetId="17" r:id="rId3"/>
-    <sheet name="2022-06-12 OXY" sheetId="16" r:id="rId4"/>
-    <sheet name="2022-06-12 PXD" sheetId="15" r:id="rId5"/>
-    <sheet name="2022-06-12 SM" sheetId="14" r:id="rId6"/>
-    <sheet name="2022-06-12 CEIX" sheetId="13" r:id="rId7"/>
-    <sheet name="2022-06-12 XOM" sheetId="12" r:id="rId8"/>
-    <sheet name="2022-06-12 MPC" sheetId="10" r:id="rId9"/>
-    <sheet name="2022-06-12 CIVI" sheetId="9" r:id="rId10"/>
-    <sheet name="2022-06-11 MUSA" sheetId="6" r:id="rId11"/>
-    <sheet name="2022-06-11 LNTH" sheetId="5" r:id="rId12"/>
-    <sheet name="2022-06-12 VAW" sheetId="11" r:id="rId13"/>
-    <sheet name="2022-06-11 MCK" sheetId="4" r:id="rId14"/>
+    <sheet name="2022-09-17" sheetId="19" r:id="rId2"/>
+    <sheet name="2022-06-12 FANG" sheetId="18" r:id="rId3"/>
+    <sheet name="2022-06-12 NFG" sheetId="17" r:id="rId4"/>
+    <sheet name="2022-06-12 OXY" sheetId="16" r:id="rId5"/>
+    <sheet name="2022-06-12 PXD" sheetId="15" r:id="rId6"/>
+    <sheet name="2022-06-12 SM" sheetId="14" r:id="rId7"/>
+    <sheet name="2022-06-12 CEIX" sheetId="13" r:id="rId8"/>
+    <sheet name="2022-06-12 XOM" sheetId="12" r:id="rId9"/>
+    <sheet name="2022-06-12 MPC" sheetId="10" r:id="rId10"/>
+    <sheet name="2022-06-12 CIVI" sheetId="9" r:id="rId11"/>
+    <sheet name="2022-06-11 MUSA" sheetId="6" r:id="rId12"/>
+    <sheet name="2022-06-11 LNTH" sheetId="5" r:id="rId13"/>
+    <sheet name="2022-06-12 VAW" sheetId="11" r:id="rId14"/>
+    <sheet name="2022-06-11 MCK" sheetId="4" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="1061">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="1087">
   <si>
     <t>EXC</t>
   </si>
@@ -3253,13 +3254,91 @@
   </si>
   <si>
     <t>expected return: 0.14510888959442717</t>
+  </si>
+  <si>
+    <t>Days until sell</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>TWI</t>
+  </si>
+  <si>
+    <t>Industrials</t>
+  </si>
+  <si>
+    <t>PBF</t>
+  </si>
+  <si>
+    <t>exp_return</t>
+  </si>
+  <si>
+    <t>sell_date</t>
+  </si>
+  <si>
+    <t>days_delta</t>
+  </si>
+  <si>
+    <t>disc_rtn</t>
+  </si>
+  <si>
+    <t>qtr_rtn</t>
+  </si>
+  <si>
+    <t>outer_cv_avg_rmse_n11</t>
+  </si>
+  <si>
+    <t>outer_cv_std_n11</t>
+  </si>
+  <si>
+    <t>mean_revert_flag</t>
+  </si>
+  <si>
+    <t>pi_lower</t>
+  </si>
+  <si>
+    <t>pi_upper</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>error_price_ratio</t>
+  </si>
+  <si>
+    <t>std_price_ratio</t>
+  </si>
+  <si>
+    <t>SYMBOL</t>
+  </si>
+  <si>
+    <t>MANT</t>
+  </si>
+  <si>
+    <t>HRB</t>
+  </si>
+  <si>
+    <t>VDC</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>Consumer Staples ETF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3330,6 +3409,14 @@
       <color theme="1"/>
       <name val="Inherit"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3351,7 +3438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3421,6 +3508,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3428,6 +3516,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5508,27 +5599,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42EC1B12-8D19-48E1-AE18-CC4CE60CD15C}">
-  <dimension ref="B9:Q51"/>
+  <dimension ref="B9:R57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:G9"/>
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R62" sqref="R62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="19"/>
     <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" style="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="2:17">
+    <row r="9" spans="2:18">
+      <c r="G9" t="s">
+        <v>1062</v>
+      </c>
       <c r="H9" s="19"/>
       <c r="J9">
         <f>SUM(J11:J49)</f>
         <v>-25784.559999999998</v>
       </c>
-    </row>
-    <row r="10" spans="2:17" ht="77.25">
+      <c r="M9" s="1">
+        <f ca="1">TODAY()</f>
+        <v>44729</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" ht="77.25">
       <c r="K10" t="s">
         <v>11</v>
       </c>
@@ -5538,17 +5641,18 @@
       <c r="M10" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="N10" s="15" t="s">
+      <c r="N10" s="15"/>
+      <c r="O10" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>416</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="11" spans="2:17">
+    <row r="11" spans="2:18">
       <c r="B11" s="1">
         <v>44714</v>
       </c>
@@ -5573,27 +5677,27 @@
         <v>4996.9800000000005</v>
       </c>
       <c r="I11">
-        <f t="shared" ref="I11:I18" si="1">IF(D11="Buy",-1,1)</f>
+        <f t="shared" ref="I11:I12" si="1">IF(D11="Buy",-1,1)</f>
         <v>-1</v>
       </c>
       <c r="J11">
         <f t="shared" ref="J11:J18" si="2">I11*H11</f>
         <v>-4996.9800000000005</v>
       </c>
-      <c r="O11">
-        <f>AVERAGE(O26:O32)</f>
+      <c r="P11">
+        <f>AVERAGE(P26:P32)</f>
         <v>78.400000000000006</v>
       </c>
-      <c r="P11" s="16">
-        <f>AVERAGE(P26:P60)</f>
-        <v>2.1790212754845828E-3</v>
-      </c>
       <c r="Q11" s="16">
-        <f>(1+P11)^92</f>
-        <v>1.2217104193544945</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17">
+        <f>AVERAGE(Q26:Q60)</f>
+        <v>2.4151005043421565E-3</v>
+      </c>
+      <c r="R11" s="16">
+        <f>(1+Q11)^92</f>
+        <v>1.2484732102101657</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18">
       <c r="B12" s="1">
         <v>44714</v>
       </c>
@@ -5626,7 +5730,7 @@
         <v>-5097.28</v>
       </c>
     </row>
-    <row r="13" spans="2:17">
+    <row r="13" spans="2:18">
       <c r="B13" s="1">
         <v>44717</v>
       </c>
@@ -5658,7 +5762,7 @@
         <v>4922.5199999999995</v>
       </c>
     </row>
-    <row r="14" spans="2:17">
+    <row r="14" spans="2:18">
       <c r="B14" s="1">
         <v>44717</v>
       </c>
@@ -5690,7 +5794,7 @@
         <v>5012.32</v>
       </c>
     </row>
-    <row r="15" spans="2:17">
+    <row r="15" spans="2:18">
       <c r="B15" s="1">
         <v>44719</v>
       </c>
@@ -5722,7 +5826,7 @@
         <v>-1068.18</v>
       </c>
     </row>
-    <row r="16" spans="2:17">
+    <row r="16" spans="2:18">
       <c r="B16" s="1">
         <v>44719</v>
       </c>
@@ -5754,7 +5858,7 @@
         <v>-989.28</v>
       </c>
     </row>
-    <row r="17" spans="2:17">
+    <row r="17" spans="2:18">
       <c r="B17" s="1">
         <v>44719</v>
       </c>
@@ -5786,7 +5890,7 @@
         <v>-1102.95</v>
       </c>
     </row>
-    <row r="18" spans="2:17">
+    <row r="18" spans="2:18">
       <c r="B18" s="1">
         <v>44720</v>
       </c>
@@ -5818,7 +5922,7 @@
         <v>-928.89</v>
       </c>
     </row>
-    <row r="19" spans="2:17">
+    <row r="19" spans="2:18">
       <c r="B19" s="1">
         <v>44720</v>
       </c>
@@ -5850,7 +5954,7 @@
         <v>931.5</v>
       </c>
     </row>
-    <row r="20" spans="2:17">
+    <row r="20" spans="2:18">
       <c r="B20" s="1">
         <v>44719</v>
       </c>
@@ -5882,7 +5986,7 @@
         <v>1002.24</v>
       </c>
     </row>
-    <row r="21" spans="2:17">
+    <row r="21" spans="2:18">
       <c r="B21" s="1">
         <v>44719</v>
       </c>
@@ -5914,7 +6018,7 @@
         <v>1067.04</v>
       </c>
     </row>
-    <row r="22" spans="2:17">
+    <row r="22" spans="2:18">
       <c r="B22" s="1">
         <v>44720</v>
       </c>
@@ -5946,7 +6050,7 @@
         <v>1065.1200000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:17">
+    <row r="23" spans="2:18">
       <c r="B23" s="1">
         <v>44722</v>
       </c>
@@ -5978,7 +6082,7 @@
         <v>-978.8</v>
       </c>
     </row>
-    <row r="24" spans="2:17">
+    <row r="24" spans="2:18">
       <c r="B24" s="1">
         <v>44723</v>
       </c>
@@ -6015,8 +6119,12 @@
       <c r="M24" s="1">
         <v>44763</v>
       </c>
-    </row>
-    <row r="25" spans="2:17">
+      <c r="N24" s="31">
+        <f ca="1">$M$9-M24</f>
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18">
       <c r="B25" s="1">
         <v>44723</v>
       </c>
@@ -6053,8 +6161,12 @@
       <c r="M25" s="1">
         <v>44749</v>
       </c>
-    </row>
-    <row r="26" spans="2:17">
+      <c r="N25" s="31">
+        <f ca="1">$M$9-M25</f>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18">
       <c r="B26" s="1">
         <v>44724</v>
       </c>
@@ -6094,23 +6206,27 @@
       <c r="M26" s="1">
         <v>44808</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="31">
+        <f t="shared" ref="N26:N51" ca="1" si="5">$M$9-M26</f>
+        <v>-79</v>
+      </c>
+      <c r="O26">
         <v>0.1</v>
       </c>
-      <c r="O26" s="16">
+      <c r="P26" s="16">
         <f>M26-B26</f>
         <v>84</v>
       </c>
-      <c r="P26" s="16">
-        <f>(1+N26)^(1/O26)-1</f>
+      <c r="Q26" s="16">
+        <f>(1+O26)^(1/P26)-1</f>
         <v>1.135288950835589E-3</v>
       </c>
-      <c r="Q26" s="16">
-        <f>(1+P26)^92</f>
+      <c r="R26" s="16">
+        <f>(1+Q26)^92</f>
         <v>1.1100303305665855</v>
       </c>
     </row>
-    <row r="27" spans="2:17">
+    <row r="27" spans="2:18">
       <c r="B27" s="1">
         <v>44724</v>
       </c>
@@ -6150,8 +6266,12 @@
       <c r="M27" s="1">
         <v>44766</v>
       </c>
-    </row>
-    <row r="28" spans="2:17">
+      <c r="N27" s="31">
+        <f t="shared" ca="1" si="5"/>
+        <v>-37</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18">
       <c r="B28" s="1">
         <v>44724</v>
       </c>
@@ -6172,14 +6292,14 @@
         <v>63.75</v>
       </c>
       <c r="H28">
-        <f t="shared" ref="H28" si="5">G28*E28</f>
+        <f t="shared" ref="H28" si="6">G28*E28</f>
         <v>-6375</v>
       </c>
       <c r="I28" s="19">
         <v>-1</v>
       </c>
       <c r="J28">
-        <f t="shared" ref="J28" si="6">I28*H28</f>
+        <f t="shared" ref="J28" si="7">I28*H28</f>
         <v>6375</v>
       </c>
       <c r="K28" t="s">
@@ -6191,8 +6311,12 @@
       <c r="M28" s="1">
         <v>44766</v>
       </c>
-    </row>
-    <row r="29" spans="2:17">
+      <c r="N28" s="31">
+        <f t="shared" ca="1" si="5"/>
+        <v>-37</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18">
       <c r="B29" s="1">
         <v>44724</v>
       </c>
@@ -6213,14 +6337,14 @@
         <v>63.75</v>
       </c>
       <c r="H29">
-        <f t="shared" ref="H29:H50" si="7">G29*E29</f>
+        <f t="shared" ref="H29:H50" si="8">G29*E29</f>
         <v>1020</v>
       </c>
       <c r="I29" s="19">
         <v>-1</v>
       </c>
       <c r="J29">
-        <f t="shared" ref="J29:J43" si="8">I29*H29</f>
+        <f t="shared" ref="J29:J43" si="9">I29*H29</f>
         <v>-1020</v>
       </c>
       <c r="K29" t="s">
@@ -6232,23 +6356,27 @@
       <c r="M29" s="1">
         <v>44815</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="31">
+        <f t="shared" ca="1" si="5"/>
+        <v>-86</v>
+      </c>
+      <c r="O29">
         <v>0.41</v>
       </c>
-      <c r="O29" s="16">
-        <f t="shared" ref="O29:O51" si="9">M29-B29</f>
+      <c r="P29" s="16">
+        <f>M29-B29</f>
         <v>91</v>
       </c>
-      <c r="P29" s="16">
-        <f t="shared" ref="P29:P51" si="10">(1+N29)^(1/O29)-1</f>
+      <c r="Q29" s="16">
+        <f t="shared" ref="Q29:Q51" si="10">(1+O29)^(1/P29)-1</f>
         <v>3.7828480137320764E-3</v>
       </c>
-      <c r="Q29" s="16">
-        <f t="shared" ref="Q29:Q51" si="11">(1+P29)^92</f>
+      <c r="R29" s="16">
+        <f t="shared" ref="R29:R51" si="11">(1+Q29)^92</f>
         <v>1.4153338156993678</v>
       </c>
     </row>
-    <row r="30" spans="2:17">
+    <row r="30" spans="2:18">
       <c r="B30" s="1">
         <v>44724</v>
       </c>
@@ -6269,14 +6397,14 @@
         <v>176.69</v>
       </c>
       <c r="H30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1060.1399999999999</v>
       </c>
       <c r="I30" s="19">
         <v>-1</v>
       </c>
       <c r="J30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1060.1399999999999</v>
       </c>
       <c r="K30" t="s">
@@ -6288,23 +6416,27 @@
       <c r="M30" s="1">
         <v>44787</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="31">
+        <f t="shared" ca="1" si="5"/>
+        <v>-58</v>
+      </c>
+      <c r="O30">
         <v>0.13400000000000001</v>
       </c>
-      <c r="O30" s="16">
-        <f t="shared" si="9"/>
+      <c r="P30" s="16">
+        <f>M30-B30</f>
         <v>63</v>
       </c>
-      <c r="P30" s="16">
+      <c r="Q30" s="16">
         <f t="shared" si="10"/>
         <v>1.9980443135318993E-3</v>
       </c>
-      <c r="Q30" s="16">
+      <c r="R30" s="16">
         <f t="shared" si="11"/>
         <v>1.2015791869493655</v>
       </c>
     </row>
-    <row r="31" spans="2:17">
+    <row r="31" spans="2:18">
       <c r="B31" s="1">
         <v>44724</v>
       </c>
@@ -6325,14 +6457,14 @@
         <v>84</v>
       </c>
       <c r="H31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1008</v>
       </c>
       <c r="I31" s="19">
         <v>-1</v>
       </c>
       <c r="J31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1008</v>
       </c>
       <c r="K31" t="s">
@@ -6344,23 +6476,27 @@
       <c r="M31" s="1">
         <v>44801</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="31">
+        <f t="shared" ca="1" si="5"/>
+        <v>-72</v>
+      </c>
+      <c r="O31">
         <v>0.17</v>
       </c>
-      <c r="O31" s="16">
-        <f t="shared" si="9"/>
+      <c r="P31" s="16">
+        <f>M31-B31</f>
         <v>77</v>
       </c>
-      <c r="P31" s="16">
+      <c r="Q31" s="16">
         <f t="shared" si="10"/>
         <v>2.0410899187346399E-3</v>
       </c>
-      <c r="Q31" s="16">
+      <c r="R31" s="16">
         <f t="shared" si="11"/>
         <v>1.2063374816411372</v>
       </c>
     </row>
-    <row r="32" spans="2:17">
+    <row r="32" spans="2:18">
       <c r="B32" s="1">
         <v>44724</v>
       </c>
@@ -6381,14 +6517,14 @@
         <v>108.34</v>
       </c>
       <c r="H32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>975.06000000000006</v>
       </c>
       <c r="I32" s="19">
         <v>-1</v>
       </c>
       <c r="J32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-975.06000000000006</v>
       </c>
       <c r="K32" t="s">
@@ -6400,23 +6536,27 @@
       <c r="M32" s="1">
         <v>44801</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="31">
+        <f t="shared" ca="1" si="5"/>
+        <v>-72</v>
+      </c>
+      <c r="O32">
         <v>0.12</v>
       </c>
-      <c r="O32" s="16">
-        <f t="shared" si="9"/>
+      <c r="P32" s="16">
+        <f>M32-B32</f>
         <v>77</v>
       </c>
-      <c r="P32" s="16">
+      <c r="Q32" s="16">
         <f t="shared" si="10"/>
         <v>1.4728847386982213E-3</v>
       </c>
-      <c r="Q32" s="16">
+      <c r="R32" s="16">
         <f t="shared" si="11"/>
         <v>1.1450012193329568</v>
       </c>
     </row>
-    <row r="33" spans="2:17">
+    <row r="33" spans="2:18">
       <c r="B33" s="1">
         <v>44724</v>
       </c>
@@ -6437,14 +6577,14 @@
         <v>180.07</v>
       </c>
       <c r="H33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1080.42</v>
       </c>
       <c r="I33" s="19">
         <v>-1</v>
       </c>
       <c r="J33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1080.42</v>
       </c>
       <c r="K33" t="s">
@@ -6456,23 +6596,27 @@
       <c r="M33" s="1">
         <v>44801</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="31">
+        <f t="shared" ca="1" si="5"/>
+        <v>-72</v>
+      </c>
+      <c r="O33">
         <v>0.13200000000000001</v>
       </c>
-      <c r="O33">
-        <f t="shared" si="9"/>
+      <c r="P33">
+        <f>M33-B33</f>
         <v>77</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <f t="shared" si="10"/>
         <v>1.6115046098634789E-3</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <f t="shared" si="11"/>
         <v>1.1596741873887326</v>
       </c>
     </row>
-    <row r="34" spans="2:17">
+    <row r="34" spans="2:18">
       <c r="B34" s="1">
         <v>44724</v>
       </c>
@@ -6493,14 +6637,14 @@
         <v>339.23</v>
       </c>
       <c r="H34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1017.69</v>
       </c>
       <c r="I34" s="19">
         <v>-1</v>
       </c>
       <c r="J34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1017.69</v>
       </c>
       <c r="K34" t="s">
@@ -6512,23 +6656,27 @@
       <c r="M34" s="1">
         <v>44766</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="31">
+        <f t="shared" ca="1" si="5"/>
+        <v>-37</v>
+      </c>
+      <c r="O34">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="O34">
-        <f t="shared" si="9"/>
+      <c r="P34">
+        <f>M34-B34</f>
         <v>42</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <f t="shared" si="10"/>
         <v>2.2501629544413593E-3</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <f t="shared" si="11"/>
         <v>1.22971499588866</v>
       </c>
     </row>
-    <row r="35" spans="2:17">
+    <row r="35" spans="2:18">
       <c r="B35" s="1">
         <v>44724</v>
       </c>
@@ -6549,14 +6697,14 @@
         <v>47.95</v>
       </c>
       <c r="H35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>959</v>
       </c>
       <c r="I35" s="19">
         <v>-1</v>
       </c>
       <c r="J35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-959</v>
       </c>
       <c r="K35" t="s">
@@ -6568,23 +6716,27 @@
       <c r="M35" s="1">
         <v>44815</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="31">
+        <f t="shared" ca="1" si="5"/>
+        <v>-86</v>
+      </c>
+      <c r="O35">
         <v>0.12</v>
       </c>
-      <c r="O35">
-        <f t="shared" si="9"/>
+      <c r="P35">
+        <f>M35-B35</f>
         <v>91</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <f t="shared" si="10"/>
         <v>1.2461459636541328E-3</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <f t="shared" si="11"/>
         <v>1.1213956834792898</v>
       </c>
     </row>
-    <row r="36" spans="2:17">
+    <row r="36" spans="2:18">
       <c r="B36" s="1">
         <v>44724</v>
       </c>
@@ -6605,14 +6757,14 @@
         <v>100.4</v>
       </c>
       <c r="H36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1004</v>
       </c>
       <c r="I36" s="19">
         <v>-1</v>
       </c>
       <c r="J36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1004</v>
       </c>
       <c r="K36" s="18" t="s">
@@ -6624,23 +6776,27 @@
       <c r="M36" s="1">
         <v>44815</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="31">
+        <f t="shared" ca="1" si="5"/>
+        <v>-86</v>
+      </c>
+      <c r="O36">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O36" s="18">
-        <f t="shared" si="9"/>
+      <c r="P36" s="18">
+        <f>M36-B36</f>
         <v>91</v>
       </c>
-      <c r="P36" s="18">
+      <c r="Q36" s="18">
         <f t="shared" si="10"/>
         <v>1.4409081274349145E-3</v>
       </c>
-      <c r="Q36" s="18">
+      <c r="R36" s="18">
         <f t="shared" si="11"/>
         <v>1.1416426352652658</v>
       </c>
     </row>
-    <row r="37" spans="2:17">
+    <row r="37" spans="2:18">
       <c r="B37" s="1">
         <v>44724</v>
       </c>
@@ -6661,14 +6817,14 @@
         <v>73.89</v>
       </c>
       <c r="H37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1034.46</v>
       </c>
       <c r="I37" s="19">
         <v>-1</v>
       </c>
       <c r="J37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1034.46</v>
       </c>
       <c r="K37" t="s">
@@ -6680,23 +6836,27 @@
       <c r="M37" s="1">
         <v>44815</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="31">
+        <f t="shared" ca="1" si="5"/>
+        <v>-86</v>
+      </c>
+      <c r="O37">
         <v>0.35</v>
       </c>
-      <c r="O37" s="18">
-        <f t="shared" si="9"/>
+      <c r="P37" s="18">
+        <f>M37-B37</f>
         <v>91</v>
       </c>
-      <c r="P37" s="18">
+      <c r="Q37" s="18">
         <f t="shared" si="10"/>
         <v>3.303296563134106E-3</v>
       </c>
-      <c r="Q37" s="18">
+      <c r="R37" s="18">
         <f t="shared" si="11"/>
         <v>1.3544594503602096</v>
       </c>
     </row>
-    <row r="38" spans="2:17">
+    <row r="38" spans="2:18">
       <c r="B38" s="1">
         <v>44724</v>
       </c>
@@ -6717,14 +6877,14 @@
         <v>30.21</v>
       </c>
       <c r="H38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>996.93000000000006</v>
       </c>
       <c r="I38" s="19">
         <v>-1</v>
       </c>
       <c r="J38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-996.93000000000006</v>
       </c>
       <c r="K38" s="18" t="s">
@@ -6736,23 +6896,27 @@
       <c r="M38" s="1">
         <v>44815</v>
       </c>
-      <c r="N38" s="18">
+      <c r="N38" s="31">
+        <f t="shared" ca="1" si="5"/>
+        <v>-86</v>
+      </c>
+      <c r="O38" s="18">
         <v>0.28000000000000003</v>
       </c>
-      <c r="O38" s="18">
-        <f t="shared" si="9"/>
+      <c r="P38" s="18">
+        <f>M38-B38</f>
         <v>91</v>
       </c>
-      <c r="P38" s="18">
+      <c r="Q38" s="18">
         <f t="shared" si="10"/>
         <v>2.7164309397338382E-3</v>
       </c>
-      <c r="Q38" s="18">
+      <c r="R38" s="18">
         <f t="shared" si="11"/>
         <v>1.2834770316028687</v>
       </c>
     </row>
-    <row r="39" spans="2:17">
+    <row r="39" spans="2:18">
       <c r="B39" s="1">
         <v>44724</v>
       </c>
@@ -6773,14 +6937,14 @@
         <v>48.75</v>
       </c>
       <c r="H39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1023.75</v>
       </c>
       <c r="I39" s="19">
         <v>-1</v>
       </c>
       <c r="J39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1023.75</v>
       </c>
       <c r="K39" s="18" t="s">
@@ -6792,23 +6956,27 @@
       <c r="M39" s="1">
         <v>44745</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="31">
+        <f t="shared" ca="1" si="5"/>
+        <v>-16</v>
+      </c>
+      <c r="O39">
         <v>0.11</v>
       </c>
-      <c r="O39">
-        <f t="shared" si="9"/>
+      <c r="P39">
+        <f>M39-B39</f>
         <v>21</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <f t="shared" si="10"/>
         <v>4.981893106467794E-3</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <f t="shared" si="11"/>
         <v>1.5796388699807264</v>
       </c>
     </row>
-    <row r="40" spans="2:17">
+    <row r="40" spans="2:18">
       <c r="B40" s="1">
         <v>44724</v>
       </c>
@@ -6829,14 +6997,14 @@
         <v>144</v>
       </c>
       <c r="H40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1008</v>
       </c>
       <c r="I40" s="19">
         <v>-1</v>
       </c>
       <c r="J40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1008</v>
       </c>
       <c r="K40" s="18" t="s">
@@ -6848,23 +7016,27 @@
       <c r="M40" s="1">
         <v>44815</v>
       </c>
-      <c r="N40" s="18">
+      <c r="N40" s="31">
+        <f t="shared" ca="1" si="5"/>
+        <v>-86</v>
+      </c>
+      <c r="O40" s="18">
         <v>0.11</v>
       </c>
-      <c r="O40" s="18">
-        <f t="shared" si="9"/>
+      <c r="P40" s="18">
+        <f>M40-B40</f>
         <v>91</v>
       </c>
-      <c r="P40" s="18">
+      <c r="Q40" s="18">
         <f t="shared" si="10"/>
         <v>1.1474711970971274E-3</v>
       </c>
-      <c r="Q40" s="18">
+      <c r="R40" s="18">
         <f t="shared" si="11"/>
         <v>1.111273693028771</v>
       </c>
     </row>
-    <row r="41" spans="2:17">
+    <row r="41" spans="2:18">
       <c r="B41" s="1">
         <v>44724</v>
       </c>
@@ -6885,14 +7057,14 @@
         <v>127.72</v>
       </c>
       <c r="H41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1021.76</v>
       </c>
       <c r="I41" s="19">
         <v>-1</v>
       </c>
       <c r="J41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1021.76</v>
       </c>
       <c r="K41" s="18" t="s">
@@ -6904,23 +7076,27 @@
       <c r="M41" s="1">
         <v>44815</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="31">
+        <f t="shared" ca="1" si="5"/>
+        <v>-86</v>
+      </c>
+      <c r="O41">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="O41" s="18">
-        <f t="shared" si="9"/>
+      <c r="P41" s="18">
+        <f>M41-B41</f>
         <v>91</v>
       </c>
-      <c r="P41" s="18">
+      <c r="Q41" s="18">
         <f t="shared" si="10"/>
         <v>1.0078392710637374E-3</v>
       </c>
-      <c r="Q41" s="18">
+      <c r="R41" s="18">
         <f t="shared" si="11"/>
         <v>1.0971045918410911</v>
       </c>
     </row>
-    <row r="42" spans="2:17">
+    <row r="42" spans="2:18">
       <c r="B42" s="1">
         <v>44724</v>
       </c>
@@ -6941,14 +7117,14 @@
         <v>53.54</v>
       </c>
       <c r="H42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1070.8</v>
       </c>
       <c r="I42" s="19">
         <v>-1</v>
       </c>
       <c r="J42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1070.8</v>
       </c>
       <c r="K42" s="18" t="s">
@@ -6960,23 +7136,27 @@
       <c r="M42" s="1">
         <v>44815</v>
       </c>
-      <c r="N42">
+      <c r="N42" s="31">
+        <f t="shared" ca="1" si="5"/>
+        <v>-86</v>
+      </c>
+      <c r="O42">
         <v>0.22</v>
       </c>
-      <c r="O42" s="18">
-        <f t="shared" si="9"/>
+      <c r="P42" s="18">
+        <f>M42-B42</f>
         <v>91</v>
       </c>
-      <c r="P42" s="18">
+      <c r="Q42" s="18">
         <f t="shared" si="10"/>
         <v>2.1875635052042153E-3</v>
       </c>
-      <c r="Q42" s="18">
+      <c r="R42" s="18">
         <f t="shared" si="11"/>
         <v>1.222668827476334</v>
       </c>
     </row>
-    <row r="43" spans="2:17">
+    <row r="43" spans="2:18">
       <c r="B43" s="1">
         <v>44724</v>
       </c>
@@ -6997,14 +7177,14 @@
         <v>51.5</v>
       </c>
       <c r="H43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1030</v>
       </c>
       <c r="I43" s="19">
         <v>-1</v>
       </c>
       <c r="J43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1030</v>
       </c>
       <c r="K43" s="18" t="s">
@@ -7016,23 +7196,27 @@
       <c r="M43" s="1">
         <v>44815</v>
       </c>
-      <c r="N43">
+      <c r="N43" s="31">
+        <f t="shared" ca="1" si="5"/>
+        <v>-86</v>
+      </c>
+      <c r="O43">
         <v>0.73</v>
       </c>
-      <c r="O43" s="18">
-        <f t="shared" si="9"/>
+      <c r="P43" s="18">
+        <f>M43-B43</f>
         <v>91</v>
       </c>
-      <c r="P43" s="18">
+      <c r="Q43" s="18">
         <f t="shared" si="10"/>
         <v>6.0414888024045155E-3</v>
       </c>
-      <c r="Q43" s="18">
+      <c r="R43" s="18">
         <f t="shared" si="11"/>
         <v>1.7404517756281392</v>
       </c>
     </row>
-    <row r="44" spans="2:17">
+    <row r="44" spans="2:18">
       <c r="B44" s="1">
         <v>44724</v>
       </c>
@@ -7053,7 +7237,7 @@
         <v>34.44</v>
       </c>
       <c r="H44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1033.1999999999998</v>
       </c>
       <c r="I44" s="19">
@@ -7072,23 +7256,27 @@
       <c r="M44" s="1">
         <v>44815</v>
       </c>
-      <c r="N44" s="18">
+      <c r="N44" s="31">
+        <f t="shared" ca="1" si="5"/>
+        <v>-86</v>
+      </c>
+      <c r="O44" s="18">
         <v>0.26500000000000001</v>
       </c>
-      <c r="O44" s="18">
-        <f t="shared" si="9"/>
+      <c r="P44" s="18">
+        <f>M44-B44</f>
         <v>91</v>
       </c>
-      <c r="P44" s="18">
+      <c r="Q44" s="18">
         <f t="shared" si="10"/>
         <v>2.5865494959438351E-3</v>
       </c>
-      <c r="Q44" s="18">
+      <c r="R44" s="18">
         <f t="shared" si="11"/>
         <v>1.2682719851123665</v>
       </c>
     </row>
-    <row r="45" spans="2:17">
+    <row r="45" spans="2:18">
       <c r="B45" s="1">
         <v>44724</v>
       </c>
@@ -7109,7 +7297,7 @@
         <v>44.15</v>
       </c>
       <c r="H45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1015.4499999999999</v>
       </c>
       <c r="I45" s="19">
@@ -7128,23 +7316,27 @@
       <c r="M45" s="1">
         <v>44815</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="31">
+        <f t="shared" ca="1" si="5"/>
+        <v>-86</v>
+      </c>
+      <c r="O45">
         <v>0.13</v>
       </c>
-      <c r="O45" s="18">
-        <f t="shared" si="9"/>
+      <c r="P45" s="18">
+        <f>M45-B45</f>
         <v>91</v>
       </c>
-      <c r="P45" s="18">
+      <c r="Q45" s="18">
         <f t="shared" si="10"/>
         <v>1.3439532058281412E-3</v>
       </c>
-      <c r="Q45" s="18">
+      <c r="R45" s="18">
         <f t="shared" si="11"/>
         <v>1.1315186671225852</v>
       </c>
     </row>
-    <row r="46" spans="2:17">
+    <row r="46" spans="2:18">
       <c r="B46" s="1">
         <v>44724</v>
       </c>
@@ -7165,7 +7357,7 @@
         <v>66.5</v>
       </c>
       <c r="H46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>997.5</v>
       </c>
       <c r="I46" s="19">
@@ -7184,23 +7376,27 @@
       <c r="M46" s="1">
         <v>44815</v>
       </c>
-      <c r="N46">
+      <c r="N46" s="31">
+        <f t="shared" ca="1" si="5"/>
+        <v>-86</v>
+      </c>
+      <c r="O46">
         <v>0.16</v>
       </c>
-      <c r="O46" s="18">
-        <f t="shared" si="9"/>
+      <c r="P46" s="18">
+        <f>M46-B46</f>
         <v>91</v>
       </c>
-      <c r="P46" s="18">
+      <c r="Q46" s="18">
         <f t="shared" si="10"/>
         <v>1.6323198533032546E-3</v>
       </c>
-      <c r="Q46" s="18">
+      <c r="R46" s="18">
         <f t="shared" si="11"/>
         <v>1.1618934910298244</v>
       </c>
     </row>
-    <row r="47" spans="2:17">
+    <row r="47" spans="2:18">
       <c r="B47" s="1">
         <v>44724</v>
       </c>
@@ -7221,7 +7417,7 @@
         <v>270.8</v>
       </c>
       <c r="H47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1083.2</v>
       </c>
       <c r="I47" s="19">
@@ -7240,23 +7436,27 @@
       <c r="M47" s="1">
         <v>44815</v>
       </c>
-      <c r="N47" s="18">
+      <c r="N47" s="31">
+        <f t="shared" ca="1" si="5"/>
+        <v>-86</v>
+      </c>
+      <c r="O47" s="18">
         <v>0.09</v>
       </c>
-      <c r="O47" s="18">
-        <f t="shared" si="9"/>
+      <c r="P47" s="18">
+        <f>M47-B47</f>
         <v>91</v>
       </c>
-      <c r="P47" s="18">
+      <c r="Q47" s="18">
         <f t="shared" si="10"/>
         <v>9.4745620432945543E-4</v>
       </c>
-      <c r="Q47" s="18">
+      <c r="R47" s="18">
         <f t="shared" si="11"/>
         <v>1.0910327272627209</v>
       </c>
     </row>
-    <row r="48" spans="2:17">
+    <row r="48" spans="2:18">
       <c r="B48" s="1">
         <v>44724</v>
       </c>
@@ -7277,7 +7477,7 @@
         <v>63.54</v>
       </c>
       <c r="H48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1016.64</v>
       </c>
       <c r="I48" s="19">
@@ -7296,23 +7496,27 @@
       <c r="M48" s="1">
         <v>44815</v>
       </c>
-      <c r="N48" s="18">
+      <c r="N48" s="31">
+        <f t="shared" ca="1" si="5"/>
+        <v>-86</v>
+      </c>
+      <c r="O48" s="18">
         <v>0.3</v>
       </c>
-      <c r="O48" s="18">
-        <f t="shared" si="9"/>
+      <c r="P48" s="18">
+        <f>M48-B48</f>
         <v>91</v>
       </c>
-      <c r="P48" s="18">
+      <c r="Q48" s="18">
         <f t="shared" si="10"/>
         <v>2.8872839838995912E-3</v>
       </c>
-      <c r="Q48" s="18">
+      <c r="R48" s="18">
         <f t="shared" si="11"/>
         <v>1.3037534691790746</v>
       </c>
     </row>
-    <row r="49" spans="2:17">
+    <row r="49" spans="2:18">
       <c r="B49" s="1">
         <v>44724</v>
       </c>
@@ -7333,7 +7537,7 @@
         <v>86.3</v>
       </c>
       <c r="H49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1035.5999999999999</v>
       </c>
       <c r="I49" s="19">
@@ -7352,23 +7556,27 @@
       <c r="M49" s="1">
         <v>44801</v>
       </c>
-      <c r="N49">
+      <c r="N49" s="31">
+        <f t="shared" ca="1" si="5"/>
+        <v>-72</v>
+      </c>
+      <c r="O49">
         <v>0.12</v>
       </c>
-      <c r="O49" s="18">
-        <f t="shared" si="9"/>
+      <c r="P49" s="18">
+        <f>M49-B49</f>
         <v>77</v>
       </c>
-      <c r="P49" s="18">
+      <c r="Q49" s="18">
         <f t="shared" si="10"/>
         <v>1.4728847386982213E-3</v>
       </c>
-      <c r="Q49" s="18">
+      <c r="R49" s="18">
         <f t="shared" si="11"/>
         <v>1.1450012193329568</v>
       </c>
     </row>
-    <row r="50" spans="2:17">
+    <row r="50" spans="2:18">
       <c r="B50" s="1">
         <v>44724</v>
       </c>
@@ -7389,7 +7597,7 @@
         <v>76.400000000000006</v>
       </c>
       <c r="H50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>993.2</v>
       </c>
       <c r="I50" s="19">
@@ -7408,23 +7616,27 @@
       <c r="M50" s="1">
         <v>44780</v>
       </c>
-      <c r="N50">
+      <c r="N50" s="31">
+        <f t="shared" ca="1" si="5"/>
+        <v>-51</v>
+      </c>
+      <c r="O50">
         <v>9.4899999999999998E-2</v>
       </c>
-      <c r="O50" s="18">
-        <f t="shared" si="9"/>
+      <c r="P50" s="18">
+        <f>M50-B50</f>
         <v>56</v>
       </c>
-      <c r="P50" s="18">
+      <c r="Q50" s="18">
         <f t="shared" si="10"/>
         <v>1.6202940261609289E-3</v>
       </c>
-      <c r="Q50" s="18">
+      <c r="R50" s="18">
         <f t="shared" si="11"/>
         <v>1.1606107956028482</v>
       </c>
     </row>
-    <row r="51" spans="2:17">
+    <row r="51" spans="2:18">
       <c r="B51" s="1">
         <v>44724</v>
       </c>
@@ -7438,14 +7650,14 @@
         <v>7</v>
       </c>
       <c r="F51" s="19" cm="1">
-        <f t="array" ref="F51">SUMPRODUCT(($C$11:$C$51=C51)*($E$11:$E$51))</f>
+        <f t="array" ref="F51">SUMPRODUCT(($C$11:$C$100=C51)*($E$11:$E$100))</f>
         <v>7</v>
       </c>
       <c r="G51" s="18">
         <v>155.49</v>
       </c>
       <c r="H51" s="18">
-        <f t="shared" ref="H51" si="17">G51*E51</f>
+        <f t="shared" ref="H51:H57" si="17">G51*E51</f>
         <v>1088.43</v>
       </c>
       <c r="I51" s="19">
@@ -7464,25 +7676,389 @@
       <c r="M51" s="1">
         <v>44815</v>
       </c>
-      <c r="N51">
+      <c r="N51" s="31">
+        <f t="shared" ca="1" si="5"/>
+        <v>-86</v>
+      </c>
+      <c r="O51">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O51" s="18">
-        <f t="shared" si="9"/>
+      <c r="P51" s="18">
+        <f>M51-B51</f>
         <v>91</v>
       </c>
-      <c r="P51" s="18">
+      <c r="Q51" s="18">
         <f t="shared" si="10"/>
         <v>1.4409081274349145E-3</v>
       </c>
-      <c r="Q51" s="18">
+      <c r="R51" s="18">
         <f t="shared" si="11"/>
         <v>1.1416426352652658</v>
       </c>
     </row>
+    <row r="52" spans="2:18">
+      <c r="B52" s="1">
+        <v>44729</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" s="19">
+        <v>60</v>
+      </c>
+      <c r="F52" s="27" cm="1">
+        <f t="array" ref="F52">SUMPRODUCT(($C$11:$C$100=C52)*($E$11:$E$100))</f>
+        <v>60</v>
+      </c>
+      <c r="G52">
+        <v>17.97</v>
+      </c>
+      <c r="H52" s="27">
+        <f t="shared" si="17"/>
+        <v>1078.1999999999998</v>
+      </c>
+      <c r="I52" s="27">
+        <v>-1</v>
+      </c>
+      <c r="J52" s="27">
+        <f t="shared" ref="J52" si="19">I52*H52</f>
+        <v>-1078.1999999999998</v>
+      </c>
+      <c r="K52" t="s">
+        <v>1064</v>
+      </c>
+      <c r="L52" t="s">
+        <v>142</v>
+      </c>
+      <c r="M52" s="1">
+        <v>44752</v>
+      </c>
+      <c r="N52" s="31">
+        <f t="shared" ref="N52" ca="1" si="20">$M$9-M52</f>
+        <v>-23</v>
+      </c>
+      <c r="O52" s="27">
+        <v>0.16561899999999999</v>
+      </c>
+      <c r="P52" s="27">
+        <f>M52-B52</f>
+        <v>23</v>
+      </c>
+      <c r="Q52" s="27">
+        <f t="shared" ref="Q52" si="21">(1+O52)^(1/P52)-1</f>
+        <v>6.6853905718118334E-3</v>
+      </c>
+      <c r="R52" s="27">
+        <f t="shared" ref="R52" si="22">(1+Q52)^92</f>
+        <v>1.8459777917460405</v>
+      </c>
+    </row>
+    <row r="53" spans="2:18">
+      <c r="B53" s="1">
+        <v>44729</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>30</v>
+      </c>
+      <c r="F53" s="27" cm="1">
+        <f t="array" ref="F53">SUMPRODUCT(($C$11:$C$100=C53)*($E$11:$E$100))</f>
+        <v>30</v>
+      </c>
+      <c r="G53">
+        <v>32.65</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="17"/>
+        <v>979.5</v>
+      </c>
+      <c r="I53" s="27">
+        <v>-1</v>
+      </c>
+      <c r="J53" s="27">
+        <f t="shared" ref="J53" si="23">I53*H53</f>
+        <v>-979.5</v>
+      </c>
+      <c r="K53" t="s">
+        <v>415</v>
+      </c>
+      <c r="L53" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="M53" s="1">
+        <v>44822</v>
+      </c>
+      <c r="N53" s="31">
+        <f t="shared" ref="N53" ca="1" si="24">$M$9-M53</f>
+        <v>-93</v>
+      </c>
+      <c r="O53" s="27">
+        <v>0.44709700000000002</v>
+      </c>
+      <c r="P53" s="27">
+        <f>M53-B53</f>
+        <v>93</v>
+      </c>
+      <c r="Q53" s="27">
+        <f t="shared" ref="Q53" si="25">(1+O53)^(1/P53)-1</f>
+        <v>3.981663700681537E-3</v>
+      </c>
+      <c r="R53" s="27">
+        <f t="shared" ref="R53" si="26">(1+Q53)^92</f>
+        <v>1.4413579971829127</v>
+      </c>
+    </row>
+    <row r="54" spans="2:18">
+      <c r="B54" s="1">
+        <v>44729</v>
+      </c>
+      <c r="C54" s="27" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D54" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>10</v>
+      </c>
+      <c r="F54" s="27" cm="1">
+        <f t="array" ref="F54">SUMPRODUCT(($C$11:$C$100=C54)*($E$11:$E$100))</f>
+        <v>10</v>
+      </c>
+      <c r="G54">
+        <v>94.7</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="17"/>
+        <v>947</v>
+      </c>
+      <c r="I54" s="27">
+        <v>-1</v>
+      </c>
+      <c r="J54" s="27">
+        <f t="shared" ref="J54" si="27">I54*H54</f>
+        <v>-947</v>
+      </c>
+      <c r="K54" t="s">
+        <v>435</v>
+      </c>
+      <c r="L54" t="s">
+        <v>142</v>
+      </c>
+      <c r="M54" s="1">
+        <v>44794</v>
+      </c>
+      <c r="N54" s="31">
+        <f t="shared" ref="N54:N57" ca="1" si="28">$M$9-M54</f>
+        <v>-65</v>
+      </c>
+      <c r="O54" s="27">
+        <v>0.44709700000000002</v>
+      </c>
+      <c r="P54" s="27">
+        <f>M54-B54</f>
+        <v>65</v>
+      </c>
+      <c r="Q54" s="27">
+        <f t="shared" ref="Q54" si="29">(1+O54)^(1/P54)-1</f>
+        <v>5.7017237745042859E-3</v>
+      </c>
+      <c r="R54" s="27">
+        <f t="shared" ref="R54" si="30">(1+Q54)^92</f>
+        <v>1.6871973902345887</v>
+      </c>
+    </row>
+    <row r="55" spans="2:18">
+      <c r="B55" s="1">
+        <v>44729</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D55" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>30</v>
+      </c>
+      <c r="F55" s="27" cm="1">
+        <f t="array" ref="F55">SUMPRODUCT(($C$11:$C$100=C55)*($E$11:$E$100))</f>
+        <v>30</v>
+      </c>
+      <c r="G55">
+        <v>32.79</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="17"/>
+        <v>983.69999999999993</v>
+      </c>
+      <c r="I55" s="27">
+        <v>-1</v>
+      </c>
+      <c r="J55" s="27">
+        <f t="shared" ref="J55" si="31">I55*H55</f>
+        <v>-983.69999999999993</v>
+      </c>
+      <c r="K55" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="L55" t="s">
+        <v>163</v>
+      </c>
+      <c r="M55" s="1">
+        <v>44780</v>
+      </c>
+      <c r="N55" s="31">
+        <f t="shared" ca="1" si="28"/>
+        <v>-51</v>
+      </c>
+      <c r="O55" s="27">
+        <v>7.9225000000000004E-2</v>
+      </c>
+      <c r="P55" s="27">
+        <f>M55-B55</f>
+        <v>51</v>
+      </c>
+      <c r="Q55" s="27">
+        <f t="shared" ref="Q55" si="32">(1+O55)^(1/P55)-1</f>
+        <v>1.496082544978572E-3</v>
+      </c>
+      <c r="R55" s="27">
+        <f t="shared" ref="R55" si="33">(1+Q55)^92</f>
+        <v>1.1474438584033493</v>
+      </c>
+    </row>
+    <row r="56" spans="2:18">
+      <c r="B56" s="1">
+        <v>44729</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D56" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>6</v>
+      </c>
+      <c r="F56" s="19" cm="1">
+        <f t="array" ref="F56">SUMPRODUCT(($C$11:$C$100=C56)*($E$11:$E$100))</f>
+        <v>6</v>
+      </c>
+      <c r="G56">
+        <v>177.21</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="17"/>
+        <v>1063.26</v>
+      </c>
+      <c r="I56" s="27">
+        <v>-1</v>
+      </c>
+      <c r="J56" s="27">
+        <f t="shared" ref="J56" si="34">I56*H56</f>
+        <v>-1063.26</v>
+      </c>
+      <c r="K56" t="s">
+        <v>1086</v>
+      </c>
+      <c r="L56" t="s">
+        <v>11</v>
+      </c>
+      <c r="M56" s="1">
+        <v>44766</v>
+      </c>
+      <c r="N56" s="31">
+        <f t="shared" ca="1" si="28"/>
+        <v>-37</v>
+      </c>
+      <c r="O56" s="27">
+        <v>4.7683999999999997E-2</v>
+      </c>
+      <c r="P56" s="27">
+        <f>M56-B56</f>
+        <v>37</v>
+      </c>
+      <c r="Q56" s="27">
+        <f t="shared" ref="Q56" si="35">(1+O56)^(1/P56)-1</f>
+        <v>1.2597661832201013E-3</v>
+      </c>
+      <c r="R56" s="27">
+        <f t="shared" ref="R56" si="36">(1+Q56)^92</f>
+        <v>1.122799979907529</v>
+      </c>
+    </row>
+    <row r="57" spans="2:18">
+      <c r="B57" s="1">
+        <v>44729</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D57" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>16</v>
+      </c>
+      <c r="F57" s="19" cm="1">
+        <f t="array" ref="F57">SUMPRODUCT(($C$11:$C$100=C57)*($E$11:$E$100))</f>
+        <v>16</v>
+      </c>
+      <c r="G57">
+        <v>64.319999999999993</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="17"/>
+        <v>1029.1199999999999</v>
+      </c>
+      <c r="I57" s="27">
+        <v>-1</v>
+      </c>
+      <c r="J57" s="27">
+        <f t="shared" ref="J57" si="37">I57*H57</f>
+        <v>-1029.1199999999999</v>
+      </c>
+      <c r="K57" t="s">
+        <v>190</v>
+      </c>
+      <c r="L57" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="M57" s="1">
+        <v>44759</v>
+      </c>
+      <c r="N57" s="31">
+        <f t="shared" ca="1" si="28"/>
+        <v>-30</v>
+      </c>
+      <c r="O57" s="27">
+        <v>3.1424000000000001E-2</v>
+      </c>
+      <c r="P57" s="27">
+        <f>M57-B57</f>
+        <v>30</v>
+      </c>
+      <c r="Q57" s="27">
+        <f t="shared" ref="Q57" si="38">(1+O57)^(1/P57)-1</f>
+        <v>1.0318777434383808E-3</v>
+      </c>
+      <c r="R57" s="27">
+        <f t="shared" ref="R57" si="39">(1+Q57)^92</f>
+        <v>1.0995310894115367</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="P26:P51">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="Q26:Q57">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7493,12 +8069,1463 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N24:N57">
+    <cfRule type="expression" priority="1">
+      <formula>"&gt;=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A4C761A-8342-4CE0-A1D6-1407E0800E4A}">
+  <dimension ref="A1:I271"/>
+  <sheetViews>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection sqref="A1:I271"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="24">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="7">
+        <v>44722</v>
+      </c>
+      <c r="B33" s="8">
+        <v>108.339996</v>
+      </c>
+      <c r="C33" s="8">
+        <v>89.236784</v>
+      </c>
+      <c r="D33" s="8">
+        <v>101.56009400000001</v>
+      </c>
+      <c r="E33" s="8">
+        <v>113.883404</v>
+      </c>
+      <c r="F33" s="8">
+        <v>90.742918000000003</v>
+      </c>
+      <c r="G33" s="8">
+        <v>9.6316089999999992</v>
+      </c>
+      <c r="H33" s="8">
+        <v>71.479699999999994</v>
+      </c>
+      <c r="I33" s="8">
+        <v>110.006136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="10"/>
+    </row>
+    <row r="35" spans="1:9" ht="24">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="8">
+        <v>0.99772899999999998</v>
+      </c>
+      <c r="C36" s="8">
+        <v>108.339996</v>
+      </c>
+      <c r="D36" s="8">
+        <v>132481329.198185</v>
+      </c>
+      <c r="E36" s="8">
+        <v>0.93154099999999995</v>
+      </c>
+      <c r="F36" s="8">
+        <v>0.99170199999999997</v>
+      </c>
+      <c r="G36" s="8">
+        <v>0.52395700000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="10"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" s="29"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="24">
+      <c r="A41" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="24">
+      <c r="A42" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="24">
+      <c r="A44" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="9"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="B47" s="29"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="16.5">
+      <c r="A52" s="4"/>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="16.5">
+      <c r="A60" s="4"/>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="2"/>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="2"/>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="2"/>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" s="2"/>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A47:B47"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF45AACD-349E-42EB-B4EC-AC0497F2DE36}">
   <dimension ref="A1:I60"/>
   <sheetViews>
@@ -7754,10 +9781,10 @@
       <c r="A37" s="10"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="27" t="s">
+      <c r="A38" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="B38" s="28"/>
+      <c r="B38" s="29"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="6"/>
@@ -7814,10 +9841,10 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="27" t="s">
+      <c r="A47" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="28"/>
+      <c r="B47" s="29"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="6"/>
@@ -7897,7 +9924,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBAF46BE-9B05-4CBD-9409-C1CB017936FC}">
   <dimension ref="A1:I59"/>
   <sheetViews>
@@ -8140,10 +10167,10 @@
       <c r="A34" s="10"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="28"/>
+      <c r="B35" s="29"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="6"/>
@@ -8200,10 +10227,10 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="B44" s="28"/>
+      <c r="B44" s="29"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="6"/>
@@ -8293,7 +10320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF55581E-50C5-4CFE-B453-23EB7FB4DBC0}">
   <dimension ref="A1:G42"/>
   <sheetViews>
@@ -8543,7 +10570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C8457A-5C04-4BB2-AC51-2176627DDCCE}">
   <dimension ref="A1:I38"/>
   <sheetViews>
@@ -8700,10 +10727,10 @@
       <c r="A14" s="10"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="28"/>
+      <c r="B15" s="29"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="6"/>
@@ -8760,10 +10787,10 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="B24" s="28"/>
+      <c r="B24" s="29"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="6"/>
@@ -8848,7 +10875,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC72B2F-77D8-4515-B394-A11980400A9C}">
   <dimension ref="A1:I94"/>
   <sheetViews>
@@ -9078,10 +11105,10 @@
       <c r="A31" s="10"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="28"/>
+      <c r="B32" s="29"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="6"/>
@@ -9138,10 +11165,10 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="27" t="s">
+      <c r="A41" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="B41" s="28"/>
+      <c r="B41" s="29"/>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="6"/>
@@ -9423,6 +11450,493 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E46E0E7-6B90-4635-B292-87C906C08F6F}">
+  <dimension ref="A1:P10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="27"/>
+      <c r="B1" s="27" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>1072</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>1073</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>1074</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>1075</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>1076</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="O1" s="27" t="s">
+        <v>1077</v>
+      </c>
+      <c r="P1" s="27" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="27" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="27" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B3" s="27">
+        <v>0.16561899999999999</v>
+      </c>
+      <c r="C3" s="1">
+        <v>44752</v>
+      </c>
+      <c r="D3" s="27">
+        <v>23</v>
+      </c>
+      <c r="E3" s="27">
+        <v>6.685E-3</v>
+      </c>
+      <c r="F3" s="27">
+        <v>1.84598</v>
+      </c>
+      <c r="G3" s="27">
+        <v>5.0089420000000002</v>
+      </c>
+      <c r="H3" s="27">
+        <v>7.6456619999999997</v>
+      </c>
+      <c r="I3" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="27">
+        <v>12.491773</v>
+      </c>
+      <c r="K3" s="27">
+        <v>35.419421999999997</v>
+      </c>
+      <c r="L3" s="27">
+        <v>18.079999999999998</v>
+      </c>
+      <c r="M3" s="27" t="s">
+        <v>1064</v>
+      </c>
+      <c r="N3" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="O3" s="27">
+        <v>0.27704299999999998</v>
+      </c>
+      <c r="P3" s="27">
+        <v>0.42287999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="33" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B4" s="27">
+        <v>0.44709700000000002</v>
+      </c>
+      <c r="C4" s="1">
+        <v>44822</v>
+      </c>
+      <c r="D4" s="27">
+        <v>93</v>
+      </c>
+      <c r="E4" s="27">
+        <v>3.9820000000000003E-3</v>
+      </c>
+      <c r="F4" s="27">
+        <v>1.4413579999999999</v>
+      </c>
+      <c r="G4" s="27">
+        <v>22.973989</v>
+      </c>
+      <c r="H4" s="27">
+        <v>16.37171</v>
+      </c>
+      <c r="I4" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="27">
+        <v>14.862361999999999</v>
+      </c>
+      <c r="K4" s="27">
+        <v>173.489926</v>
+      </c>
+      <c r="L4" s="27">
+        <v>35.090000000000003</v>
+      </c>
+      <c r="M4" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="N4" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="O4" s="27">
+        <v>0.65471599999999996</v>
+      </c>
+      <c r="P4" s="27">
+        <v>0.46656300000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="32" t="s">
+        <v>491</v>
+      </c>
+      <c r="B5" s="27">
+        <v>0.30460500000000001</v>
+      </c>
+      <c r="C5" s="1">
+        <v>44822</v>
+      </c>
+      <c r="D5" s="27">
+        <v>93</v>
+      </c>
+      <c r="E5" s="27">
+        <v>2.8630000000000001E-3</v>
+      </c>
+      <c r="F5" s="27">
+        <v>1.30088</v>
+      </c>
+      <c r="G5" s="27">
+        <v>13.299977</v>
+      </c>
+      <c r="H5" s="27">
+        <v>18.506446</v>
+      </c>
+      <c r="I5" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="27">
+        <v>18.488727000000001</v>
+      </c>
+      <c r="K5" s="27">
+        <v>60.612780999999998</v>
+      </c>
+      <c r="L5" s="27">
+        <v>25.66</v>
+      </c>
+      <c r="M5" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="N5" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="O5" s="27">
+        <v>0.518316</v>
+      </c>
+      <c r="P5" s="27">
+        <v>0.72121800000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" s="27">
+        <v>0.25538899999999998</v>
+      </c>
+      <c r="C6" s="1">
+        <v>44822</v>
+      </c>
+      <c r="D6" s="27">
+        <v>93</v>
+      </c>
+      <c r="E6" s="27">
+        <v>2.4489999999999998E-3</v>
+      </c>
+      <c r="F6" s="27">
+        <v>1.2523230000000001</v>
+      </c>
+      <c r="G6" s="27">
+        <v>55.551157000000003</v>
+      </c>
+      <c r="H6" s="27">
+        <v>47.483651000000002</v>
+      </c>
+      <c r="I6" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="27">
+        <v>24.859400999999998</v>
+      </c>
+      <c r="K6" s="27">
+        <v>247.10245</v>
+      </c>
+      <c r="L6" s="27">
+        <v>66.389999000000003</v>
+      </c>
+      <c r="M6" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="N6" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="O6" s="27">
+        <v>0.83674000000000004</v>
+      </c>
+      <c r="P6" s="27">
+        <v>0.71522300000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="27" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B7" s="27">
+        <v>0.108625</v>
+      </c>
+      <c r="C7" s="1">
+        <v>44794</v>
+      </c>
+      <c r="D7" s="27">
+        <v>65</v>
+      </c>
+      <c r="E7" s="27">
+        <v>1.588E-3</v>
+      </c>
+      <c r="F7" s="27">
+        <v>1.157144</v>
+      </c>
+      <c r="G7" s="27">
+        <v>55.638903999999997</v>
+      </c>
+      <c r="H7" s="27">
+        <v>23.192637999999999</v>
+      </c>
+      <c r="I7" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="27">
+        <v>79.976089999999999</v>
+      </c>
+      <c r="K7" s="27">
+        <v>134.68811700000001</v>
+      </c>
+      <c r="L7" s="27">
+        <v>94.690002000000007</v>
+      </c>
+      <c r="M7" s="27" t="s">
+        <v>435</v>
+      </c>
+      <c r="N7" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="O7" s="27">
+        <v>0.58758999999999995</v>
+      </c>
+      <c r="P7" s="27">
+        <v>0.24493200000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="27" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B8" s="27">
+        <v>7.9225000000000004E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>44780</v>
+      </c>
+      <c r="D8" s="27">
+        <v>51</v>
+      </c>
+      <c r="E8" s="27">
+        <v>1.4959999999999999E-3</v>
+      </c>
+      <c r="F8" s="27">
+        <v>1.1474439999999999</v>
+      </c>
+      <c r="G8" s="27">
+        <v>8.0853830000000002</v>
+      </c>
+      <c r="H8" s="27">
+        <v>7.4845839999999999</v>
+      </c>
+      <c r="I8" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="27">
+        <v>26.112563999999999</v>
+      </c>
+      <c r="K8" s="27">
+        <v>48.056801</v>
+      </c>
+      <c r="L8" s="27">
+        <v>33.270000000000003</v>
+      </c>
+      <c r="M8" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="N8" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="O8" s="27">
+        <v>0.24302299999999999</v>
+      </c>
+      <c r="P8" s="27">
+        <v>0.224965</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="27" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B9" s="27">
+        <v>4.7683999999999997E-2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>44766</v>
+      </c>
+      <c r="D9" s="27">
+        <v>37</v>
+      </c>
+      <c r="E9" s="27">
+        <v>1.2600000000000001E-3</v>
+      </c>
+      <c r="F9" s="27">
+        <v>1.1228</v>
+      </c>
+      <c r="G9" s="27">
+        <v>92.143281000000002</v>
+      </c>
+      <c r="H9" s="27">
+        <v>62.576579000000002</v>
+      </c>
+      <c r="I9" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="27">
+        <v>170.70990900000001</v>
+      </c>
+      <c r="K9" s="27">
+        <v>205.580996</v>
+      </c>
+      <c r="L9" s="27">
+        <v>177.66000399999999</v>
+      </c>
+      <c r="M9" s="27" t="s">
+        <v>1083</v>
+      </c>
+      <c r="N9" s="27" t="s">
+        <v>1084</v>
+      </c>
+      <c r="O9" s="27">
+        <v>0.51865000000000006</v>
+      </c>
+      <c r="P9" s="27">
+        <v>0.35222700000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="27" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B10" s="27">
+        <v>3.1424000000000001E-2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>44759</v>
+      </c>
+      <c r="D10" s="27">
+        <v>30</v>
+      </c>
+      <c r="E10" s="27">
+        <v>1.0319999999999999E-3</v>
+      </c>
+      <c r="F10" s="27">
+        <v>1.099532</v>
+      </c>
+      <c r="G10" s="27">
+        <v>18.103169999999999</v>
+      </c>
+      <c r="H10" s="27">
+        <v>12.465199</v>
+      </c>
+      <c r="I10" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="27">
+        <v>53.237451</v>
+      </c>
+      <c r="K10" s="27">
+        <v>82.10575</v>
+      </c>
+      <c r="L10" s="27">
+        <v>64.099997999999999</v>
+      </c>
+      <c r="M10" s="27" t="s">
+        <v>1083</v>
+      </c>
+      <c r="N10" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="O10" s="27">
+        <v>0.28242099999999998</v>
+      </c>
+      <c r="P10" s="27">
+        <v>0.194465</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858891D0-A5D6-49F6-94D4-1253038FB695}">
   <dimension ref="A1:I58"/>
   <sheetViews>
@@ -9665,10 +12179,10 @@
       <c r="A34" s="10"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="28"/>
+      <c r="B35" s="29"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="6"/>
@@ -9725,10 +12239,10 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="B44" s="28"/>
+      <c r="B44" s="29"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="6"/>
@@ -9813,7 +12327,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1BEC48-BA38-49C6-8901-FCBFBE555549}">
   <dimension ref="A1:I222"/>
   <sheetViews>
@@ -10056,10 +12570,10 @@
       <c r="A34" s="10"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="28"/>
+      <c r="B35" s="29"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="6"/>
@@ -10116,10 +12630,10 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="B44" s="28"/>
+      <c r="B44" s="29"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="6"/>
@@ -11016,7 +13530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B52D9B-3AC3-4FC5-97B8-6C88D90F922F}">
   <dimension ref="A1:I87"/>
   <sheetViews>
@@ -11259,10 +13773,10 @@
       <c r="A34" s="10"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="28"/>
+      <c r="B35" s="29"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="6"/>
@@ -11319,10 +13833,10 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="B44" s="28"/>
+      <c r="B44" s="29"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="6"/>
@@ -11552,7 +14066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19049A1A-773C-4DCB-908E-20756055692F}">
   <dimension ref="A1:I115"/>
   <sheetViews>
@@ -11935,10 +14449,10 @@
       <c r="A62" s="10"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="27" t="s">
+      <c r="A63" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="B63" s="28"/>
+      <c r="B63" s="29"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="6"/>
@@ -11995,10 +14509,10 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="27" t="s">
+      <c r="A72" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="B72" s="28"/>
+      <c r="B72" s="29"/>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="6"/>
@@ -12228,7 +14742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C294A919-E860-4D15-AE54-7B9946DB3B4E}">
   <dimension ref="A1:I211"/>
   <sheetViews>
@@ -12458,10 +14972,10 @@
       <c r="A31" s="10"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="28"/>
+      <c r="B32" s="29"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="6"/>
@@ -12518,10 +15032,10 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="27" t="s">
+      <c r="A41" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="B41" s="28"/>
+      <c r="B41" s="29"/>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="6"/>
@@ -13378,7 +15892,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7CA36F0-B42F-457B-BB60-FF2C12DA825A}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I218"/>
@@ -13609,10 +16123,10 @@
       <c r="A31" s="22"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="28"/>
+      <c r="B32" s="29"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="12"/>
@@ -13669,10 +16183,10 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="B41" s="28"/>
+      <c r="B41" s="29"/>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="12"/>
@@ -14590,7 +17104,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42ECBE6-1D33-4024-AD6C-AEDC47AC058A}">
   <dimension ref="A1:I87"/>
   <sheetViews>
@@ -14833,10 +17347,10 @@
       <c r="A34" s="10"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="28"/>
+      <c r="B35" s="29"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="6"/>
@@ -14893,10 +17407,10 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="B44" s="28"/>
+      <c r="B44" s="29"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="6"/>
@@ -15124,1450 +17638,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A4C761A-8342-4CE0-A1D6-1407E0800E4A}">
-  <dimension ref="A1:I271"/>
-  <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection sqref="A1:I271"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="2"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="2"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="2"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="24">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="7">
-        <v>44722</v>
-      </c>
-      <c r="B33" s="8">
-        <v>108.339996</v>
-      </c>
-      <c r="C33" s="8">
-        <v>89.236784</v>
-      </c>
-      <c r="D33" s="8">
-        <v>101.56009400000001</v>
-      </c>
-      <c r="E33" s="8">
-        <v>113.883404</v>
-      </c>
-      <c r="F33" s="8">
-        <v>90.742918000000003</v>
-      </c>
-      <c r="G33" s="8">
-        <v>9.6316089999999992</v>
-      </c>
-      <c r="H33" s="8">
-        <v>71.479699999999994</v>
-      </c>
-      <c r="I33" s="8">
-        <v>110.006136</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="10"/>
-    </row>
-    <row r="35" spans="1:9" ht="24">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="8">
-        <v>0.99772899999999998</v>
-      </c>
-      <c r="C36" s="8">
-        <v>108.339996</v>
-      </c>
-      <c r="D36" s="8">
-        <v>132481329.198185</v>
-      </c>
-      <c r="E36" s="8">
-        <v>0.93154099999999995</v>
-      </c>
-      <c r="F36" s="8">
-        <v>0.99170199999999997</v>
-      </c>
-      <c r="G36" s="8">
-        <v>0.52395700000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="10"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="B38" s="28"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="24">
-      <c r="A41" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="24">
-      <c r="A42" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="24">
-      <c r="A44" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="9"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="B47" s="28"/>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="16.5">
-      <c r="A52" s="4"/>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="16.5">
-      <c r="A60" s="4"/>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="3">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="2"/>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" s="3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" s="3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" s="2"/>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" s="3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1">
-      <c r="A156" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1">
-      <c r="A158" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1">
-      <c r="A159" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1">
-      <c r="A160" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" s="3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" s="3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" s="3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1">
-      <c r="A171" s="3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1">
-      <c r="A172" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1">
-      <c r="A173" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174" s="3" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1">
-      <c r="A176" s="3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1">
-      <c r="A177" s="3" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1">
-      <c r="A178" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1">
-      <c r="A179" s="3" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1">
-      <c r="A180" s="3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1">
-      <c r="A181" s="3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1">
-      <c r="A182" s="3" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1">
-      <c r="A183" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1">
-      <c r="A184" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1">
-      <c r="A185" s="3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1">
-      <c r="A186" s="3" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1">
-      <c r="A187" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1">
-      <c r="A188" s="3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1">
-      <c r="A189" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1">
-      <c r="A190" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1">
-      <c r="A191" s="3" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1">
-      <c r="A192" s="2"/>
-    </row>
-    <row r="193" spans="1:1">
-      <c r="A193" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1">
-      <c r="A194" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1">
-      <c r="A195" s="3" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1">
-      <c r="A196" s="3" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1">
-      <c r="A197" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1">
-      <c r="A198" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1">
-      <c r="A199" s="3" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1">
-      <c r="A200" s="3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1">
-      <c r="A201" s="3" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1">
-      <c r="A202" s="3" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1">
-      <c r="A203" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1">
-      <c r="A204" s="3" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1">
-      <c r="A205" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1">
-      <c r="A206" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1">
-      <c r="A207" s="3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1">
-      <c r="A208" s="3" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1">
-      <c r="A209" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1">
-      <c r="A210" s="3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1">
-      <c r="A211" s="3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1">
-      <c r="A212" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1">
-      <c r="A213" s="3" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1">
-      <c r="A214" s="3" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1">
-      <c r="A215" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1">
-      <c r="A216" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1">
-      <c r="A217" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1">
-      <c r="A218" s="3" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1">
-      <c r="A219" s="3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1">
-      <c r="A220" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1">
-      <c r="A221" s="3" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1">
-      <c r="A222" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1">
-      <c r="A223" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1">
-      <c r="A224" s="3" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1">
-      <c r="A225" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1">
-      <c r="A226" s="3" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1">
-      <c r="A227" s="3" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1">
-      <c r="A228" s="2"/>
-    </row>
-    <row r="229" spans="1:1">
-      <c r="A229" s="3" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1">
-      <c r="A230" s="3" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1">
-      <c r="A231" s="3" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1">
-      <c r="A232" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1">
-      <c r="A233" s="3" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1">
-      <c r="A234" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1">
-      <c r="A235" s="3" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1">
-      <c r="A236" s="3" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1">
-      <c r="A237" s="3" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1">
-      <c r="A238" s="3" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1">
-      <c r="A239" s="3" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1">
-      <c r="A240" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1">
-      <c r="A241" s="3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1">
-      <c r="A242" s="3">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1">
-      <c r="A243" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1">
-      <c r="A244" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1">
-      <c r="A245" s="3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1">
-      <c r="A246" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1">
-      <c r="A247" s="3" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1">
-      <c r="A248" s="3" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1">
-      <c r="A249" s="3" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1">
-      <c r="A250" s="3" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1">
-      <c r="A251" s="3" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1">
-      <c r="A252" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1">
-      <c r="A253" s="3" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1">
-      <c r="A254" s="3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1">
-      <c r="A255" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1">
-      <c r="A256" s="3" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1">
-      <c r="A257" s="3" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1">
-      <c r="A258" s="3" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1">
-      <c r="A259" s="3" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1">
-      <c r="A260" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1">
-      <c r="A261" s="3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1">
-      <c r="A262" s="3" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1">
-      <c r="A263" s="3" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1">
-      <c r="A264" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1">
-      <c r="A265" s="3" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1">
-      <c r="A266" s="3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1">
-      <c r="A267" s="3" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1">
-      <c r="A268" s="3" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1">
-      <c r="A269" s="3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1">
-      <c r="A270" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1">
-      <c r="A271" s="3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A47:B47"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/code/Screener/record.xlsx
+++ b/code/Screener/record.xlsx
@@ -8,26 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\wiki\wiki\dev\python\Python-Stock\code\Screener\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A845B2-8425-46F8-AEB6-53906B9428F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D51336-BEC4-49F3-B6ED-E05DD65B65C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" activeTab="1" xr2:uid="{785F8A36-E86A-4BD6-94E8-FC2E8B05B64B}"/>
   </bookViews>
   <sheets>
     <sheet name="Record book" sheetId="1" r:id="rId1"/>
-    <sheet name="2022-09-17" sheetId="19" r:id="rId2"/>
-    <sheet name="2022-06-12 FANG" sheetId="18" r:id="rId3"/>
-    <sheet name="2022-06-12 NFG" sheetId="17" r:id="rId4"/>
-    <sheet name="2022-06-12 OXY" sheetId="16" r:id="rId5"/>
-    <sheet name="2022-06-12 PXD" sheetId="15" r:id="rId6"/>
-    <sheet name="2022-06-12 SM" sheetId="14" r:id="rId7"/>
-    <sheet name="2022-06-12 CEIX" sheetId="13" r:id="rId8"/>
-    <sheet name="2022-06-12 XOM" sheetId="12" r:id="rId9"/>
-    <sheet name="2022-06-12 MPC" sheetId="10" r:id="rId10"/>
-    <sheet name="2022-06-12 CIVI" sheetId="9" r:id="rId11"/>
-    <sheet name="2022-06-11 MUSA" sheetId="6" r:id="rId12"/>
-    <sheet name="2022-06-11 LNTH" sheetId="5" r:id="rId13"/>
-    <sheet name="2022-06-12 VAW" sheetId="11" r:id="rId14"/>
-    <sheet name="2022-06-11 MCK" sheetId="4" r:id="rId15"/>
+    <sheet name="2022-06-18" sheetId="20" r:id="rId2"/>
+    <sheet name="2022-09-17" sheetId="19" r:id="rId3"/>
+    <sheet name="2022-06-12 FANG" sheetId="18" r:id="rId4"/>
+    <sheet name="2022-06-12 NFG" sheetId="17" r:id="rId5"/>
+    <sheet name="2022-06-12 OXY" sheetId="16" r:id="rId6"/>
+    <sheet name="2022-06-12 PXD" sheetId="15" r:id="rId7"/>
+    <sheet name="2022-06-12 SM" sheetId="14" r:id="rId8"/>
+    <sheet name="2022-06-12 CEIX" sheetId="13" r:id="rId9"/>
+    <sheet name="2022-06-12 XOM" sheetId="12" r:id="rId10"/>
+    <sheet name="2022-06-12 MPC" sheetId="10" r:id="rId11"/>
+    <sheet name="2022-06-12 CIVI" sheetId="9" r:id="rId12"/>
+    <sheet name="2022-06-11 MUSA" sheetId="6" r:id="rId13"/>
+    <sheet name="2022-06-11 LNTH" sheetId="5" r:id="rId14"/>
+    <sheet name="2022-06-12 VAW" sheetId="11" r:id="rId15"/>
+    <sheet name="2022-06-11 MCK" sheetId="4" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="1087">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="1123">
   <si>
     <t>EXC</t>
   </si>
@@ -3332,6 +3333,114 @@
   </si>
   <si>
     <t>Consumer Staples ETF</t>
+  </si>
+  <si>
+    <t>VPU</t>
+  </si>
+  <si>
+    <t>VHT</t>
+  </si>
+  <si>
+    <t>GCP</t>
+  </si>
+  <si>
+    <t>PLAB</t>
+  </si>
+  <si>
+    <t>ROCC</t>
+  </si>
+  <si>
+    <t>VLO</t>
+  </si>
+  <si>
+    <t>VDE</t>
+  </si>
+  <si>
+    <t>DINO</t>
+  </si>
+  <si>
+    <t>VIS</t>
+  </si>
+  <si>
+    <t>LLY</t>
+  </si>
+  <si>
+    <t>VFH</t>
+  </si>
+  <si>
+    <t>SLY</t>
+  </si>
+  <si>
+    <t>PPC</t>
+  </si>
+  <si>
+    <t>Consumer Defensive</t>
+  </si>
+  <si>
+    <t>FCN</t>
+  </si>
+  <si>
+    <t>WRB</t>
+  </si>
+  <si>
+    <t>Financial Services</t>
+  </si>
+  <si>
+    <t>MDYG</t>
+  </si>
+  <si>
+    <t>VCR</t>
+  </si>
+  <si>
+    <t>SPTM</t>
+  </si>
+  <si>
+    <t>AZPN</t>
+  </si>
+  <si>
+    <t>SPY</t>
+  </si>
+  <si>
+    <t>TVTY</t>
+  </si>
+  <si>
+    <t>VNQ</t>
+  </si>
+  <si>
+    <t>UTHR</t>
+  </si>
+  <si>
+    <t>VIVO</t>
+  </si>
+  <si>
+    <t>SAFM</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>PSB</t>
+  </si>
+  <si>
+    <t>GO</t>
+  </si>
+  <si>
+    <t>MTOR</t>
+  </si>
+  <si>
+    <t>Real Estate</t>
+  </si>
+  <si>
+    <t>SJI</t>
+  </si>
+  <si>
+    <t>BANF</t>
+  </si>
+  <si>
+    <t>ROG</t>
+  </si>
+  <si>
+    <t>MGPI</t>
   </si>
 </sst>
 </file>
@@ -3509,6 +3618,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3516,9 +3628,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3560,7 +3669,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3621,7 +3730,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3687,7 +3796,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3748,7 +3857,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3814,7 +3923,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3875,7 +3984,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3936,7 +4045,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4002,7 +4111,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4063,7 +4172,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4129,7 +4238,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4190,7 +4299,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4237,133 +4346,6 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="9715500"/>
-          <a:ext cx="4819650" cy="3800475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="11258550"/>
-          <a:ext cx="4572000" cy="3676650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4435,6 +4417,133 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11258550"/>
+          <a:ext cx="4572000" cy="3676650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9715500"/>
+          <a:ext cx="4819650" cy="3800475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
       <xdr:row>75</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -4444,7 +4553,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4510,7 +4619,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4571,7 +4680,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4637,7 +4746,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4698,7 +4807,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4764,7 +4873,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4825,7 +4934,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4891,7 +5000,7 @@
                   <a14:compatExt spid="_x0000_s10243"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4941,7 +5050,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5002,7 +5111,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5068,7 +5177,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5129,7 +5238,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5195,7 +5304,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5256,7 +5365,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5601,8 +5710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42EC1B12-8D19-48E1-AE18-CC4CE60CD15C}">
   <dimension ref="B9:R57"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R62" sqref="R62"/>
+    <sheetView topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5625,7 +5734,7 @@
       </c>
       <c r="M9" s="1">
         <f ca="1">TODAY()</f>
-        <v>44729</v>
+        <v>44730</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>1061</v>
@@ -6119,9 +6228,9 @@
       <c r="M24" s="1">
         <v>44763</v>
       </c>
-      <c r="N24" s="31">
+      <c r="N24" s="28">
         <f ca="1">$M$9-M24</f>
-        <v>-34</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="25" spans="2:18">
@@ -6161,9 +6270,9 @@
       <c r="M25" s="1">
         <v>44749</v>
       </c>
-      <c r="N25" s="31">
+      <c r="N25" s="28">
         <f ca="1">$M$9-M25</f>
-        <v>-20</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="26" spans="2:18">
@@ -6206,9 +6315,9 @@
       <c r="M26" s="1">
         <v>44808</v>
       </c>
-      <c r="N26" s="31">
+      <c r="N26" s="28">
         <f t="shared" ref="N26:N51" ca="1" si="5">$M$9-M26</f>
-        <v>-79</v>
+        <v>-78</v>
       </c>
       <c r="O26">
         <v>0.1</v>
@@ -6266,9 +6375,9 @@
       <c r="M27" s="1">
         <v>44766</v>
       </c>
-      <c r="N27" s="31">
+      <c r="N27" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-37</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="28" spans="2:18">
@@ -6311,9 +6420,9 @@
       <c r="M28" s="1">
         <v>44766</v>
       </c>
-      <c r="N28" s="31">
+      <c r="N28" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-37</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="29" spans="2:18">
@@ -6356,23 +6465,23 @@
       <c r="M29" s="1">
         <v>44815</v>
       </c>
-      <c r="N29" s="31">
+      <c r="N29" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-86</v>
+        <v>-85</v>
       </c>
       <c r="O29">
         <v>0.41</v>
       </c>
       <c r="P29" s="16">
-        <f>M29-B29</f>
+        <f t="shared" ref="P29:P57" si="10">M29-B29</f>
         <v>91</v>
       </c>
       <c r="Q29" s="16">
-        <f t="shared" ref="Q29:Q51" si="10">(1+O29)^(1/P29)-1</f>
+        <f t="shared" ref="Q29:Q51" si="11">(1+O29)^(1/P29)-1</f>
         <v>3.7828480137320764E-3</v>
       </c>
       <c r="R29" s="16">
-        <f t="shared" ref="R29:R51" si="11">(1+Q29)^92</f>
+        <f t="shared" ref="R29:R51" si="12">(1+Q29)^92</f>
         <v>1.4153338156993678</v>
       </c>
     </row>
@@ -6416,23 +6525,23 @@
       <c r="M30" s="1">
         <v>44787</v>
       </c>
-      <c r="N30" s="31">
+      <c r="N30" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-58</v>
+        <v>-57</v>
       </c>
       <c r="O30">
         <v>0.13400000000000001</v>
       </c>
       <c r="P30" s="16">
-        <f>M30-B30</f>
+        <f t="shared" si="10"/>
         <v>63</v>
       </c>
       <c r="Q30" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.9980443135318993E-3</v>
       </c>
       <c r="R30" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.2015791869493655</v>
       </c>
     </row>
@@ -6476,23 +6585,23 @@
       <c r="M31" s="1">
         <v>44801</v>
       </c>
-      <c r="N31" s="31">
+      <c r="N31" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-72</v>
+        <v>-71</v>
       </c>
       <c r="O31">
         <v>0.17</v>
       </c>
       <c r="P31" s="16">
-        <f>M31-B31</f>
+        <f t="shared" si="10"/>
         <v>77</v>
       </c>
       <c r="Q31" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.0410899187346399E-3</v>
       </c>
       <c r="R31" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.2063374816411372</v>
       </c>
     </row>
@@ -6536,23 +6645,23 @@
       <c r="M32" s="1">
         <v>44801</v>
       </c>
-      <c r="N32" s="31">
+      <c r="N32" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-72</v>
+        <v>-71</v>
       </c>
       <c r="O32">
         <v>0.12</v>
       </c>
       <c r="P32" s="16">
-        <f>M32-B32</f>
+        <f t="shared" si="10"/>
         <v>77</v>
       </c>
       <c r="Q32" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.4728847386982213E-3</v>
       </c>
       <c r="R32" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.1450012193329568</v>
       </c>
     </row>
@@ -6596,23 +6705,23 @@
       <c r="M33" s="1">
         <v>44801</v>
       </c>
-      <c r="N33" s="31">
+      <c r="N33" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-72</v>
+        <v>-71</v>
       </c>
       <c r="O33">
         <v>0.13200000000000001</v>
       </c>
       <c r="P33">
-        <f>M33-B33</f>
+        <f t="shared" si="10"/>
         <v>77</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.6115046098634789E-3</v>
       </c>
       <c r="R33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.1596741873887326</v>
       </c>
     </row>
@@ -6656,23 +6765,23 @@
       <c r="M34" s="1">
         <v>44766</v>
       </c>
-      <c r="N34" s="31">
+      <c r="N34" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-37</v>
+        <v>-36</v>
       </c>
       <c r="O34">
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="P34">
-        <f>M34-B34</f>
+        <f t="shared" si="10"/>
         <v>42</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.2501629544413593E-3</v>
       </c>
       <c r="R34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.22971499588866</v>
       </c>
     </row>
@@ -6716,23 +6825,23 @@
       <c r="M35" s="1">
         <v>44815</v>
       </c>
-      <c r="N35" s="31">
+      <c r="N35" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-86</v>
+        <v>-85</v>
       </c>
       <c r="O35">
         <v>0.12</v>
       </c>
       <c r="P35">
-        <f>M35-B35</f>
+        <f t="shared" si="10"/>
         <v>91</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.2461459636541328E-3</v>
       </c>
       <c r="R35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.1213956834792898</v>
       </c>
     </row>
@@ -6776,23 +6885,23 @@
       <c r="M36" s="1">
         <v>44815</v>
       </c>
-      <c r="N36" s="31">
+      <c r="N36" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-86</v>
+        <v>-85</v>
       </c>
       <c r="O36">
         <v>0.14000000000000001</v>
       </c>
       <c r="P36" s="18">
-        <f>M36-B36</f>
+        <f t="shared" si="10"/>
         <v>91</v>
       </c>
       <c r="Q36" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.4409081274349145E-3</v>
       </c>
       <c r="R36" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.1416426352652658</v>
       </c>
     </row>
@@ -6836,23 +6945,23 @@
       <c r="M37" s="1">
         <v>44815</v>
       </c>
-      <c r="N37" s="31">
+      <c r="N37" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-86</v>
+        <v>-85</v>
       </c>
       <c r="O37">
         <v>0.35</v>
       </c>
       <c r="P37" s="18">
-        <f>M37-B37</f>
+        <f t="shared" si="10"/>
         <v>91</v>
       </c>
       <c r="Q37" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.303296563134106E-3</v>
       </c>
       <c r="R37" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.3544594503602096</v>
       </c>
     </row>
@@ -6896,23 +7005,23 @@
       <c r="M38" s="1">
         <v>44815</v>
       </c>
-      <c r="N38" s="31">
+      <c r="N38" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-86</v>
+        <v>-85</v>
       </c>
       <c r="O38" s="18">
         <v>0.28000000000000003</v>
       </c>
       <c r="P38" s="18">
-        <f>M38-B38</f>
+        <f t="shared" si="10"/>
         <v>91</v>
       </c>
       <c r="Q38" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.7164309397338382E-3</v>
       </c>
       <c r="R38" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.2834770316028687</v>
       </c>
     </row>
@@ -6956,23 +7065,23 @@
       <c r="M39" s="1">
         <v>44745</v>
       </c>
-      <c r="N39" s="31">
+      <c r="N39" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-16</v>
+        <v>-15</v>
       </c>
       <c r="O39">
         <v>0.11</v>
       </c>
       <c r="P39">
-        <f>M39-B39</f>
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.981893106467794E-3</v>
       </c>
       <c r="R39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.5796388699807264</v>
       </c>
     </row>
@@ -7016,23 +7125,23 @@
       <c r="M40" s="1">
         <v>44815</v>
       </c>
-      <c r="N40" s="31">
+      <c r="N40" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-86</v>
+        <v>-85</v>
       </c>
       <c r="O40" s="18">
         <v>0.11</v>
       </c>
       <c r="P40" s="18">
-        <f>M40-B40</f>
+        <f t="shared" si="10"/>
         <v>91</v>
       </c>
       <c r="Q40" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.1474711970971274E-3</v>
       </c>
       <c r="R40" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.111273693028771</v>
       </c>
     </row>
@@ -7076,23 +7185,23 @@
       <c r="M41" s="1">
         <v>44815</v>
       </c>
-      <c r="N41" s="31">
+      <c r="N41" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-86</v>
+        <v>-85</v>
       </c>
       <c r="O41">
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="P41" s="18">
-        <f>M41-B41</f>
+        <f t="shared" si="10"/>
         <v>91</v>
       </c>
       <c r="Q41" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.0078392710637374E-3</v>
       </c>
       <c r="R41" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0971045918410911</v>
       </c>
     </row>
@@ -7136,23 +7245,23 @@
       <c r="M42" s="1">
         <v>44815</v>
       </c>
-      <c r="N42" s="31">
+      <c r="N42" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-86</v>
+        <v>-85</v>
       </c>
       <c r="O42">
         <v>0.22</v>
       </c>
       <c r="P42" s="18">
-        <f>M42-B42</f>
+        <f t="shared" si="10"/>
         <v>91</v>
       </c>
       <c r="Q42" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.1875635052042153E-3</v>
       </c>
       <c r="R42" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.222668827476334</v>
       </c>
     </row>
@@ -7196,23 +7305,23 @@
       <c r="M43" s="1">
         <v>44815</v>
       </c>
-      <c r="N43" s="31">
+      <c r="N43" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-86</v>
+        <v>-85</v>
       </c>
       <c r="O43">
         <v>0.73</v>
       </c>
       <c r="P43" s="18">
-        <f>M43-B43</f>
+        <f t="shared" si="10"/>
         <v>91</v>
       </c>
       <c r="Q43" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.0414888024045155E-3</v>
       </c>
       <c r="R43" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.7404517756281392</v>
       </c>
     </row>
@@ -7244,7 +7353,7 @@
         <v>-1</v>
       </c>
       <c r="J44" s="18">
-        <f t="shared" ref="J44:J45" si="12">I44*H44</f>
+        <f t="shared" ref="J44:J45" si="13">I44*H44</f>
         <v>-1033.1999999999998</v>
       </c>
       <c r="K44" s="18" t="s">
@@ -7256,23 +7365,23 @@
       <c r="M44" s="1">
         <v>44815</v>
       </c>
-      <c r="N44" s="31">
+      <c r="N44" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-86</v>
+        <v>-85</v>
       </c>
       <c r="O44" s="18">
         <v>0.26500000000000001</v>
       </c>
       <c r="P44" s="18">
-        <f>M44-B44</f>
+        <f t="shared" si="10"/>
         <v>91</v>
       </c>
       <c r="Q44" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.5865494959438351E-3</v>
       </c>
       <c r="R44" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.2682719851123665</v>
       </c>
     </row>
@@ -7304,7 +7413,7 @@
         <v>-1</v>
       </c>
       <c r="J45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-1015.4499999999999</v>
       </c>
       <c r="K45" s="18" t="s">
@@ -7316,23 +7425,23 @@
       <c r="M45" s="1">
         <v>44815</v>
       </c>
-      <c r="N45" s="31">
+      <c r="N45" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-86</v>
+        <v>-85</v>
       </c>
       <c r="O45">
         <v>0.13</v>
       </c>
       <c r="P45" s="18">
-        <f>M45-B45</f>
+        <f t="shared" si="10"/>
         <v>91</v>
       </c>
       <c r="Q45" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.3439532058281412E-3</v>
       </c>
       <c r="R45" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.1315186671225852</v>
       </c>
     </row>
@@ -7364,7 +7473,7 @@
         <v>-1</v>
       </c>
       <c r="J46" s="18">
-        <f t="shared" ref="J46" si="13">I46*H46</f>
+        <f t="shared" ref="J46" si="14">I46*H46</f>
         <v>-997.5</v>
       </c>
       <c r="K46" s="18" t="s">
@@ -7376,23 +7485,23 @@
       <c r="M46" s="1">
         <v>44815</v>
       </c>
-      <c r="N46" s="31">
+      <c r="N46" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-86</v>
+        <v>-85</v>
       </c>
       <c r="O46">
         <v>0.16</v>
       </c>
       <c r="P46" s="18">
-        <f>M46-B46</f>
+        <f t="shared" si="10"/>
         <v>91</v>
       </c>
       <c r="Q46" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.6323198533032546E-3</v>
       </c>
       <c r="R46" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.1618934910298244</v>
       </c>
     </row>
@@ -7424,7 +7533,7 @@
         <v>-1</v>
       </c>
       <c r="J47" s="18">
-        <f t="shared" ref="J47" si="14">I47*H47</f>
+        <f t="shared" ref="J47" si="15">I47*H47</f>
         <v>-1083.2</v>
       </c>
       <c r="K47" s="18" t="s">
@@ -7436,23 +7545,23 @@
       <c r="M47" s="1">
         <v>44815</v>
       </c>
-      <c r="N47" s="31">
+      <c r="N47" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-86</v>
+        <v>-85</v>
       </c>
       <c r="O47" s="18">
         <v>0.09</v>
       </c>
       <c r="P47" s="18">
-        <f>M47-B47</f>
+        <f t="shared" si="10"/>
         <v>91</v>
       </c>
       <c r="Q47" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9.4745620432945543E-4</v>
       </c>
       <c r="R47" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0910327272627209</v>
       </c>
     </row>
@@ -7484,7 +7593,7 @@
         <v>-1</v>
       </c>
       <c r="J48" s="18">
-        <f t="shared" ref="J48" si="15">I48*H48</f>
+        <f t="shared" ref="J48" si="16">I48*H48</f>
         <v>-1016.64</v>
       </c>
       <c r="K48" s="18" t="s">
@@ -7496,23 +7605,23 @@
       <c r="M48" s="1">
         <v>44815</v>
       </c>
-      <c r="N48" s="31">
+      <c r="N48" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-86</v>
+        <v>-85</v>
       </c>
       <c r="O48" s="18">
         <v>0.3</v>
       </c>
       <c r="P48" s="18">
-        <f>M48-B48</f>
+        <f t="shared" si="10"/>
         <v>91</v>
       </c>
       <c r="Q48" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.8872839838995912E-3</v>
       </c>
       <c r="R48" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.3037534691790746</v>
       </c>
     </row>
@@ -7544,7 +7653,7 @@
         <v>-1</v>
       </c>
       <c r="J49" s="18">
-        <f t="shared" ref="J49:J50" si="16">I49*H49</f>
+        <f t="shared" ref="J49:J50" si="17">I49*H49</f>
         <v>-1035.5999999999999</v>
       </c>
       <c r="K49" s="18" t="s">
@@ -7556,23 +7665,23 @@
       <c r="M49" s="1">
         <v>44801</v>
       </c>
-      <c r="N49" s="31">
+      <c r="N49" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-72</v>
+        <v>-71</v>
       </c>
       <c r="O49">
         <v>0.12</v>
       </c>
       <c r="P49" s="18">
-        <f>M49-B49</f>
+        <f t="shared" si="10"/>
         <v>77</v>
       </c>
       <c r="Q49" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.4728847386982213E-3</v>
       </c>
       <c r="R49" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.1450012193329568</v>
       </c>
     </row>
@@ -7604,7 +7713,7 @@
         <v>-1</v>
       </c>
       <c r="J50">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-993.2</v>
       </c>
       <c r="K50" s="18" t="s">
@@ -7616,23 +7725,23 @@
       <c r="M50" s="1">
         <v>44780</v>
       </c>
-      <c r="N50" s="31">
+      <c r="N50" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-51</v>
+        <v>-50</v>
       </c>
       <c r="O50">
         <v>9.4899999999999998E-2</v>
       </c>
       <c r="P50" s="18">
-        <f>M50-B50</f>
+        <f t="shared" si="10"/>
         <v>56</v>
       </c>
       <c r="Q50" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.6202940261609289E-3</v>
       </c>
       <c r="R50" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.1606107956028482</v>
       </c>
     </row>
@@ -7657,14 +7766,14 @@
         <v>155.49</v>
       </c>
       <c r="H51" s="18">
-        <f t="shared" ref="H51:H57" si="17">G51*E51</f>
+        <f t="shared" ref="H51:H57" si="18">G51*E51</f>
         <v>1088.43</v>
       </c>
       <c r="I51" s="19">
         <v>-1</v>
       </c>
       <c r="J51" s="18">
-        <f t="shared" ref="J51" si="18">I51*H51</f>
+        <f t="shared" ref="J51" si="19">I51*H51</f>
         <v>-1088.43</v>
       </c>
       <c r="K51" s="18" t="s">
@@ -7676,23 +7785,23 @@
       <c r="M51" s="1">
         <v>44815</v>
       </c>
-      <c r="N51" s="31">
+      <c r="N51" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-86</v>
+        <v>-85</v>
       </c>
       <c r="O51">
         <v>0.14000000000000001</v>
       </c>
       <c r="P51" s="18">
-        <f>M51-B51</f>
+        <f t="shared" si="10"/>
         <v>91</v>
       </c>
       <c r="Q51" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.4409081274349145E-3</v>
       </c>
       <c r="R51" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.1416426352652658</v>
       </c>
     </row>
@@ -7717,14 +7826,14 @@
         <v>17.97</v>
       </c>
       <c r="H52" s="27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1078.1999999999998</v>
       </c>
       <c r="I52" s="27">
         <v>-1</v>
       </c>
       <c r="J52" s="27">
-        <f t="shared" ref="J52" si="19">I52*H52</f>
+        <f t="shared" ref="J52" si="20">I52*H52</f>
         <v>-1078.1999999999998</v>
       </c>
       <c r="K52" t="s">
@@ -7736,23 +7845,23 @@
       <c r="M52" s="1">
         <v>44752</v>
       </c>
-      <c r="N52" s="31">
-        <f t="shared" ref="N52" ca="1" si="20">$M$9-M52</f>
-        <v>-23</v>
+      <c r="N52" s="28">
+        <f t="shared" ref="N52" ca="1" si="21">$M$9-M52</f>
+        <v>-22</v>
       </c>
       <c r="O52" s="27">
         <v>0.16561899999999999</v>
       </c>
       <c r="P52" s="27">
-        <f>M52-B52</f>
+        <f t="shared" si="10"/>
         <v>23</v>
       </c>
       <c r="Q52" s="27">
-        <f t="shared" ref="Q52" si="21">(1+O52)^(1/P52)-1</f>
+        <f t="shared" ref="Q52" si="22">(1+O52)^(1/P52)-1</f>
         <v>6.6853905718118334E-3</v>
       </c>
       <c r="R52" s="27">
-        <f t="shared" ref="R52" si="22">(1+Q52)^92</f>
+        <f t="shared" ref="R52" si="23">(1+Q52)^92</f>
         <v>1.8459777917460405</v>
       </c>
     </row>
@@ -7777,14 +7886,14 @@
         <v>32.65</v>
       </c>
       <c r="H53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>979.5</v>
       </c>
       <c r="I53" s="27">
         <v>-1</v>
       </c>
       <c r="J53" s="27">
-        <f t="shared" ref="J53" si="23">I53*H53</f>
+        <f t="shared" ref="J53" si="24">I53*H53</f>
         <v>-979.5</v>
       </c>
       <c r="K53" t="s">
@@ -7796,23 +7905,23 @@
       <c r="M53" s="1">
         <v>44822</v>
       </c>
-      <c r="N53" s="31">
-        <f t="shared" ref="N53" ca="1" si="24">$M$9-M53</f>
-        <v>-93</v>
+      <c r="N53" s="28">
+        <f t="shared" ref="N53" ca="1" si="25">$M$9-M53</f>
+        <v>-92</v>
       </c>
       <c r="O53" s="27">
         <v>0.44709700000000002</v>
       </c>
       <c r="P53" s="27">
-        <f>M53-B53</f>
+        <f t="shared" si="10"/>
         <v>93</v>
       </c>
       <c r="Q53" s="27">
-        <f t="shared" ref="Q53" si="25">(1+O53)^(1/P53)-1</f>
+        <f t="shared" ref="Q53" si="26">(1+O53)^(1/P53)-1</f>
         <v>3.981663700681537E-3</v>
       </c>
       <c r="R53" s="27">
-        <f t="shared" ref="R53" si="26">(1+Q53)^92</f>
+        <f t="shared" ref="R53" si="27">(1+Q53)^92</f>
         <v>1.4413579971829127</v>
       </c>
     </row>
@@ -7837,14 +7946,14 @@
         <v>94.7</v>
       </c>
       <c r="H54">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>947</v>
       </c>
       <c r="I54" s="27">
         <v>-1</v>
       </c>
       <c r="J54" s="27">
-        <f t="shared" ref="J54" si="27">I54*H54</f>
+        <f t="shared" ref="J54" si="28">I54*H54</f>
         <v>-947</v>
       </c>
       <c r="K54" t="s">
@@ -7856,23 +7965,23 @@
       <c r="M54" s="1">
         <v>44794</v>
       </c>
-      <c r="N54" s="31">
-        <f t="shared" ref="N54:N57" ca="1" si="28">$M$9-M54</f>
-        <v>-65</v>
+      <c r="N54" s="28">
+        <f t="shared" ref="N54:N57" ca="1" si="29">$M$9-M54</f>
+        <v>-64</v>
       </c>
       <c r="O54" s="27">
         <v>0.44709700000000002</v>
       </c>
       <c r="P54" s="27">
-        <f>M54-B54</f>
+        <f t="shared" si="10"/>
         <v>65</v>
       </c>
       <c r="Q54" s="27">
-        <f t="shared" ref="Q54" si="29">(1+O54)^(1/P54)-1</f>
+        <f t="shared" ref="Q54" si="30">(1+O54)^(1/P54)-1</f>
         <v>5.7017237745042859E-3</v>
       </c>
       <c r="R54" s="27">
-        <f t="shared" ref="R54" si="30">(1+Q54)^92</f>
+        <f t="shared" ref="R54" si="31">(1+Q54)^92</f>
         <v>1.6871973902345887</v>
       </c>
     </row>
@@ -7897,14 +8006,14 @@
         <v>32.79</v>
       </c>
       <c r="H55">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>983.69999999999993</v>
       </c>
       <c r="I55" s="27">
         <v>-1</v>
       </c>
       <c r="J55" s="27">
-        <f t="shared" ref="J55" si="31">I55*H55</f>
+        <f t="shared" ref="J55" si="32">I55*H55</f>
         <v>-983.69999999999993</v>
       </c>
       <c r="K55" s="27" t="s">
@@ -7916,23 +8025,23 @@
       <c r="M55" s="1">
         <v>44780</v>
       </c>
-      <c r="N55" s="31">
-        <f t="shared" ca="1" si="28"/>
-        <v>-51</v>
+      <c r="N55" s="28">
+        <f t="shared" ca="1" si="29"/>
+        <v>-50</v>
       </c>
       <c r="O55" s="27">
         <v>7.9225000000000004E-2</v>
       </c>
       <c r="P55" s="27">
-        <f>M55-B55</f>
+        <f t="shared" si="10"/>
         <v>51</v>
       </c>
       <c r="Q55" s="27">
-        <f t="shared" ref="Q55" si="32">(1+O55)^(1/P55)-1</f>
+        <f t="shared" ref="Q55" si="33">(1+O55)^(1/P55)-1</f>
         <v>1.496082544978572E-3</v>
       </c>
       <c r="R55" s="27">
-        <f t="shared" ref="R55" si="33">(1+Q55)^92</f>
+        <f t="shared" ref="R55" si="34">(1+Q55)^92</f>
         <v>1.1474438584033493</v>
       </c>
     </row>
@@ -7957,14 +8066,14 @@
         <v>177.21</v>
       </c>
       <c r="H56">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1063.26</v>
       </c>
       <c r="I56" s="27">
         <v>-1</v>
       </c>
       <c r="J56" s="27">
-        <f t="shared" ref="J56" si="34">I56*H56</f>
+        <f t="shared" ref="J56" si="35">I56*H56</f>
         <v>-1063.26</v>
       </c>
       <c r="K56" t="s">
@@ -7976,23 +8085,23 @@
       <c r="M56" s="1">
         <v>44766</v>
       </c>
-      <c r="N56" s="31">
-        <f t="shared" ca="1" si="28"/>
-        <v>-37</v>
+      <c r="N56" s="28">
+        <f t="shared" ca="1" si="29"/>
+        <v>-36</v>
       </c>
       <c r="O56" s="27">
         <v>4.7683999999999997E-2</v>
       </c>
       <c r="P56" s="27">
-        <f>M56-B56</f>
+        <f t="shared" si="10"/>
         <v>37</v>
       </c>
       <c r="Q56" s="27">
-        <f t="shared" ref="Q56" si="35">(1+O56)^(1/P56)-1</f>
+        <f t="shared" ref="Q56" si="36">(1+O56)^(1/P56)-1</f>
         <v>1.2597661832201013E-3</v>
       </c>
       <c r="R56" s="27">
-        <f t="shared" ref="R56" si="36">(1+Q56)^92</f>
+        <f t="shared" ref="R56" si="37">(1+Q56)^92</f>
         <v>1.122799979907529</v>
       </c>
     </row>
@@ -8017,14 +8126,14 @@
         <v>64.319999999999993</v>
       </c>
       <c r="H57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1029.1199999999999</v>
       </c>
       <c r="I57" s="27">
         <v>-1</v>
       </c>
       <c r="J57" s="27">
-        <f t="shared" ref="J57" si="37">I57*H57</f>
+        <f t="shared" ref="J57" si="38">I57*H57</f>
         <v>-1029.1199999999999</v>
       </c>
       <c r="K57" t="s">
@@ -8036,23 +8145,23 @@
       <c r="M57" s="1">
         <v>44759</v>
       </c>
-      <c r="N57" s="31">
-        <f t="shared" ca="1" si="28"/>
-        <v>-30</v>
+      <c r="N57" s="28">
+        <f t="shared" ca="1" si="29"/>
+        <v>-29</v>
       </c>
       <c r="O57" s="27">
         <v>3.1424000000000001E-2</v>
       </c>
       <c r="P57" s="27">
-        <f>M57-B57</f>
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
       <c r="Q57" s="27">
-        <f t="shared" ref="Q57" si="38">(1+O57)^(1/P57)-1</f>
+        <f t="shared" ref="Q57" si="39">(1+O57)^(1/P57)-1</f>
         <v>1.0318777434383808E-3</v>
       </c>
       <c r="R57" s="27">
-        <f t="shared" ref="R57" si="39">(1+Q57)^92</f>
+        <f t="shared" ref="R57" si="40">(1+Q57)^92</f>
         <v>1.0995310894115367</v>
       </c>
     </row>
@@ -8080,6 +8189,542 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42ECBE6-1D33-4024-AD6C-AEDC47AC058A}">
+  <dimension ref="A1:I87"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I87"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="24">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="7">
+        <v>44722</v>
+      </c>
+      <c r="B30" s="8">
+        <v>100.459999</v>
+      </c>
+      <c r="C30" s="8">
+        <v>85.804488000000006</v>
+      </c>
+      <c r="D30" s="8">
+        <v>95.616984000000002</v>
+      </c>
+      <c r="E30" s="8">
+        <v>105.42948</v>
+      </c>
+      <c r="F30" s="8">
+        <v>88.303809000000001</v>
+      </c>
+      <c r="G30" s="8">
+        <v>6.5858280000000002</v>
+      </c>
+      <c r="H30" s="8">
+        <v>75.132152000000005</v>
+      </c>
+      <c r="I30" s="8">
+        <v>101.475466</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="10"/>
+    </row>
+    <row r="32" spans="1:9" ht="24">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="B33" s="8">
+        <v>1.434399</v>
+      </c>
+      <c r="C33" s="8">
+        <v>100.459999</v>
+      </c>
+      <c r="D33" s="8">
+        <v>399482859.53101403</v>
+      </c>
+      <c r="E33" s="8">
+        <v>0.93137300000000001</v>
+      </c>
+      <c r="F33" s="8">
+        <v>0.97785200000000005</v>
+      </c>
+      <c r="G33" s="8">
+        <v>0.53667100000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="10"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="32"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="24">
+      <c r="A38" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="24">
+      <c r="A39" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="24">
+      <c r="A41" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="9"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="B44" s="32"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="16.5">
+      <c r="A49" s="4"/>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="16.5">
+      <c r="A57" s="4"/>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A44:B44"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A4C761A-8342-4CE0-A1D6-1407E0800E4A}">
   <dimension ref="A1:I271"/>
   <sheetViews>
@@ -8335,10 +8980,10 @@
       <c r="A37" s="10"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="B38" s="29"/>
+      <c r="B38" s="32"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="6"/>
@@ -8395,10 +9040,10 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="28" t="s">
+      <c r="A47" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="29"/>
+      <c r="B47" s="32"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="6"/>
@@ -9525,7 +10170,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF45AACD-349E-42EB-B4EC-AC0497F2DE36}">
   <dimension ref="A1:I60"/>
   <sheetViews>
@@ -9781,10 +10426,10 @@
       <c r="A37" s="10"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="B38" s="29"/>
+      <c r="B38" s="32"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="6"/>
@@ -9841,10 +10486,10 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="28" t="s">
+      <c r="A47" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="29"/>
+      <c r="B47" s="32"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="6"/>
@@ -9924,7 +10569,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBAF46BE-9B05-4CBD-9409-C1CB017936FC}">
   <dimension ref="A1:I59"/>
   <sheetViews>
@@ -10167,10 +10812,10 @@
       <c r="A34" s="10"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="29"/>
+      <c r="B35" s="32"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="6"/>
@@ -10227,10 +10872,10 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="B44" s="29"/>
+      <c r="B44" s="32"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="6"/>
@@ -10320,7 +10965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF55581E-50C5-4CFE-B453-23EB7FB4DBC0}">
   <dimension ref="A1:G42"/>
   <sheetViews>
@@ -10570,7 +11215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C8457A-5C04-4BB2-AC51-2176627DDCCE}">
   <dimension ref="A1:I38"/>
   <sheetViews>
@@ -10727,10 +11372,10 @@
       <c r="A14" s="10"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="29"/>
+      <c r="B15" s="32"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="6"/>
@@ -10787,10 +11432,10 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="B24" s="29"/>
+      <c r="B24" s="32"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="6"/>
@@ -10875,7 +11520,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC72B2F-77D8-4515-B394-A11980400A9C}">
   <dimension ref="A1:I94"/>
   <sheetViews>
@@ -11105,10 +11750,10 @@
       <c r="A31" s="10"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="29"/>
+      <c r="B32" s="32"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="6"/>
@@ -11165,10 +11810,10 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="B41" s="29"/>
+      <c r="B41" s="32"/>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="6"/>
@@ -11450,10 +12095,2730 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5B5641-1C14-45B9-9884-6F6125221349}">
+  <dimension ref="A1:P55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="B1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>190</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" hidden="1">
+      <c r="A3" t="s">
+        <v>670</v>
+      </c>
+      <c r="B3">
+        <v>0.23344899999999999</v>
+      </c>
+      <c r="C3" s="1">
+        <v>44731</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0.23344899999999999</v>
+      </c>
+      <c r="F3">
+        <v>241630987.13855401</v>
+      </c>
+      <c r="G3">
+        <v>46.450575999999998</v>
+      </c>
+      <c r="H3">
+        <v>59.425732000000004</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>37.756068999999997</v>
+      </c>
+      <c r="K3">
+        <v>63.541203000000003</v>
+      </c>
+      <c r="L3">
+        <v>39.709999000000003</v>
+      </c>
+      <c r="M3" t="s">
+        <v>415</v>
+      </c>
+      <c r="N3" t="s">
+        <v>142</v>
+      </c>
+      <c r="O3">
+        <v>1.169745</v>
+      </c>
+      <c r="P3">
+        <v>1.4964930000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" hidden="1">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>0.184138</v>
+      </c>
+      <c r="C4" s="1">
+        <v>44731</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0.184138</v>
+      </c>
+      <c r="F4">
+        <v>5662666.4409750002</v>
+      </c>
+      <c r="G4">
+        <v>51.132067999999997</v>
+      </c>
+      <c r="H4">
+        <v>41.973463000000002</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>38.247577</v>
+      </c>
+      <c r="K4">
+        <v>56.391815999999999</v>
+      </c>
+      <c r="L4">
+        <v>39.220001000000003</v>
+      </c>
+      <c r="M4" t="s">
+        <v>415</v>
+      </c>
+      <c r="N4" t="s">
+        <v>141</v>
+      </c>
+      <c r="O4">
+        <v>1.3037240000000001</v>
+      </c>
+      <c r="P4">
+        <v>1.070206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" hidden="1">
+      <c r="A5" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B5">
+        <v>7.6907000000000003E-2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>44731</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>7.6907000000000003E-2</v>
+      </c>
+      <c r="F5">
+        <v>912.84290199999998</v>
+      </c>
+      <c r="G5">
+        <v>172.246362</v>
+      </c>
+      <c r="H5">
+        <v>373.069681</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>142.99504300000001</v>
+      </c>
+      <c r="K5">
+        <v>161.72328899999999</v>
+      </c>
+      <c r="L5">
+        <v>141.44000199999999</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="N5" t="s">
+        <v>1084</v>
+      </c>
+      <c r="O5">
+        <v>1.217805</v>
+      </c>
+      <c r="P5">
+        <v>2.6376529999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" hidden="1">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6">
+        <v>2.9860000000000001E-2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>44731</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>2.9860000000000001E-2</v>
+      </c>
+      <c r="F6">
+        <v>14.983392</v>
+      </c>
+      <c r="G6">
+        <v>42.661154000000003</v>
+      </c>
+      <c r="H6">
+        <v>67.928633000000005</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>53.227992999999998</v>
+      </c>
+      <c r="K6">
+        <v>71.780809000000005</v>
+      </c>
+      <c r="L6">
+        <v>60.720001000000003</v>
+      </c>
+      <c r="M6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" t="s">
+        <v>142</v>
+      </c>
+      <c r="O6">
+        <v>0.70258799999999999</v>
+      </c>
+      <c r="P6">
+        <v>1.118719</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" hidden="1">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>2.8402E-2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>44731</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>2.8402E-2</v>
+      </c>
+      <c r="F7">
+        <v>13.151865000000001</v>
+      </c>
+      <c r="G7">
+        <v>542.14950699999997</v>
+      </c>
+      <c r="H7">
+        <v>591.20148800000004</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>286.348499</v>
+      </c>
+      <c r="K7">
+        <v>333.67385999999999</v>
+      </c>
+      <c r="L7">
+        <v>300.57000699999998</v>
+      </c>
+      <c r="M7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" t="s">
+        <v>141</v>
+      </c>
+      <c r="O7">
+        <v>1.8037380000000001</v>
+      </c>
+      <c r="P7">
+        <v>1.966934</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" hidden="1">
+      <c r="A8" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B8">
+        <v>2.1888000000000001E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>44731</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>2.1888000000000001E-2</v>
+      </c>
+      <c r="F8">
+        <v>7.330012</v>
+      </c>
+      <c r="G8">
+        <v>227.72489200000001</v>
+      </c>
+      <c r="H8">
+        <v>281.29883100000001</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>214.06231399999999</v>
+      </c>
+      <c r="K8">
+        <v>236.559563</v>
+      </c>
+      <c r="L8">
+        <v>220.21000699999999</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1083</v>
+      </c>
+      <c r="N8" t="s">
+        <v>1084</v>
+      </c>
+      <c r="O8">
+        <v>1.0341260000000001</v>
+      </c>
+      <c r="P8">
+        <v>1.277412</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" hidden="1">
+      <c r="A9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B9">
+        <v>0.65012999999999999</v>
+      </c>
+      <c r="C9" s="1">
+        <v>44780</v>
+      </c>
+      <c r="D9">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <v>1.0067E-2</v>
+      </c>
+      <c r="F9">
+        <v>2.5132370000000002</v>
+      </c>
+      <c r="G9">
+        <v>29.947932999999999</v>
+      </c>
+      <c r="H9">
+        <v>20.238755000000001</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>25.756073000000001</v>
+      </c>
+      <c r="K9">
+        <v>116.283259</v>
+      </c>
+      <c r="L9">
+        <v>32.979999999999997</v>
+      </c>
+      <c r="M9" t="s">
+        <v>415</v>
+      </c>
+      <c r="N9" t="s">
+        <v>142</v>
+      </c>
+      <c r="O9">
+        <v>0.90806299999999995</v>
+      </c>
+      <c r="P9">
+        <v>0.61366799999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" hidden="1">
+      <c r="A10" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B10">
+        <v>8.7290000000000006E-3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>44731</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>8.7290000000000006E-3</v>
+      </c>
+      <c r="F10">
+        <v>2.2245729999999999</v>
+      </c>
+      <c r="G10">
+        <v>7.2299540000000002</v>
+      </c>
+      <c r="H10">
+        <v>9.0419440000000009</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>28.456761</v>
+      </c>
+      <c r="K10">
+        <v>34.207647999999999</v>
+      </c>
+      <c r="L10">
+        <v>30.93</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1083</v>
+      </c>
+      <c r="N10" t="s">
+        <v>142</v>
+      </c>
+      <c r="O10">
+        <v>0.23375199999999999</v>
+      </c>
+      <c r="P10">
+        <v>0.29233599999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" hidden="1">
+      <c r="A11" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B11">
+        <v>6.5328999999999998E-2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>44738</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>7.9419999999999994E-3</v>
+      </c>
+      <c r="F11">
+        <v>2.070452</v>
+      </c>
+      <c r="G11">
+        <v>3.307493</v>
+      </c>
+      <c r="H11">
+        <v>2.8881389999999998</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>17.167107999999999</v>
+      </c>
+      <c r="K11">
+        <v>24.244223000000002</v>
+      </c>
+      <c r="L11">
+        <v>19.149999999999999</v>
+      </c>
+      <c r="M11" t="s">
+        <v>435</v>
+      </c>
+      <c r="N11" t="s">
+        <v>142</v>
+      </c>
+      <c r="O11">
+        <v>0.17271500000000001</v>
+      </c>
+      <c r="P11">
+        <v>0.15081700000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" hidden="1">
+      <c r="A12" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B12">
+        <v>0.47100799999999998</v>
+      </c>
+      <c r="C12" s="1">
+        <v>44780</v>
+      </c>
+      <c r="D12">
+        <v>50</v>
+      </c>
+      <c r="E12">
+        <v>7.7489999999999998E-3</v>
+      </c>
+      <c r="F12">
+        <v>2.0342829999999998</v>
+      </c>
+      <c r="G12">
+        <v>80.280011000000002</v>
+      </c>
+      <c r="H12">
+        <v>65.125564999999995</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>16.314374999999998</v>
+      </c>
+      <c r="K12">
+        <v>189.71531899999999</v>
+      </c>
+      <c r="L12">
+        <v>37.82</v>
+      </c>
+      <c r="M12" t="s">
+        <v>415</v>
+      </c>
+      <c r="N12" t="s">
+        <v>142</v>
+      </c>
+      <c r="O12">
+        <v>2.122687</v>
+      </c>
+      <c r="P12">
+        <v>1.7219869999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
+        <v>491</v>
+      </c>
+      <c r="B13">
+        <v>0.61562899999999998</v>
+      </c>
+      <c r="C13" s="1">
+        <v>44801</v>
+      </c>
+      <c r="D13">
+        <v>71</v>
+      </c>
+      <c r="E13">
+        <v>6.7799999999999996E-3</v>
+      </c>
+      <c r="F13">
+        <v>1.8619319999999999</v>
+      </c>
+      <c r="G13">
+        <v>12.772815</v>
+      </c>
+      <c r="H13">
+        <v>12.852391000000001</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>16.206448999999999</v>
+      </c>
+      <c r="K13">
+        <v>99.247203999999996</v>
+      </c>
+      <c r="L13">
+        <v>24.15</v>
+      </c>
+      <c r="M13" t="s">
+        <v>415</v>
+      </c>
+      <c r="N13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O13">
+        <v>0.528895</v>
+      </c>
+      <c r="P13">
+        <v>0.53219000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" hidden="1">
+      <c r="A14" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B14">
+        <v>0.44081900000000002</v>
+      </c>
+      <c r="C14" s="1">
+        <v>44815</v>
+      </c>
+      <c r="D14">
+        <v>85</v>
+      </c>
+      <c r="E14">
+        <v>4.3059999999999999E-3</v>
+      </c>
+      <c r="F14">
+        <v>1.4848110000000001</v>
+      </c>
+      <c r="G14">
+        <v>310.91454800000002</v>
+      </c>
+      <c r="H14">
+        <v>235.949804</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>105.732409</v>
+      </c>
+      <c r="K14">
+        <v>252.701201</v>
+      </c>
+      <c r="L14">
+        <v>112.44000200000001</v>
+      </c>
+      <c r="M14" t="s">
+        <v>415</v>
+      </c>
+      <c r="N14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O14">
+        <v>2.7651599999999998</v>
+      </c>
+      <c r="P14">
+        <v>2.0984509999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" hidden="1">
+      <c r="A15" t="s">
+        <v>490</v>
+      </c>
+      <c r="B15">
+        <v>0.47734799999999999</v>
+      </c>
+      <c r="C15" s="1">
+        <v>44822</v>
+      </c>
+      <c r="D15">
+        <v>92</v>
+      </c>
+      <c r="E15">
+        <v>4.2509999999999996E-3</v>
+      </c>
+      <c r="F15">
+        <v>1.4773480000000001</v>
+      </c>
+      <c r="G15">
+        <v>73.275844000000006</v>
+      </c>
+      <c r="H15">
+        <v>88.550059000000005</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>45.952300999999999</v>
+      </c>
+      <c r="K15">
+        <v>159.887317</v>
+      </c>
+      <c r="L15">
+        <v>58.02</v>
+      </c>
+      <c r="M15" t="s">
+        <v>415</v>
+      </c>
+      <c r="N15" t="s">
+        <v>141</v>
+      </c>
+      <c r="O15">
+        <v>1.2629410000000001</v>
+      </c>
+      <c r="P15">
+        <v>1.5261990000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" hidden="1">
+      <c r="A16" t="s">
+        <v>863</v>
+      </c>
+      <c r="B16">
+        <v>0.47014</v>
+      </c>
+      <c r="C16" s="1">
+        <v>44822</v>
+      </c>
+      <c r="D16">
+        <v>92</v>
+      </c>
+      <c r="E16">
+        <v>4.1970000000000002E-3</v>
+      </c>
+      <c r="F16">
+        <v>1.47014</v>
+      </c>
+      <c r="G16">
+        <v>56.284365999999999</v>
+      </c>
+      <c r="H16">
+        <v>43.639567999999997</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>28.608214</v>
+      </c>
+      <c r="K16">
+        <v>226.637654</v>
+      </c>
+      <c r="L16">
+        <v>55.68</v>
+      </c>
+      <c r="M16" t="s">
+        <v>415</v>
+      </c>
+      <c r="N16" t="s">
+        <v>141</v>
+      </c>
+      <c r="O16">
+        <v>1.0108539999999999</v>
+      </c>
+      <c r="P16">
+        <v>0.78375700000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" hidden="1">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>0.39963900000000002</v>
+      </c>
+      <c r="C17" s="1">
+        <v>44815</v>
+      </c>
+      <c r="D17">
+        <v>85</v>
+      </c>
+      <c r="E17">
+        <v>3.9630000000000004E-3</v>
+      </c>
+      <c r="F17">
+        <v>1.4389339999999999</v>
+      </c>
+      <c r="G17">
+        <v>144.329903</v>
+      </c>
+      <c r="H17">
+        <v>148.949477</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>69.596783000000002</v>
+      </c>
+      <c r="K17">
+        <v>238.302459</v>
+      </c>
+      <c r="L17">
+        <v>93.739998</v>
+      </c>
+      <c r="M17" t="s">
+        <v>415</v>
+      </c>
+      <c r="N17" t="s">
+        <v>141</v>
+      </c>
+      <c r="O17">
+        <v>1.5396829999999999</v>
+      </c>
+      <c r="P17">
+        <v>1.588964</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" hidden="1">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>0.38235999999999998</v>
+      </c>
+      <c r="C18" s="1">
+        <v>44815</v>
+      </c>
+      <c r="D18">
+        <v>85</v>
+      </c>
+      <c r="E18">
+        <v>3.8170000000000001E-3</v>
+      </c>
+      <c r="F18">
+        <v>1.4197169999999999</v>
+      </c>
+      <c r="G18">
+        <v>136.35409899999999</v>
+      </c>
+      <c r="H18">
+        <v>146.003603</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>72.342236</v>
+      </c>
+      <c r="K18">
+        <v>204.341217</v>
+      </c>
+      <c r="L18">
+        <v>87.290001000000004</v>
+      </c>
+      <c r="M18" t="s">
+        <v>415</v>
+      </c>
+      <c r="N18" t="s">
+        <v>141</v>
+      </c>
+      <c r="O18">
+        <v>1.562082</v>
+      </c>
+      <c r="P18">
+        <v>1.6726270000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" hidden="1">
+      <c r="A19" t="s">
+        <v>509</v>
+      </c>
+      <c r="B19">
+        <v>0.31794299999999998</v>
+      </c>
+      <c r="C19" s="1">
+        <v>44808</v>
+      </c>
+      <c r="D19">
+        <v>78</v>
+      </c>
+      <c r="E19">
+        <v>3.5460000000000001E-3</v>
+      </c>
+      <c r="F19">
+        <v>1.3848940000000001</v>
+      </c>
+      <c r="G19">
+        <v>36.976329</v>
+      </c>
+      <c r="H19">
+        <v>64.101820000000004</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>29.713041</v>
+      </c>
+      <c r="K19">
+        <v>124.50581200000001</v>
+      </c>
+      <c r="L19">
+        <v>46.150002000000001</v>
+      </c>
+      <c r="M19" t="s">
+        <v>415</v>
+      </c>
+      <c r="N19" t="s">
+        <v>142</v>
+      </c>
+      <c r="O19">
+        <v>0.80122099999999996</v>
+      </c>
+      <c r="P19">
+        <v>1.3889879999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" hidden="1">
+      <c r="A20" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B20">
+        <v>0.26130900000000001</v>
+      </c>
+      <c r="C20" s="1">
+        <v>44815</v>
+      </c>
+      <c r="D20">
+        <v>85</v>
+      </c>
+      <c r="E20">
+        <v>2.735E-3</v>
+      </c>
+      <c r="F20">
+        <v>1.285655</v>
+      </c>
+      <c r="G20">
+        <v>177.93582900000001</v>
+      </c>
+      <c r="H20">
+        <v>188.77909299999999</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>89.451898999999997</v>
+      </c>
+      <c r="K20">
+        <v>186.30695</v>
+      </c>
+      <c r="L20">
+        <v>102.349998</v>
+      </c>
+      <c r="M20" t="s">
+        <v>1083</v>
+      </c>
+      <c r="N20" t="s">
+        <v>1084</v>
+      </c>
+      <c r="O20">
+        <v>1.7385029999999999</v>
+      </c>
+      <c r="P20">
+        <v>1.844446</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" hidden="1">
+      <c r="A21" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B21">
+        <v>0.28083399999999997</v>
+      </c>
+      <c r="C21" s="1">
+        <v>44822</v>
+      </c>
+      <c r="D21">
+        <v>92</v>
+      </c>
+      <c r="E21">
+        <v>2.6940000000000002E-3</v>
+      </c>
+      <c r="F21">
+        <v>1.280834</v>
+      </c>
+      <c r="G21">
+        <v>74.399932000000007</v>
+      </c>
+      <c r="H21">
+        <v>61.366318</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>32.725490000000001</v>
+      </c>
+      <c r="K21">
+        <v>101.51374199999999</v>
+      </c>
+      <c r="L21">
+        <v>45</v>
+      </c>
+      <c r="M21" t="s">
+        <v>415</v>
+      </c>
+      <c r="N21" t="s">
+        <v>163</v>
+      </c>
+      <c r="O21">
+        <v>1.653332</v>
+      </c>
+      <c r="P21">
+        <v>1.363696</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" hidden="1">
+      <c r="A22" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B22">
+        <v>9.5482999999999998E-2</v>
+      </c>
+      <c r="C22" s="1">
+        <v>44766</v>
+      </c>
+      <c r="D22">
+        <v>36</v>
+      </c>
+      <c r="E22">
+        <v>2.5360000000000001E-3</v>
+      </c>
+      <c r="F22">
+        <v>1.2624500000000001</v>
+      </c>
+      <c r="G22">
+        <v>223.723972</v>
+      </c>
+      <c r="H22">
+        <v>187.537204</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>148.01942</v>
+      </c>
+      <c r="K22">
+        <v>203.79934900000001</v>
+      </c>
+      <c r="L22">
+        <v>159.80999800000001</v>
+      </c>
+      <c r="M22" t="s">
+        <v>1083</v>
+      </c>
+      <c r="N22" t="s">
+        <v>1084</v>
+      </c>
+      <c r="O22">
+        <v>1.399937</v>
+      </c>
+      <c r="P22">
+        <v>1.1735009999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" hidden="1">
+      <c r="A23" t="s">
+        <v>437</v>
+      </c>
+      <c r="B23">
+        <v>0.23611499999999999</v>
+      </c>
+      <c r="C23" s="1">
+        <v>44815</v>
+      </c>
+      <c r="D23">
+        <v>85</v>
+      </c>
+      <c r="E23">
+        <v>2.4970000000000001E-3</v>
+      </c>
+      <c r="F23">
+        <v>1.2578830000000001</v>
+      </c>
+      <c r="G23">
+        <v>100.127424</v>
+      </c>
+      <c r="H23">
+        <v>81.366620999999995</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>71.148050999999995</v>
+      </c>
+      <c r="K23">
+        <v>159.28062</v>
+      </c>
+      <c r="L23">
+        <v>86.120002999999997</v>
+      </c>
+      <c r="M23" t="s">
+        <v>415</v>
+      </c>
+      <c r="N23" t="s">
+        <v>141</v>
+      </c>
+      <c r="O23">
+        <v>1.16265</v>
+      </c>
+      <c r="P23">
+        <v>0.94480500000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" hidden="1">
+      <c r="A24" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B24">
+        <v>0.125331</v>
+      </c>
+      <c r="C24" s="1">
+        <v>44801</v>
+      </c>
+      <c r="D24">
+        <v>71</v>
+      </c>
+      <c r="E24">
+        <v>1.6639999999999999E-3</v>
+      </c>
+      <c r="F24">
+        <v>1.1653260000000001</v>
+      </c>
+      <c r="G24">
+        <v>480.52590500000002</v>
+      </c>
+      <c r="H24">
+        <v>566.20480399999997</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>256.09321799999998</v>
+      </c>
+      <c r="K24">
+        <v>429.25770299999999</v>
+      </c>
+      <c r="L24">
+        <v>290.89999399999999</v>
+      </c>
+      <c r="M24" t="s">
+        <v>10</v>
+      </c>
+      <c r="N24" t="s">
+        <v>141</v>
+      </c>
+      <c r="O24">
+        <v>1.651859</v>
+      </c>
+      <c r="P24">
+        <v>1.9463900000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" hidden="1">
+      <c r="A25" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B25">
+        <v>6.0625999999999999E-2</v>
+      </c>
+      <c r="C25" s="1">
+        <v>44766</v>
+      </c>
+      <c r="D25">
+        <v>36</v>
+      </c>
+      <c r="E25">
+        <v>1.6360000000000001E-3</v>
+      </c>
+      <c r="F25">
+        <v>1.1623220000000001</v>
+      </c>
+      <c r="G25">
+        <v>57.394672</v>
+      </c>
+      <c r="H25">
+        <v>50.743015999999997</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>68.102366000000004</v>
+      </c>
+      <c r="K25">
+        <v>94.445334000000003</v>
+      </c>
+      <c r="L25">
+        <v>75.849997999999999</v>
+      </c>
+      <c r="M25" t="s">
+        <v>1083</v>
+      </c>
+      <c r="N25" t="s">
+        <v>1084</v>
+      </c>
+      <c r="O25">
+        <v>0.756687</v>
+      </c>
+      <c r="P25">
+        <v>0.66899200000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" hidden="1">
+      <c r="A26" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B26">
+        <v>0.12123299999999999</v>
+      </c>
+      <c r="C26" s="1">
+        <v>44801</v>
+      </c>
+      <c r="D26">
+        <v>71</v>
+      </c>
+      <c r="E26">
+        <v>1.6130000000000001E-3</v>
+      </c>
+      <c r="F26">
+        <v>1.1598310000000001</v>
+      </c>
+      <c r="G26">
+        <v>112.116923</v>
+      </c>
+      <c r="H26">
+        <v>145.36713</v>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>67.863111000000004</v>
+      </c>
+      <c r="K26">
+        <v>110.238311</v>
+      </c>
+      <c r="L26">
+        <v>78.089995999999999</v>
+      </c>
+      <c r="M26" t="s">
+        <v>1083</v>
+      </c>
+      <c r="N26" t="s">
+        <v>1084</v>
+      </c>
+      <c r="O26">
+        <v>1.43574</v>
+      </c>
+      <c r="P26">
+        <v>1.8615330000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" hidden="1">
+      <c r="A27" t="s">
+        <v>427</v>
+      </c>
+      <c r="B27">
+        <v>0.143457</v>
+      </c>
+      <c r="C27" s="1">
+        <v>44815</v>
+      </c>
+      <c r="D27">
+        <v>85</v>
+      </c>
+      <c r="E27">
+        <v>1.578E-3</v>
+      </c>
+      <c r="F27">
+        <v>1.1561509999999999</v>
+      </c>
+      <c r="G27">
+        <v>219.71298999999999</v>
+      </c>
+      <c r="H27">
+        <v>235.714538</v>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>150.47609800000001</v>
+      </c>
+      <c r="K27">
+        <v>230.29319000000001</v>
+      </c>
+      <c r="L27">
+        <v>162.800003</v>
+      </c>
+      <c r="M27" t="s">
+        <v>1083</v>
+      </c>
+      <c r="N27" t="s">
+        <v>1084</v>
+      </c>
+      <c r="O27">
+        <v>1.349588</v>
+      </c>
+      <c r="P27">
+        <v>1.447878</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" hidden="1">
+      <c r="A28" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B28">
+        <v>5.8043999999999998E-2</v>
+      </c>
+      <c r="C28" s="1">
+        <v>44766</v>
+      </c>
+      <c r="D28">
+        <v>36</v>
+      </c>
+      <c r="E28">
+        <v>1.5690000000000001E-3</v>
+      </c>
+      <c r="F28">
+        <v>1.155103</v>
+      </c>
+      <c r="G28">
+        <v>27.983159000000001</v>
+      </c>
+      <c r="H28">
+        <v>36.091887</v>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>24.047501</v>
+      </c>
+      <c r="K28">
+        <v>39.860351000000001</v>
+      </c>
+      <c r="L28">
+        <v>29.34</v>
+      </c>
+      <c r="M28" t="s">
+        <v>1100</v>
+      </c>
+      <c r="N28" t="s">
+        <v>163</v>
+      </c>
+      <c r="O28">
+        <v>0.95375500000000002</v>
+      </c>
+      <c r="P28">
+        <v>1.2301260000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" hidden="1">
+      <c r="A29" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B29">
+        <v>0.12937899999999999</v>
+      </c>
+      <c r="C29" s="1">
+        <v>44808</v>
+      </c>
+      <c r="D29">
+        <v>78</v>
+      </c>
+      <c r="E29">
+        <v>1.5610000000000001E-3</v>
+      </c>
+      <c r="F29">
+        <v>1.1543129999999999</v>
+      </c>
+      <c r="G29">
+        <v>216.744371</v>
+      </c>
+      <c r="H29">
+        <v>102.59621</v>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>139.212389</v>
+      </c>
+      <c r="K29">
+        <v>252.12460200000001</v>
+      </c>
+      <c r="L29">
+        <v>164.020004</v>
+      </c>
+      <c r="M29" t="s">
+        <v>1083</v>
+      </c>
+      <c r="N29" t="s">
+        <v>163</v>
+      </c>
+      <c r="O29">
+        <v>1.3214509999999999</v>
+      </c>
+      <c r="P29">
+        <v>0.62551000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" hidden="1">
+      <c r="A30" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B30">
+        <v>4.2921000000000001E-2</v>
+      </c>
+      <c r="C30" s="1">
+        <v>44759</v>
+      </c>
+      <c r="D30">
+        <v>29</v>
+      </c>
+      <c r="E30">
+        <v>1.4499999999999999E-3</v>
+      </c>
+      <c r="F30">
+        <v>1.1426160000000001</v>
+      </c>
+      <c r="G30">
+        <v>39.758057999999998</v>
+      </c>
+      <c r="H30">
+        <v>71.366471000000004</v>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>60.091647999999999</v>
+      </c>
+      <c r="K30">
+        <v>80.816730000000007</v>
+      </c>
+      <c r="L30">
+        <v>66.819999999999993</v>
+      </c>
+      <c r="M30" t="s">
+        <v>1103</v>
+      </c>
+      <c r="N30" t="s">
+        <v>141</v>
+      </c>
+      <c r="O30">
+        <v>0.59500200000000003</v>
+      </c>
+      <c r="P30">
+        <v>1.068041</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" hidden="1">
+      <c r="A31" t="s">
+        <v>434</v>
+      </c>
+      <c r="B31">
+        <v>6.2295000000000003E-2</v>
+      </c>
+      <c r="C31" s="1">
+        <v>44780</v>
+      </c>
+      <c r="D31">
+        <v>50</v>
+      </c>
+      <c r="E31">
+        <v>1.209E-3</v>
+      </c>
+      <c r="F31">
+        <v>1.117612</v>
+      </c>
+      <c r="G31">
+        <v>1054.9353160000001</v>
+      </c>
+      <c r="H31">
+        <v>805.99106600000005</v>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>281.302054</v>
+      </c>
+      <c r="K31">
+        <v>405.25209999999998</v>
+      </c>
+      <c r="L31">
+        <v>319.80999800000001</v>
+      </c>
+      <c r="M31" t="s">
+        <v>1083</v>
+      </c>
+      <c r="N31" t="s">
+        <v>1084</v>
+      </c>
+      <c r="O31">
+        <v>3.2986309999999999</v>
+      </c>
+      <c r="P31">
+        <v>2.5202179999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" hidden="1">
+      <c r="A32" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B32">
+        <v>8.7959999999999997E-2</v>
+      </c>
+      <c r="C32" s="1">
+        <v>44801</v>
+      </c>
+      <c r="D32">
+        <v>71</v>
+      </c>
+      <c r="E32">
+        <v>1.188E-3</v>
+      </c>
+      <c r="F32">
+        <v>1.115429</v>
+      </c>
+      <c r="G32">
+        <v>68.776967999999997</v>
+      </c>
+      <c r="H32">
+        <v>127.44125699999999</v>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>52.453518000000003</v>
+      </c>
+      <c r="K32">
+        <v>80.794250000000005</v>
+      </c>
+      <c r="L32">
+        <v>59.93</v>
+      </c>
+      <c r="M32" t="s">
+        <v>1083</v>
+      </c>
+      <c r="N32" t="s">
+        <v>1084</v>
+      </c>
+      <c r="O32">
+        <v>1.1476219999999999</v>
+      </c>
+      <c r="P32">
+        <v>2.1265019999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" hidden="1">
+      <c r="A33" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B33">
+        <v>5.9381999999999997E-2</v>
+      </c>
+      <c r="C33" s="1">
+        <v>44780</v>
+      </c>
+      <c r="D33">
+        <v>50</v>
+      </c>
+      <c r="E33">
+        <v>1.1540000000000001E-3</v>
+      </c>
+      <c r="F33">
+        <v>1.11198</v>
+      </c>
+      <c r="G33">
+        <v>1148.847434</v>
+      </c>
+      <c r="H33">
+        <v>1594.2751960000001</v>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>190.81931700000001</v>
+      </c>
+      <c r="K33">
+        <v>302.36965099999998</v>
+      </c>
+      <c r="L33">
+        <v>225.86999499999999</v>
+      </c>
+      <c r="M33" t="s">
+        <v>1083</v>
+      </c>
+      <c r="N33" t="s">
+        <v>1084</v>
+      </c>
+      <c r="O33">
+        <v>5.086322</v>
+      </c>
+      <c r="P33">
+        <v>7.0583749999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B34">
+        <v>7.8259999999999996E-2</v>
+      </c>
+      <c r="C34" s="1">
+        <v>44801</v>
+      </c>
+      <c r="D34">
+        <v>71</v>
+      </c>
+      <c r="E34">
+        <v>1.062E-3</v>
+      </c>
+      <c r="F34">
+        <v>1.10256</v>
+      </c>
+      <c r="G34">
+        <v>15.009608</v>
+      </c>
+      <c r="H34">
+        <v>17.634103</v>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>41.243201999999997</v>
+      </c>
+      <c r="K34">
+        <v>57.873910000000002</v>
+      </c>
+      <c r="L34">
+        <v>45.310001</v>
+      </c>
+      <c r="M34" t="s">
+        <v>1083</v>
+      </c>
+      <c r="N34" t="s">
+        <v>1084</v>
+      </c>
+      <c r="O34">
+        <v>0.33126499999999998</v>
+      </c>
+      <c r="P34">
+        <v>0.38918799999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" hidden="1">
+      <c r="A35" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B35">
+        <v>0.10134799999999999</v>
+      </c>
+      <c r="C35" s="1">
+        <v>44822</v>
+      </c>
+      <c r="D35">
+        <v>92</v>
+      </c>
+      <c r="E35">
+        <v>1.0499999999999999E-3</v>
+      </c>
+      <c r="F35">
+        <v>1.101348</v>
+      </c>
+      <c r="G35">
+        <v>500.50451800000002</v>
+      </c>
+      <c r="H35">
+        <v>547.88296400000002</v>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>143.35548199999999</v>
+      </c>
+      <c r="K35">
+        <v>291.59998200000001</v>
+      </c>
+      <c r="L35">
+        <v>189.199997</v>
+      </c>
+      <c r="M35" t="s">
+        <v>435</v>
+      </c>
+      <c r="N35" t="s">
+        <v>163</v>
+      </c>
+      <c r="O35">
+        <v>2.6453730000000002</v>
+      </c>
+      <c r="P35">
+        <v>2.8957869999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B36">
+        <v>5.7357999999999999E-2</v>
+      </c>
+      <c r="C36" s="1">
+        <v>44787</v>
+      </c>
+      <c r="D36">
+        <v>57</v>
+      </c>
+      <c r="E36">
+        <v>9.7900000000000005E-4</v>
+      </c>
+      <c r="F36">
+        <v>1.0941959999999999</v>
+      </c>
+      <c r="G36">
+        <v>95.349924999999999</v>
+      </c>
+      <c r="H36">
+        <v>81.134208000000001</v>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>167.652907</v>
+      </c>
+      <c r="K36">
+        <v>209.613643</v>
+      </c>
+      <c r="L36">
+        <v>177.05999800000001</v>
+      </c>
+      <c r="M36" t="s">
+        <v>1083</v>
+      </c>
+      <c r="N36" t="s">
+        <v>1084</v>
+      </c>
+      <c r="O36">
+        <v>0.53851800000000005</v>
+      </c>
+      <c r="P36">
+        <v>0.45823000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" hidden="1">
+      <c r="A37" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B37">
+        <v>7.0582000000000006E-2</v>
+      </c>
+      <c r="C37" s="1">
+        <v>44801</v>
+      </c>
+      <c r="D37">
+        <v>71</v>
+      </c>
+      <c r="E37">
+        <v>9.6100000000000005E-4</v>
+      </c>
+      <c r="F37">
+        <v>1.092398</v>
+      </c>
+      <c r="G37">
+        <v>1006.641023</v>
+      </c>
+      <c r="H37">
+        <v>1238.3800060000001</v>
+      </c>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>326.61000899999999</v>
+      </c>
+      <c r="K37">
+        <v>469.72116199999999</v>
+      </c>
+      <c r="L37">
+        <v>365.85998499999999</v>
+      </c>
+      <c r="M37" t="s">
+        <v>1083</v>
+      </c>
+      <c r="N37" t="s">
+        <v>1084</v>
+      </c>
+      <c r="O37">
+        <v>2.7514379999999998</v>
+      </c>
+      <c r="P37">
+        <v>3.3848470000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" hidden="1">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38">
+        <v>6.4172000000000007E-2</v>
+      </c>
+      <c r="C38" s="1">
+        <v>44801</v>
+      </c>
+      <c r="D38">
+        <v>71</v>
+      </c>
+      <c r="E38">
+        <v>8.7600000000000004E-4</v>
+      </c>
+      <c r="F38">
+        <v>1.0839300000000001</v>
+      </c>
+      <c r="G38">
+        <v>91.801786000000007</v>
+      </c>
+      <c r="H38">
+        <v>74.933109999999999</v>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>79.612442000000001</v>
+      </c>
+      <c r="K38">
+        <v>121.73547000000001</v>
+      </c>
+      <c r="L38">
+        <v>92.860000999999997</v>
+      </c>
+      <c r="M38" t="s">
+        <v>1083</v>
+      </c>
+      <c r="N38" t="s">
+        <v>1084</v>
+      </c>
+      <c r="O38">
+        <v>0.98860400000000004</v>
+      </c>
+      <c r="P38">
+        <v>0.80694699999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" hidden="1">
+      <c r="A39" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B39">
+        <v>8.3874000000000004E-2</v>
+      </c>
+      <c r="C39" s="1">
+        <v>44822</v>
+      </c>
+      <c r="D39">
+        <v>92</v>
+      </c>
+      <c r="E39">
+        <v>8.7600000000000004E-4</v>
+      </c>
+      <c r="F39">
+        <v>1.083874</v>
+      </c>
+      <c r="G39">
+        <v>22.590347000000001</v>
+      </c>
+      <c r="H39">
+        <v>17.912448000000001</v>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>17.015739</v>
+      </c>
+      <c r="K39">
+        <v>71.273527000000001</v>
+      </c>
+      <c r="L39">
+        <v>32.130001</v>
+      </c>
+      <c r="M39" t="s">
+        <v>1083</v>
+      </c>
+      <c r="N39" t="s">
+        <v>142</v>
+      </c>
+      <c r="O39">
+        <v>0.70309200000000005</v>
+      </c>
+      <c r="P39">
+        <v>0.55749899999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" hidden="1">
+      <c r="A40" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B40">
+        <v>6.0099E-2</v>
+      </c>
+      <c r="C40" s="1">
+        <v>44801</v>
+      </c>
+      <c r="D40">
+        <v>71</v>
+      </c>
+      <c r="E40">
+        <v>8.2200000000000003E-4</v>
+      </c>
+      <c r="F40">
+        <v>1.078557</v>
+      </c>
+      <c r="G40">
+        <v>93.691193999999996</v>
+      </c>
+      <c r="H40">
+        <v>167.986728</v>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>75.712897999999996</v>
+      </c>
+      <c r="K40">
+        <v>114.090304</v>
+      </c>
+      <c r="L40">
+        <v>87.699996999999996</v>
+      </c>
+      <c r="M40" t="s">
+        <v>1083</v>
+      </c>
+      <c r="N40" t="s">
+        <v>1084</v>
+      </c>
+      <c r="O40">
+        <v>1.0683149999999999</v>
+      </c>
+      <c r="P40">
+        <v>1.91547</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B41">
+        <v>2.7649E-2</v>
+      </c>
+      <c r="C41" s="1">
+        <v>44766</v>
+      </c>
+      <c r="D41">
+        <v>36</v>
+      </c>
+      <c r="E41">
+        <v>7.5799999999999999E-4</v>
+      </c>
+      <c r="F41">
+        <v>1.0721860000000001</v>
+      </c>
+      <c r="G41">
+        <v>3.572171</v>
+      </c>
+      <c r="H41">
+        <v>5.1473240000000002</v>
+      </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>11.536764</v>
+      </c>
+      <c r="K41">
+        <v>28.097909999999999</v>
+      </c>
+      <c r="L41">
+        <v>17.52</v>
+      </c>
+      <c r="M41" t="s">
+        <v>1064</v>
+      </c>
+      <c r="N41" t="s">
+        <v>142</v>
+      </c>
+      <c r="O41">
+        <v>0.20389099999999999</v>
+      </c>
+      <c r="P41">
+        <v>0.29379699999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" hidden="1">
+      <c r="A42" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B42">
+        <v>4.3839999999999997E-2</v>
+      </c>
+      <c r="C42" s="1">
+        <v>44801</v>
+      </c>
+      <c r="D42">
+        <v>71</v>
+      </c>
+      <c r="E42">
+        <v>6.0400000000000004E-4</v>
+      </c>
+      <c r="F42">
+        <v>1.0571710000000001</v>
+      </c>
+      <c r="G42">
+        <v>606.40429500000005</v>
+      </c>
+      <c r="H42">
+        <v>447.67296499999998</v>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>163.52829500000001</v>
+      </c>
+      <c r="K42">
+        <v>314.524021</v>
+      </c>
+      <c r="L42">
+        <v>219.38000500000001</v>
+      </c>
+      <c r="M42" t="s">
+        <v>10</v>
+      </c>
+      <c r="N42" t="s">
+        <v>163</v>
+      </c>
+      <c r="O42">
+        <v>2.764173</v>
+      </c>
+      <c r="P42">
+        <v>2.0406279999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" hidden="1">
+      <c r="A43" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B43">
+        <v>5.1296000000000001E-2</v>
+      </c>
+      <c r="C43" s="1">
+        <v>44822</v>
+      </c>
+      <c r="D43">
+        <v>92</v>
+      </c>
+      <c r="E43">
+        <v>5.44E-4</v>
+      </c>
+      <c r="F43">
+        <v>1.051296</v>
+      </c>
+      <c r="G43">
+        <v>17.700935000000001</v>
+      </c>
+      <c r="H43">
+        <v>14.869460999999999</v>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>15.628512000000001</v>
+      </c>
+      <c r="K43">
+        <v>56.646700000000003</v>
+      </c>
+      <c r="L43">
+        <v>28.5</v>
+      </c>
+      <c r="M43" t="s">
+        <v>1083</v>
+      </c>
+      <c r="N43" t="s">
+        <v>142</v>
+      </c>
+      <c r="O43">
+        <v>0.621085</v>
+      </c>
+      <c r="P43">
+        <v>0.52173499999999995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" hidden="1">
+      <c r="A44" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B44">
+        <v>3.8553999999999998E-2</v>
+      </c>
+      <c r="C44" s="1">
+        <v>44822</v>
+      </c>
+      <c r="D44">
+        <v>92</v>
+      </c>
+      <c r="E44">
+        <v>4.1100000000000002E-4</v>
+      </c>
+      <c r="F44">
+        <v>1.038554</v>
+      </c>
+      <c r="G44">
+        <v>7.190817</v>
+      </c>
+      <c r="H44">
+        <v>7.3084920000000002</v>
+      </c>
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>23.816624999999998</v>
+      </c>
+      <c r="K44">
+        <v>48.426037999999998</v>
+      </c>
+      <c r="L44">
+        <v>33</v>
+      </c>
+      <c r="M44" t="s">
+        <v>112</v>
+      </c>
+      <c r="N44" t="s">
+        <v>163</v>
+      </c>
+      <c r="O44">
+        <v>0.21790399999999999</v>
+      </c>
+      <c r="P44">
+        <v>0.221469</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" hidden="1">
+      <c r="A45" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B45">
+        <v>3.4773999999999999E-2</v>
+      </c>
+      <c r="C45" s="1">
+        <v>44822</v>
+      </c>
+      <c r="D45">
+        <v>92</v>
+      </c>
+      <c r="E45">
+        <v>3.7199999999999999E-4</v>
+      </c>
+      <c r="F45">
+        <v>1.0347740000000001</v>
+      </c>
+      <c r="G45">
+        <v>366.19656600000002</v>
+      </c>
+      <c r="H45">
+        <v>418.16467399999999</v>
+      </c>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>149.018655</v>
+      </c>
+      <c r="K45">
+        <v>311.79599100000001</v>
+      </c>
+      <c r="L45">
+        <v>208.30999800000001</v>
+      </c>
+      <c r="M45" t="s">
+        <v>1100</v>
+      </c>
+      <c r="N45" t="s">
+        <v>163</v>
+      </c>
+      <c r="O45">
+        <v>1.7579400000000001</v>
+      </c>
+      <c r="P45">
+        <v>2.0074149999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" hidden="1">
+      <c r="A46" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B46">
+        <v>1.8481999999999998E-2</v>
+      </c>
+      <c r="C46" s="1">
+        <v>44780</v>
+      </c>
+      <c r="D46">
+        <v>50</v>
+      </c>
+      <c r="E46">
+        <v>3.6600000000000001E-4</v>
+      </c>
+      <c r="F46">
+        <v>1.0342709999999999</v>
+      </c>
+      <c r="G46">
+        <v>7149.5754500000003</v>
+      </c>
+      <c r="H46">
+        <v>9442.7477159999999</v>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>691.80325600000003</v>
+      </c>
+      <c r="K46">
+        <v>1024.272389</v>
+      </c>
+      <c r="L46">
+        <v>830.5</v>
+      </c>
+      <c r="M46" t="s">
+        <v>1103</v>
+      </c>
+      <c r="N46" t="s">
+        <v>163</v>
+      </c>
+      <c r="O46">
+        <v>8.6087600000000002</v>
+      </c>
+      <c r="P46">
+        <v>11.369954999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" hidden="1">
+      <c r="A47" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B47">
+        <v>1.7148E-2</v>
+      </c>
+      <c r="C47" s="1">
+        <v>44780</v>
+      </c>
+      <c r="D47">
+        <v>50</v>
+      </c>
+      <c r="E47">
+        <v>3.4000000000000002E-4</v>
+      </c>
+      <c r="F47">
+        <v>1.0317799999999999</v>
+      </c>
+      <c r="G47">
+        <v>371.312005</v>
+      </c>
+      <c r="H47">
+        <v>518.99865699999998</v>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>157.738957</v>
+      </c>
+      <c r="K47">
+        <v>226.71579</v>
+      </c>
+      <c r="L47">
+        <v>185.91999799999999</v>
+      </c>
+      <c r="M47" t="s">
+        <v>1083</v>
+      </c>
+      <c r="N47" t="s">
+        <v>163</v>
+      </c>
+      <c r="O47">
+        <v>1.99716</v>
+      </c>
+      <c r="P47">
+        <v>2.7915160000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" hidden="1">
+      <c r="A48" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B48">
+        <v>6.391E-3</v>
+      </c>
+      <c r="C48" s="1">
+        <v>44766</v>
+      </c>
+      <c r="D48">
+        <v>36</v>
+      </c>
+      <c r="E48">
+        <v>1.7699999999999999E-4</v>
+      </c>
+      <c r="F48">
+        <v>1.0164150000000001</v>
+      </c>
+      <c r="G48">
+        <v>15.809879</v>
+      </c>
+      <c r="H48">
+        <v>6.8291649999999997</v>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>30.447818999999999</v>
+      </c>
+      <c r="K48">
+        <v>53.622712999999997</v>
+      </c>
+      <c r="L48">
+        <v>40.150002000000001</v>
+      </c>
+      <c r="M48" t="s">
+        <v>1100</v>
+      </c>
+      <c r="N48" t="s">
+        <v>163</v>
+      </c>
+      <c r="O48">
+        <v>0.39377000000000001</v>
+      </c>
+      <c r="P48">
+        <v>0.17009099999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" hidden="1">
+      <c r="A49" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B49">
+        <v>4.2009999999999999E-3</v>
+      </c>
+      <c r="C49" s="1">
+        <v>44766</v>
+      </c>
+      <c r="D49">
+        <v>36</v>
+      </c>
+      <c r="E49">
+        <v>1.16E-4</v>
+      </c>
+      <c r="F49">
+        <v>1.0107710000000001</v>
+      </c>
+      <c r="G49">
+        <v>16.151105000000001</v>
+      </c>
+      <c r="H49">
+        <v>12.834042</v>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>26.304724</v>
+      </c>
+      <c r="K49">
+        <v>49.518071999999997</v>
+      </c>
+      <c r="L49">
+        <v>35.939999</v>
+      </c>
+      <c r="M49" t="s">
+        <v>1083</v>
+      </c>
+      <c r="N49" t="s">
+        <v>142</v>
+      </c>
+      <c r="O49">
+        <v>0.44939099999999998</v>
+      </c>
+      <c r="P49">
+        <v>0.35709600000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" hidden="1">
+      <c r="A50" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B50">
+        <v>4.3870000000000003E-3</v>
+      </c>
+      <c r="C50" s="1">
+        <v>44822</v>
+      </c>
+      <c r="D50">
+        <v>92</v>
+      </c>
+      <c r="E50">
+        <v>4.8000000000000001E-5</v>
+      </c>
+      <c r="F50">
+        <v>1.0043869999999999</v>
+      </c>
+      <c r="G50">
+        <v>15.172165</v>
+      </c>
+      <c r="H50">
+        <v>10.242652</v>
+      </c>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>46.416153999999999</v>
+      </c>
+      <c r="K50">
+        <v>89.662155999999996</v>
+      </c>
+      <c r="L50">
+        <v>64.230002999999996</v>
+      </c>
+      <c r="M50" t="s">
+        <v>1118</v>
+      </c>
+      <c r="N50" t="s">
+        <v>163</v>
+      </c>
+      <c r="O50">
+        <v>0.23621600000000001</v>
+      </c>
+      <c r="P50">
+        <v>0.159468</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" hidden="1">
+      <c r="A51" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B51">
+        <v>-6.4599999999999998E-4</v>
+      </c>
+      <c r="C51" s="1">
+        <v>44822</v>
+      </c>
+      <c r="D51">
+        <v>92</v>
+      </c>
+      <c r="E51">
+        <v>-6.9999999999999999E-6</v>
+      </c>
+      <c r="F51">
+        <v>0.99935399999999996</v>
+      </c>
+      <c r="G51">
+        <v>57.005994999999999</v>
+      </c>
+      <c r="H51">
+        <v>35.303294000000001</v>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>71.689126000000002</v>
+      </c>
+      <c r="K51">
+        <v>125.17296399999999</v>
+      </c>
+      <c r="L51">
+        <v>94.790001000000004</v>
+      </c>
+      <c r="M51" t="s">
+        <v>435</v>
+      </c>
+      <c r="N51" t="s">
+        <v>142</v>
+      </c>
+      <c r="O51">
+        <v>0.60139200000000004</v>
+      </c>
+      <c r="P51">
+        <v>0.37243700000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" hidden="1">
+      <c r="A52" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B52">
+        <v>-1.3757999999999999E-2</v>
+      </c>
+      <c r="C52" s="1">
+        <v>44822</v>
+      </c>
+      <c r="D52">
+        <v>92</v>
+      </c>
+      <c r="E52">
+        <v>-1.5100000000000001E-4</v>
+      </c>
+      <c r="F52">
+        <v>0.98624199999999995</v>
+      </c>
+      <c r="G52">
+        <v>12.011302000000001</v>
+      </c>
+      <c r="H52">
+        <v>8.9369940000000003</v>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>24.579492999999999</v>
+      </c>
+      <c r="K52">
+        <v>46.285628000000003</v>
+      </c>
+      <c r="L52">
+        <v>34.200001</v>
+      </c>
+      <c r="M52" t="s">
+        <v>1083</v>
+      </c>
+      <c r="N52" t="s">
+        <v>142</v>
+      </c>
+      <c r="O52">
+        <v>0.35120800000000002</v>
+      </c>
+      <c r="P52">
+        <v>0.26131599999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" hidden="1">
+      <c r="A53" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B53">
+        <v>-3.8311999999999999E-2</v>
+      </c>
+      <c r="C53" s="1">
+        <v>44822</v>
+      </c>
+      <c r="D53">
+        <v>92</v>
+      </c>
+      <c r="E53">
+        <v>-4.2499999999999998E-4</v>
+      </c>
+      <c r="F53">
+        <v>0.96168799999999999</v>
+      </c>
+      <c r="G53">
+        <v>68.882926999999995</v>
+      </c>
+      <c r="H53">
+        <v>42.057563999999999</v>
+      </c>
+      <c r="I53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>63.653028999999997</v>
+      </c>
+      <c r="K53">
+        <v>130.74226400000001</v>
+      </c>
+      <c r="L53">
+        <v>94.860000999999997</v>
+      </c>
+      <c r="M53" t="s">
+        <v>1083</v>
+      </c>
+      <c r="N53" t="s">
+        <v>142</v>
+      </c>
+      <c r="O53">
+        <v>0.72615399999999997</v>
+      </c>
+      <c r="P53">
+        <v>0.44336500000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" hidden="1">
+      <c r="A54" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B54">
+        <v>-9.7000000000000003E-3</v>
+      </c>
+      <c r="C54" s="1">
+        <v>44731</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>-9.7000000000000003E-3</v>
+      </c>
+      <c r="F54">
+        <v>0.40787499999999999</v>
+      </c>
+      <c r="G54">
+        <v>1005.131513</v>
+      </c>
+      <c r="H54">
+        <v>1408.588072</v>
+      </c>
+      <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>230.227904</v>
+      </c>
+      <c r="K54">
+        <v>286.581547</v>
+      </c>
+      <c r="L54">
+        <v>259.38000499999998</v>
+      </c>
+      <c r="M54" t="s">
+        <v>1083</v>
+      </c>
+      <c r="N54" t="s">
+        <v>142</v>
+      </c>
+      <c r="O54">
+        <v>3.8751310000000001</v>
+      </c>
+      <c r="P54">
+        <v>5.4305960000000004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" hidden="1">
+      <c r="A55" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B55">
+        <v>-1.9630000000000002E-2</v>
+      </c>
+      <c r="C55" s="1">
+        <v>44731</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>-1.9630000000000002E-2</v>
+      </c>
+      <c r="F55">
+        <v>0.16139000000000001</v>
+      </c>
+      <c r="G55">
+        <v>112.092179</v>
+      </c>
+      <c r="H55">
+        <v>131.88358199999999</v>
+      </c>
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>82.170079000000001</v>
+      </c>
+      <c r="K55">
+        <v>100.386304</v>
+      </c>
+      <c r="L55">
+        <v>93.139999000000003</v>
+      </c>
+      <c r="M55" t="s">
+        <v>1083</v>
+      </c>
+      <c r="N55" t="s">
+        <v>142</v>
+      </c>
+      <c r="O55">
+        <v>1.203481</v>
+      </c>
+      <c r="P55">
+        <v>1.4159710000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E46E0E7-6B90-4635-B292-87C906C08F6F}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -11581,7 +14946,7 @@
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="30" t="s">
         <v>1065</v>
       </c>
       <c r="B4" s="27">
@@ -11631,7 +14996,7 @@
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="29" t="s">
         <v>491</v>
       </c>
       <c r="B5" s="27">
@@ -11681,7 +15046,7 @@
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="29" t="s">
         <v>164</v>
       </c>
       <c r="B6" s="27">
@@ -11936,7 +15301,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858891D0-A5D6-49F6-94D4-1253038FB695}">
   <dimension ref="A1:I58"/>
   <sheetViews>
@@ -12179,10 +15544,10 @@
       <c r="A34" s="10"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="29"/>
+      <c r="B35" s="32"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="6"/>
@@ -12239,10 +15604,10 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="B44" s="29"/>
+      <c r="B44" s="32"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="6"/>
@@ -12327,7 +15692,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1BEC48-BA38-49C6-8901-FCBFBE555549}">
   <dimension ref="A1:I222"/>
   <sheetViews>
@@ -12570,10 +15935,10 @@
       <c r="A34" s="10"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="29"/>
+      <c r="B35" s="32"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="6"/>
@@ -12630,10 +15995,10 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="B44" s="29"/>
+      <c r="B44" s="32"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="6"/>
@@ -13530,7 +16895,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B52D9B-3AC3-4FC5-97B8-6C88D90F922F}">
   <dimension ref="A1:I87"/>
   <sheetViews>
@@ -13773,10 +17138,10 @@
       <c r="A34" s="10"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="29"/>
+      <c r="B35" s="32"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="6"/>
@@ -13833,10 +17198,10 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="B44" s="29"/>
+      <c r="B44" s="32"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="6"/>
@@ -14066,7 +17431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19049A1A-773C-4DCB-908E-20756055692F}">
   <dimension ref="A1:I115"/>
   <sheetViews>
@@ -14449,10 +17814,10 @@
       <c r="A62" s="10"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="28" t="s">
+      <c r="A63" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="B63" s="29"/>
+      <c r="B63" s="32"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="6"/>
@@ -14509,10 +17874,10 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="28" t="s">
+      <c r="A72" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="B72" s="29"/>
+      <c r="B72" s="32"/>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="6"/>
@@ -14742,7 +18107,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C294A919-E860-4D15-AE54-7B9946DB3B4E}">
   <dimension ref="A1:I211"/>
   <sheetViews>
@@ -14972,10 +18337,10 @@
       <c r="A31" s="10"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="29"/>
+      <c r="B32" s="32"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="6"/>
@@ -15032,10 +18397,10 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="B41" s="29"/>
+      <c r="B41" s="32"/>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="6"/>
@@ -15892,7 +19257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7CA36F0-B42F-457B-BB60-FF2C12DA825A}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I218"/>
@@ -16123,10 +19488,10 @@
       <c r="A31" s="22"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="29"/>
+      <c r="B32" s="32"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="12"/>
@@ -16183,10 +19548,10 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="B41" s="29"/>
+      <c r="B41" s="32"/>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="12"/>
@@ -17102,540 +20467,4 @@
     </mc:AlternateContent>
   </controls>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42ECBE6-1D33-4024-AD6C-AEDC47AC058A}">
-  <dimension ref="A1:I87"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I87"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="3" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="3" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="3" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="3" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="3" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="3" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="3" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="3" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="2"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="3" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="2"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="3" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="3" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="24">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="7">
-        <v>44722</v>
-      </c>
-      <c r="B30" s="8">
-        <v>100.459999</v>
-      </c>
-      <c r="C30" s="8">
-        <v>85.804488000000006</v>
-      </c>
-      <c r="D30" s="8">
-        <v>95.616984000000002</v>
-      </c>
-      <c r="E30" s="8">
-        <v>105.42948</v>
-      </c>
-      <c r="F30" s="8">
-        <v>88.303809000000001</v>
-      </c>
-      <c r="G30" s="8">
-        <v>6.5858280000000002</v>
-      </c>
-      <c r="H30" s="8">
-        <v>75.132152000000005</v>
-      </c>
-      <c r="I30" s="8">
-        <v>101.475466</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="10"/>
-    </row>
-    <row r="32" spans="1:9" ht="24">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="B33" s="8">
-        <v>1.434399</v>
-      </c>
-      <c r="C33" s="8">
-        <v>100.459999</v>
-      </c>
-      <c r="D33" s="8">
-        <v>399482859.53101403</v>
-      </c>
-      <c r="E33" s="8">
-        <v>0.93137300000000001</v>
-      </c>
-      <c r="F33" s="8">
-        <v>0.97785200000000005</v>
-      </c>
-      <c r="G33" s="8">
-        <v>0.53667100000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="10"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="B35" s="29"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="24">
-      <c r="A38" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="24">
-      <c r="A39" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="24">
-      <c r="A41" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="9"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="B44" s="29"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" ht="16.5">
-      <c r="A49" s="4"/>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="3" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="3" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="3" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="3" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="3" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="3" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" ht="16.5">
-      <c r="A57" s="4"/>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="3" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="3" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="3" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="3" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="3" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="3" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="3" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="3" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="3" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="3" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="3" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="3" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="3" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="3" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="3" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="3" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="3" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="3" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="3" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="3" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="3" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="3" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="3" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="3" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="3" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="3" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="3" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="3" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="3" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="3" t="s">
-        <v>489</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A44:B44"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/code/Screener/record.xlsx
+++ b/code/Screener/record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\wiki\wiki\dev\python\Python-Stock\code\Screener\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D51336-BEC4-49F3-B6ED-E05DD65B65C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CCBBB0-6A95-4BA7-A98E-8B93B69BC0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" activeTab="1" xr2:uid="{785F8A36-E86A-4BD6-94E8-FC2E8B05B64B}"/>
+    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{785F8A36-E86A-4BD6-94E8-FC2E8B05B64B}"/>
   </bookViews>
   <sheets>
     <sheet name="Record book" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="1123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="1124">
   <si>
     <t>EXC</t>
   </si>
@@ -3441,6 +3441,9 @@
   </si>
   <si>
     <t>MGPI</t>
+  </si>
+  <si>
+    <t>Stop Loss</t>
   </si>
 </sst>
 </file>
@@ -3547,7 +3550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3621,6 +3624,8 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3669,7 +3674,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3730,7 +3735,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3796,7 +3801,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3857,7 +3862,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3923,7 +3928,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3984,7 +3989,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4045,7 +4050,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4111,7 +4116,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4172,7 +4177,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4238,7 +4243,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4299,7 +4304,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4346,133 +4351,6 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="9715500"/>
-          <a:ext cx="4819650" cy="3800475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="11258550"/>
-          <a:ext cx="4572000" cy="3676650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4544,6 +4422,133 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11258550"/>
+          <a:ext cx="4572000" cy="3676650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9715500"/>
+          <a:ext cx="4819650" cy="3800475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
       <xdr:row>75</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -4553,7 +4558,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4619,7 +4624,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4680,7 +4685,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4746,7 +4751,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4807,7 +4812,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4873,7 +4878,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4934,7 +4939,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5000,7 +5005,7 @@
                   <a14:compatExt spid="_x0000_s10243"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003280000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5050,7 +5055,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5111,7 +5116,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5177,7 +5182,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5238,7 +5243,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5304,7 +5309,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5365,7 +5370,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5708,10 +5713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42EC1B12-8D19-48E1-AE18-CC4CE60CD15C}">
-  <dimension ref="B9:R57"/>
+  <dimension ref="A9:R60"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5723,7 +5728,7 @@
     <col min="14" max="14" width="9.7109375" style="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="2:18">
+    <row r="9" spans="1:18">
       <c r="G9" t="s">
         <v>1062</v>
       </c>
@@ -5734,13 +5739,16 @@
       </c>
       <c r="M9" s="1">
         <f ca="1">TODAY()</f>
-        <v>44730</v>
+        <v>44734</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="10" spans="2:18" ht="77.25">
+    <row r="10" spans="1:18" ht="77.25">
+      <c r="A10" t="s">
+        <v>1123</v>
+      </c>
       <c r="K10" t="s">
         <v>11</v>
       </c>
@@ -5761,7 +5769,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="11" spans="2:18">
+    <row r="11" spans="1:18">
       <c r="B11" s="1">
         <v>44714</v>
       </c>
@@ -5799,14 +5807,14 @@
       </c>
       <c r="Q11" s="16">
         <f>AVERAGE(Q26:Q60)</f>
-        <v>2.4151005043421565E-3</v>
+        <v>2.3281516042127394E-3</v>
       </c>
       <c r="R11" s="16">
         <f>(1+Q11)^92</f>
-        <v>1.2484732102101657</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18">
+        <v>1.2385495789168448</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="B12" s="1">
         <v>44714</v>
       </c>
@@ -5839,7 +5847,7 @@
         <v>-5097.28</v>
       </c>
     </row>
-    <row r="13" spans="2:18">
+    <row r="13" spans="1:18">
       <c r="B13" s="1">
         <v>44717</v>
       </c>
@@ -5871,7 +5879,7 @@
         <v>4922.5199999999995</v>
       </c>
     </row>
-    <row r="14" spans="2:18">
+    <row r="14" spans="1:18">
       <c r="B14" s="1">
         <v>44717</v>
       </c>
@@ -5903,7 +5911,7 @@
         <v>5012.32</v>
       </c>
     </row>
-    <row r="15" spans="2:18">
+    <row r="15" spans="1:18">
       <c r="B15" s="1">
         <v>44719</v>
       </c>
@@ -5935,7 +5943,7 @@
         <v>-1068.18</v>
       </c>
     </row>
-    <row r="16" spans="2:18">
+    <row r="16" spans="1:18">
       <c r="B16" s="1">
         <v>44719</v>
       </c>
@@ -6230,7 +6238,7 @@
       </c>
       <c r="N24" s="28">
         <f ca="1">$M$9-M24</f>
-        <v>-33</v>
+        <v>-29</v>
       </c>
     </row>
     <row r="25" spans="2:18">
@@ -6272,7 +6280,7 @@
       </c>
       <c r="N25" s="28">
         <f ca="1">$M$9-M25</f>
-        <v>-19</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="26" spans="2:18">
@@ -6317,7 +6325,7 @@
       </c>
       <c r="N26" s="28">
         <f t="shared" ref="N26:N51" ca="1" si="5">$M$9-M26</f>
-        <v>-78</v>
+        <v>-74</v>
       </c>
       <c r="O26">
         <v>0.1</v>
@@ -6377,7 +6385,7 @@
       </c>
       <c r="N27" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-36</v>
+        <v>-32</v>
       </c>
     </row>
     <row r="28" spans="2:18">
@@ -6422,7 +6430,7 @@
       </c>
       <c r="N28" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-36</v>
+        <v>-32</v>
       </c>
     </row>
     <row r="29" spans="2:18">
@@ -6467,13 +6475,13 @@
       </c>
       <c r="N29" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-85</v>
+        <v>-81</v>
       </c>
       <c r="O29">
         <v>0.41</v>
       </c>
       <c r="P29" s="16">
-        <f t="shared" ref="P29:P57" si="10">M29-B29</f>
+        <f t="shared" ref="P29:P58" si="10">M29-B29</f>
         <v>91</v>
       </c>
       <c r="Q29" s="16">
@@ -6527,7 +6535,7 @@
       </c>
       <c r="N30" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-57</v>
+        <v>-53</v>
       </c>
       <c r="O30">
         <v>0.13400000000000001</v>
@@ -6587,7 +6595,7 @@
       </c>
       <c r="N31" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-71</v>
+        <v>-67</v>
       </c>
       <c r="O31">
         <v>0.17</v>
@@ -6647,7 +6655,7 @@
       </c>
       <c r="N32" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-71</v>
+        <v>-67</v>
       </c>
       <c r="O32">
         <v>0.12</v>
@@ -6707,7 +6715,7 @@
       </c>
       <c r="N33" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-71</v>
+        <v>-67</v>
       </c>
       <c r="O33">
         <v>0.13200000000000001</v>
@@ -6767,7 +6775,7 @@
       </c>
       <c r="N34" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-36</v>
+        <v>-32</v>
       </c>
       <c r="O34">
         <v>9.9000000000000005E-2</v>
@@ -6827,7 +6835,7 @@
       </c>
       <c r="N35" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-85</v>
+        <v>-81</v>
       </c>
       <c r="O35">
         <v>0.12</v>
@@ -6887,7 +6895,7 @@
       </c>
       <c r="N36" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-85</v>
+        <v>-81</v>
       </c>
       <c r="O36">
         <v>0.14000000000000001</v>
@@ -6947,7 +6955,7 @@
       </c>
       <c r="N37" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-85</v>
+        <v>-81</v>
       </c>
       <c r="O37">
         <v>0.35</v>
@@ -7007,7 +7015,7 @@
       </c>
       <c r="N38" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-85</v>
+        <v>-81</v>
       </c>
       <c r="O38" s="18">
         <v>0.28000000000000003</v>
@@ -7067,7 +7075,7 @@
       </c>
       <c r="N39" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-15</v>
+        <v>-11</v>
       </c>
       <c r="O39">
         <v>0.11</v>
@@ -7127,7 +7135,7 @@
       </c>
       <c r="N40" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-85</v>
+        <v>-81</v>
       </c>
       <c r="O40" s="18">
         <v>0.11</v>
@@ -7187,7 +7195,7 @@
       </c>
       <c r="N41" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-85</v>
+        <v>-81</v>
       </c>
       <c r="O41">
         <v>9.6000000000000002E-2</v>
@@ -7247,7 +7255,7 @@
       </c>
       <c r="N42" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-85</v>
+        <v>-81</v>
       </c>
       <c r="O42">
         <v>0.22</v>
@@ -7307,7 +7315,7 @@
       </c>
       <c r="N43" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-85</v>
+        <v>-81</v>
       </c>
       <c r="O43">
         <v>0.73</v>
@@ -7367,7 +7375,7 @@
       </c>
       <c r="N44" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-85</v>
+        <v>-81</v>
       </c>
       <c r="O44" s="18">
         <v>0.26500000000000001</v>
@@ -7427,7 +7435,7 @@
       </c>
       <c r="N45" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-85</v>
+        <v>-81</v>
       </c>
       <c r="O45">
         <v>0.13</v>
@@ -7487,7 +7495,7 @@
       </c>
       <c r="N46" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-85</v>
+        <v>-81</v>
       </c>
       <c r="O46">
         <v>0.16</v>
@@ -7547,7 +7555,7 @@
       </c>
       <c r="N47" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-85</v>
+        <v>-81</v>
       </c>
       <c r="O47" s="18">
         <v>0.09</v>
@@ -7607,7 +7615,7 @@
       </c>
       <c r="N48" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-85</v>
+        <v>-81</v>
       </c>
       <c r="O48" s="18">
         <v>0.3</v>
@@ -7625,7 +7633,7 @@
         <v>1.3037534691790746</v>
       </c>
     </row>
-    <row r="49" spans="2:18">
+    <row r="49" spans="1:18">
       <c r="B49" s="1">
         <v>44724</v>
       </c>
@@ -7667,7 +7675,7 @@
       </c>
       <c r="N49" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-71</v>
+        <v>-67</v>
       </c>
       <c r="O49">
         <v>0.12</v>
@@ -7685,7 +7693,7 @@
         <v>1.1450012193329568</v>
       </c>
     </row>
-    <row r="50" spans="2:18">
+    <row r="50" spans="1:18">
       <c r="B50" s="1">
         <v>44724</v>
       </c>
@@ -7727,7 +7735,7 @@
       </c>
       <c r="N50" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-50</v>
+        <v>-46</v>
       </c>
       <c r="O50">
         <v>9.4899999999999998E-2</v>
@@ -7745,7 +7753,7 @@
         <v>1.1606107956028482</v>
       </c>
     </row>
-    <row r="51" spans="2:18">
+    <row r="51" spans="1:18">
       <c r="B51" s="1">
         <v>44724</v>
       </c>
@@ -7766,7 +7774,7 @@
         <v>155.49</v>
       </c>
       <c r="H51" s="18">
-        <f t="shared" ref="H51:H57" si="18">G51*E51</f>
+        <f t="shared" ref="H51:H58" si="18">G51*E51</f>
         <v>1088.43</v>
       </c>
       <c r="I51" s="19">
@@ -7787,7 +7795,7 @@
       </c>
       <c r="N51" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-85</v>
+        <v>-81</v>
       </c>
       <c r="O51">
         <v>0.14000000000000001</v>
@@ -7805,7 +7813,7 @@
         <v>1.1416426352652658</v>
       </c>
     </row>
-    <row r="52" spans="2:18">
+    <row r="52" spans="1:18">
       <c r="B52" s="1">
         <v>44729</v>
       </c>
@@ -7820,7 +7828,7 @@
       </c>
       <c r="F52" s="27" cm="1">
         <f t="array" ref="F52">SUMPRODUCT(($C$11:$C$100=C52)*($E$11:$E$100))</f>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G52">
         <v>17.97</v>
@@ -7847,7 +7855,7 @@
       </c>
       <c r="N52" s="28">
         <f t="shared" ref="N52" ca="1" si="21">$M$9-M52</f>
-        <v>-22</v>
+        <v>-18</v>
       </c>
       <c r="O52" s="27">
         <v>0.16561899999999999</v>
@@ -7865,7 +7873,7 @@
         <v>1.8459777917460405</v>
       </c>
     </row>
-    <row r="53" spans="2:18">
+    <row r="53" spans="1:18">
       <c r="B53" s="1">
         <v>44729</v>
       </c>
@@ -7907,7 +7915,7 @@
       </c>
       <c r="N53" s="28">
         <f t="shared" ref="N53" ca="1" si="25">$M$9-M53</f>
-        <v>-92</v>
+        <v>-88</v>
       </c>
       <c r="O53" s="27">
         <v>0.44709700000000002</v>
@@ -7925,7 +7933,7 @@
         <v>1.4413579971829127</v>
       </c>
     </row>
-    <row r="54" spans="2:18">
+    <row r="54" spans="1:18">
       <c r="B54" s="1">
         <v>44729</v>
       </c>
@@ -7966,8 +7974,8 @@
         <v>44794</v>
       </c>
       <c r="N54" s="28">
-        <f t="shared" ref="N54:N57" ca="1" si="29">$M$9-M54</f>
-        <v>-64</v>
+        <f t="shared" ref="N54:N58" ca="1" si="29">$M$9-M54</f>
+        <v>-60</v>
       </c>
       <c r="O54" s="27">
         <v>0.44709700000000002</v>
@@ -7985,7 +7993,7 @@
         <v>1.6871973902345887</v>
       </c>
     </row>
-    <row r="55" spans="2:18">
+    <row r="55" spans="1:18">
       <c r="B55" s="1">
         <v>44729</v>
       </c>
@@ -8027,7 +8035,7 @@
       </c>
       <c r="N55" s="28">
         <f t="shared" ca="1" si="29"/>
-        <v>-50</v>
+        <v>-46</v>
       </c>
       <c r="O55" s="27">
         <v>7.9225000000000004E-2</v>
@@ -8045,7 +8053,7 @@
         <v>1.1474438584033493</v>
       </c>
     </row>
-    <row r="56" spans="2:18">
+    <row r="56" spans="1:18">
       <c r="B56" s="1">
         <v>44729</v>
       </c>
@@ -8087,7 +8095,7 @@
       </c>
       <c r="N56" s="28">
         <f t="shared" ca="1" si="29"/>
-        <v>-36</v>
+        <v>-32</v>
       </c>
       <c r="O56" s="27">
         <v>4.7683999999999997E-2</v>
@@ -8105,7 +8113,7 @@
         <v>1.122799979907529</v>
       </c>
     </row>
-    <row r="57" spans="2:18">
+    <row r="57" spans="1:18">
       <c r="B57" s="1">
         <v>44729</v>
       </c>
@@ -8147,7 +8155,7 @@
       </c>
       <c r="N57" s="28">
         <f t="shared" ca="1" si="29"/>
-        <v>-29</v>
+        <v>-25</v>
       </c>
       <c r="O57" s="27">
         <v>3.1424000000000001E-2</v>
@@ -8157,17 +8165,202 @@
         <v>30</v>
       </c>
       <c r="Q57" s="27">
-        <f t="shared" ref="Q57" si="39">(1+O57)^(1/P57)-1</f>
+        <f t="shared" ref="Q57:Q58" si="39">(1+O57)^(1/P57)-1</f>
         <v>1.0318777434383808E-3</v>
       </c>
       <c r="R57" s="27">
-        <f t="shared" ref="R57" si="40">(1+Q57)^92</f>
+        <f t="shared" ref="R57:R58" si="40">(1+Q57)^92</f>
         <v>1.0995310894115367</v>
       </c>
     </row>
+    <row r="58" spans="1:18">
+      <c r="B58" s="1">
+        <v>44730</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D58" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>60</v>
+      </c>
+      <c r="F58" s="19" cm="1">
+        <f t="array" ref="F58">SUMPRODUCT(($C$11:$C$100=C58)*($E$11:$E$100))</f>
+        <v>120</v>
+      </c>
+      <c r="G58">
+        <v>17.97</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="18"/>
+        <v>1078.1999999999998</v>
+      </c>
+      <c r="I58" s="32">
+        <v>-1</v>
+      </c>
+      <c r="J58" s="32">
+        <f t="shared" ref="J58" si="41">I58*H58</f>
+        <v>-1078.1999999999998</v>
+      </c>
+      <c r="K58" t="s">
+        <v>1064</v>
+      </c>
+      <c r="L58" t="s">
+        <v>142</v>
+      </c>
+      <c r="M58" s="1">
+        <v>44766</v>
+      </c>
+      <c r="N58" s="28">
+        <f t="shared" ca="1" si="29"/>
+        <v>-32</v>
+      </c>
+      <c r="O58" s="32">
+        <v>2.7649E-2</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="10"/>
+        <v>36</v>
+      </c>
+      <c r="Q58" s="32">
+        <f t="shared" ref="Q58" si="42">(1+O58)^(1/P58)-1</f>
+        <v>7.5788897060924398E-4</v>
+      </c>
+      <c r="R58" s="32">
+        <f t="shared" ref="R58" si="43">(1+Q58)^92</f>
+        <v>1.0721858084819609</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
+      <c r="A59">
+        <v>202</v>
+      </c>
+      <c r="B59" s="1">
+        <v>44734</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>5</v>
+      </c>
+      <c r="F59" s="19" cm="1">
+        <f t="array" ref="F59">SUMPRODUCT(($C$11:$C$100=C59)*($E$11:$E$100))</f>
+        <v>5</v>
+      </c>
+      <c r="G59">
+        <v>208.52</v>
+      </c>
+      <c r="H59">
+        <f>G59*E59</f>
+        <v>1042.6000000000001</v>
+      </c>
+      <c r="I59" s="31">
+        <v>-1</v>
+      </c>
+      <c r="J59" s="31">
+        <f t="shared" ref="J59" si="44">I59*H59</f>
+        <v>-1042.6000000000001</v>
+      </c>
+      <c r="K59" t="s">
+        <v>1100</v>
+      </c>
+      <c r="M59" s="1">
+        <v>44782</v>
+      </c>
+      <c r="N59" s="28">
+        <f ca="1">$M$9-M59</f>
+        <v>-48</v>
+      </c>
+      <c r="O59">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="P59">
+        <f>M59-B59</f>
+        <v>48</v>
+      </c>
+      <c r="Q59">
+        <f>(1+O59)^(1/P59)-1</f>
+        <v>1.3519750186554713E-3</v>
+      </c>
+      <c r="R59">
+        <f>(1+Q59)^92</f>
+        <v>1.1323529188332864</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
+      <c r="A60">
+        <v>37</v>
+      </c>
+      <c r="B60" s="1">
+        <v>44734</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D60" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>25</v>
+      </c>
+      <c r="F60" s="19" cm="1">
+        <f t="array" ref="F60">SUMPRODUCT(($C$11:$C$100=C60)*($E$11:$E$100))</f>
+        <v>25</v>
+      </c>
+      <c r="G60">
+        <v>40.15</v>
+      </c>
+      <c r="H60">
+        <f>G60*E60</f>
+        <v>1003.75</v>
+      </c>
+      <c r="I60" s="32">
+        <v>-1</v>
+      </c>
+      <c r="J60" s="32">
+        <f t="shared" ref="J60" si="45">I60*H60</f>
+        <v>-1003.75</v>
+      </c>
+      <c r="K60" s="32" t="s">
+        <v>1100</v>
+      </c>
+      <c r="M60" s="1">
+        <v>44768</v>
+      </c>
+      <c r="N60" s="28">
+        <f ca="1">$M$9-M60</f>
+        <v>-34</v>
+      </c>
+      <c r="O60">
+        <v>0.08</v>
+      </c>
+      <c r="P60">
+        <f>M60-B60</f>
+        <v>34</v>
+      </c>
+      <c r="Q60">
+        <f>(1+O60)^(1/P60)-1</f>
+        <v>2.2661238194909838E-3</v>
+      </c>
+      <c r="R60">
+        <f>(1+Q60)^92</f>
+        <v>1.2315179609375255</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="Q26:Q57">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="N24:N60">
+    <cfRule type="expression" priority="1">
+      <formula>"&gt;=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q26:Q60">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8176,11 +8369,6 @@
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N24:N57">
-    <cfRule type="expression" priority="1">
-      <formula>"&gt;=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8431,10 +8619,10 @@
       <c r="A34" s="10"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="32"/>
+      <c r="B35" s="34"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="6"/>
@@ -8491,10 +8679,10 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="B44" s="32"/>
+      <c r="B44" s="34"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="6"/>
@@ -8980,10 +9168,10 @@
       <c r="A37" s="10"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="B38" s="32"/>
+      <c r="B38" s="34"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="6"/>
@@ -9040,10 +9228,10 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="31" t="s">
+      <c r="A47" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="32"/>
+      <c r="B47" s="34"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="6"/>
@@ -10426,10 +10614,10 @@
       <c r="A37" s="10"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="B38" s="32"/>
+      <c r="B38" s="34"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="6"/>
@@ -10486,10 +10674,10 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="31" t="s">
+      <c r="A47" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="32"/>
+      <c r="B47" s="34"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="6"/>
@@ -10812,10 +11000,10 @@
       <c r="A34" s="10"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="32"/>
+      <c r="B35" s="34"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="6"/>
@@ -10872,10 +11060,10 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="B44" s="32"/>
+      <c r="B44" s="34"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="6"/>
@@ -11372,10 +11560,10 @@
       <c r="A14" s="10"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="32"/>
+      <c r="B15" s="34"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="6"/>
@@ -11432,10 +11620,10 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="B24" s="32"/>
+      <c r="B24" s="34"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="6"/>
@@ -11750,10 +11938,10 @@
       <c r="A31" s="10"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="32"/>
+      <c r="B32" s="34"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="6"/>
@@ -11810,10 +11998,10 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="B41" s="32"/>
+      <c r="B41" s="34"/>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="6"/>
@@ -12098,8 +12286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5B5641-1C14-45B9-9884-6F6125221349}">
   <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15544,10 +15732,10 @@
       <c r="A34" s="10"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="32"/>
+      <c r="B35" s="34"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="6"/>
@@ -15604,10 +15792,10 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="B44" s="32"/>
+      <c r="B44" s="34"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="6"/>
@@ -15935,10 +16123,10 @@
       <c r="A34" s="10"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="32"/>
+      <c r="B35" s="34"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="6"/>
@@ -15995,10 +16183,10 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="B44" s="32"/>
+      <c r="B44" s="34"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="6"/>
@@ -17138,10 +17326,10 @@
       <c r="A34" s="10"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="32"/>
+      <c r="B35" s="34"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="6"/>
@@ -17198,10 +17386,10 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="B44" s="32"/>
+      <c r="B44" s="34"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="6"/>
@@ -17814,10 +18002,10 @@
       <c r="A62" s="10"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="31" t="s">
+      <c r="A63" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="B63" s="32"/>
+      <c r="B63" s="34"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="6"/>
@@ -17874,10 +18062,10 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="31" t="s">
+      <c r="A72" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="B72" s="32"/>
+      <c r="B72" s="34"/>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="6"/>
@@ -18337,10 +18525,10 @@
       <c r="A31" s="10"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="32"/>
+      <c r="B32" s="34"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="6"/>
@@ -18397,10 +18585,10 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="B41" s="32"/>
+      <c r="B41" s="34"/>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="6"/>
@@ -19488,10 +19676,10 @@
       <c r="A31" s="22"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="32"/>
+      <c r="B32" s="34"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="12"/>
@@ -19548,10 +19736,10 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="33" t="s">
+      <c r="A41" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="B41" s="32"/>
+      <c r="B41" s="34"/>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="12"/>

--- a/code/Screener/record.xlsx
+++ b/code/Screener/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\wiki\wiki\dev\python\Python-Stock\code\Screener\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CCBBB0-6A95-4BA7-A98E-8B93B69BC0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12465F05-F3E4-481F-8410-D7D91440630A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{785F8A36-E86A-4BD6-94E8-FC2E8B05B64B}"/>
   </bookViews>
@@ -5715,8 +5715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42EC1B12-8D19-48E1-AE18-CC4CE60CD15C}">
   <dimension ref="A9:R60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26:P60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5739,7 +5739,7 @@
       </c>
       <c r="M9" s="1">
         <f ca="1">TODAY()</f>
-        <v>44734</v>
+        <v>44739</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>1061</v>
@@ -6238,7 +6238,7 @@
       </c>
       <c r="N24" s="28">
         <f ca="1">$M$9-M24</f>
-        <v>-29</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="25" spans="2:18">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="N25" s="28">
         <f ca="1">$M$9-M25</f>
-        <v>-15</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="26" spans="2:18">
@@ -6325,7 +6325,7 @@
       </c>
       <c r="N26" s="28">
         <f t="shared" ref="N26:N51" ca="1" si="5">$M$9-M26</f>
-        <v>-74</v>
+        <v>-69</v>
       </c>
       <c r="O26">
         <v>0.1</v>
@@ -6385,7 +6385,7 @@
       </c>
       <c r="N27" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-32</v>
+        <v>-27</v>
       </c>
     </row>
     <row r="28" spans="2:18">
@@ -6430,7 +6430,7 @@
       </c>
       <c r="N28" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-32</v>
+        <v>-27</v>
       </c>
     </row>
     <row r="29" spans="2:18">
@@ -6475,7 +6475,7 @@
       </c>
       <c r="N29" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-81</v>
+        <v>-76</v>
       </c>
       <c r="O29">
         <v>0.41</v>
@@ -6535,7 +6535,7 @@
       </c>
       <c r="N30" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-53</v>
+        <v>-48</v>
       </c>
       <c r="O30">
         <v>0.13400000000000001</v>
@@ -6595,7 +6595,7 @@
       </c>
       <c r="N31" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-67</v>
+        <v>-62</v>
       </c>
       <c r="O31">
         <v>0.17</v>
@@ -6655,7 +6655,7 @@
       </c>
       <c r="N32" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-67</v>
+        <v>-62</v>
       </c>
       <c r="O32">
         <v>0.12</v>
@@ -6715,7 +6715,7 @@
       </c>
       <c r="N33" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-67</v>
+        <v>-62</v>
       </c>
       <c r="O33">
         <v>0.13200000000000001</v>
@@ -6775,7 +6775,7 @@
       </c>
       <c r="N34" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-32</v>
+        <v>-27</v>
       </c>
       <c r="O34">
         <v>9.9000000000000005E-2</v>
@@ -6835,7 +6835,7 @@
       </c>
       <c r="N35" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-81</v>
+        <v>-76</v>
       </c>
       <c r="O35">
         <v>0.12</v>
@@ -6895,7 +6895,7 @@
       </c>
       <c r="N36" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-81</v>
+        <v>-76</v>
       </c>
       <c r="O36">
         <v>0.14000000000000001</v>
@@ -6955,7 +6955,7 @@
       </c>
       <c r="N37" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-81</v>
+        <v>-76</v>
       </c>
       <c r="O37">
         <v>0.35</v>
@@ -7015,7 +7015,7 @@
       </c>
       <c r="N38" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-81</v>
+        <v>-76</v>
       </c>
       <c r="O38" s="18">
         <v>0.28000000000000003</v>
@@ -7075,7 +7075,7 @@
       </c>
       <c r="N39" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="O39">
         <v>0.11</v>
@@ -7135,7 +7135,7 @@
       </c>
       <c r="N40" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-81</v>
+        <v>-76</v>
       </c>
       <c r="O40" s="18">
         <v>0.11</v>
@@ -7195,7 +7195,7 @@
       </c>
       <c r="N41" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-81</v>
+        <v>-76</v>
       </c>
       <c r="O41">
         <v>9.6000000000000002E-2</v>
@@ -7255,7 +7255,7 @@
       </c>
       <c r="N42" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-81</v>
+        <v>-76</v>
       </c>
       <c r="O42">
         <v>0.22</v>
@@ -7315,7 +7315,7 @@
       </c>
       <c r="N43" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-81</v>
+        <v>-76</v>
       </c>
       <c r="O43">
         <v>0.73</v>
@@ -7375,7 +7375,7 @@
       </c>
       <c r="N44" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-81</v>
+        <v>-76</v>
       </c>
       <c r="O44" s="18">
         <v>0.26500000000000001</v>
@@ -7435,7 +7435,7 @@
       </c>
       <c r="N45" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-81</v>
+        <v>-76</v>
       </c>
       <c r="O45">
         <v>0.13</v>
@@ -7495,7 +7495,7 @@
       </c>
       <c r="N46" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-81</v>
+        <v>-76</v>
       </c>
       <c r="O46">
         <v>0.16</v>
@@ -7555,7 +7555,7 @@
       </c>
       <c r="N47" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-81</v>
+        <v>-76</v>
       </c>
       <c r="O47" s="18">
         <v>0.09</v>
@@ -7615,7 +7615,7 @@
       </c>
       <c r="N48" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-81</v>
+        <v>-76</v>
       </c>
       <c r="O48" s="18">
         <v>0.3</v>
@@ -7675,7 +7675,7 @@
       </c>
       <c r="N49" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-67</v>
+        <v>-62</v>
       </c>
       <c r="O49">
         <v>0.12</v>
@@ -7735,7 +7735,7 @@
       </c>
       <c r="N50" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-46</v>
+        <v>-41</v>
       </c>
       <c r="O50">
         <v>9.4899999999999998E-2</v>
@@ -7795,7 +7795,7 @@
       </c>
       <c r="N51" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-81</v>
+        <v>-76</v>
       </c>
       <c r="O51">
         <v>0.14000000000000001</v>
@@ -7855,7 +7855,7 @@
       </c>
       <c r="N52" s="28">
         <f t="shared" ref="N52" ca="1" si="21">$M$9-M52</f>
-        <v>-18</v>
+        <v>-13</v>
       </c>
       <c r="O52" s="27">
         <v>0.16561899999999999</v>
@@ -7915,7 +7915,7 @@
       </c>
       <c r="N53" s="28">
         <f t="shared" ref="N53" ca="1" si="25">$M$9-M53</f>
-        <v>-88</v>
+        <v>-83</v>
       </c>
       <c r="O53" s="27">
         <v>0.44709700000000002</v>
@@ -7975,7 +7975,7 @@
       </c>
       <c r="N54" s="28">
         <f t="shared" ref="N54:N58" ca="1" si="29">$M$9-M54</f>
-        <v>-60</v>
+        <v>-55</v>
       </c>
       <c r="O54" s="27">
         <v>0.44709700000000002</v>
@@ -8035,7 +8035,7 @@
       </c>
       <c r="N55" s="28">
         <f t="shared" ca="1" si="29"/>
-        <v>-46</v>
+        <v>-41</v>
       </c>
       <c r="O55" s="27">
         <v>7.9225000000000004E-2</v>
@@ -8095,7 +8095,7 @@
       </c>
       <c r="N56" s="28">
         <f t="shared" ca="1" si="29"/>
-        <v>-32</v>
+        <v>-27</v>
       </c>
       <c r="O56" s="27">
         <v>4.7683999999999997E-2</v>
@@ -8155,7 +8155,7 @@
       </c>
       <c r="N57" s="28">
         <f t="shared" ca="1" si="29"/>
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="O57" s="27">
         <v>3.1424000000000001E-2</v>
@@ -8165,11 +8165,11 @@
         <v>30</v>
       </c>
       <c r="Q57" s="27">
-        <f t="shared" ref="Q57:Q58" si="39">(1+O57)^(1/P57)-1</f>
+        <f t="shared" ref="Q57" si="39">(1+O57)^(1/P57)-1</f>
         <v>1.0318777434383808E-3</v>
       </c>
       <c r="R57" s="27">
-        <f t="shared" ref="R57:R58" si="40">(1+Q57)^92</f>
+        <f t="shared" ref="R57" si="40">(1+Q57)^92</f>
         <v>1.0995310894115367</v>
       </c>
     </row>
@@ -8215,7 +8215,7 @@
       </c>
       <c r="N58" s="28">
         <f t="shared" ca="1" si="29"/>
-        <v>-32</v>
+        <v>-27</v>
       </c>
       <c r="O58" s="32">
         <v>2.7649E-2</v>
@@ -8275,7 +8275,7 @@
       </c>
       <c r="N59" s="28">
         <f ca="1">$M$9-M59</f>
-        <v>-48</v>
+        <v>-43</v>
       </c>
       <c r="O59">
         <v>6.7000000000000004E-2</v>
@@ -8335,7 +8335,7 @@
       </c>
       <c r="N60" s="28">
         <f ca="1">$M$9-M60</f>
-        <v>-34</v>
+        <v>-29</v>
       </c>
       <c r="O60">
         <v>0.08</v>
@@ -8355,12 +8355,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="N24:N60">
-    <cfRule type="expression" priority="1">
+    <cfRule type="expression" priority="2">
       <formula>"&gt;=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q26:Q60">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P26:P60">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/code/Screener/record.xlsx
+++ b/code/Screener/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\wiki\wiki\dev\python\Python-Stock\code\Screener\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12465F05-F3E4-481F-8410-D7D91440630A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76737857-0CC6-46B8-A829-4F47E858ADAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{785F8A36-E86A-4BD6-94E8-FC2E8B05B64B}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="1124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2005" uniqueCount="1125">
   <si>
     <t>EXC</t>
   </si>
@@ -3444,6 +3444,9 @@
   </si>
   <si>
     <t>Stop Loss</t>
+  </si>
+  <si>
+    <t>yea</t>
   </si>
 </sst>
 </file>
@@ -3550,7 +3553,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3624,6 +3627,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5713,10 +5717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42EC1B12-8D19-48E1-AE18-CC4CE60CD15C}">
-  <dimension ref="A9:R60"/>
+  <dimension ref="A9:R61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26:P60"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61:J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5739,7 +5743,7 @@
       </c>
       <c r="M9" s="1">
         <f ca="1">TODAY()</f>
-        <v>44739</v>
+        <v>44741</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>1061</v>
@@ -5803,15 +5807,15 @@
       </c>
       <c r="P11">
         <f>AVERAGE(P26:P32)</f>
-        <v>78.400000000000006</v>
-      </c>
-      <c r="Q11" s="16">
+        <v>77</v>
+      </c>
+      <c r="Q11" s="16" t="e">
         <f>AVERAGE(Q26:Q60)</f>
-        <v>2.3281516042127394E-3</v>
-      </c>
-      <c r="R11" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R11" s="16" t="e">
         <f>(1+Q11)^92</f>
-        <v>1.2385495789168448</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -6238,7 +6242,7 @@
       </c>
       <c r="N24" s="28">
         <f ca="1">$M$9-M24</f>
-        <v>-24</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="25" spans="2:18">
@@ -6280,7 +6284,7 @@
       </c>
       <c r="N25" s="28">
         <f ca="1">$M$9-M25</f>
-        <v>-10</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="26" spans="2:18">
@@ -6325,22 +6329,21 @@
       </c>
       <c r="N26" s="28">
         <f t="shared" ref="N26:N51" ca="1" si="5">$M$9-M26</f>
-        <v>-69</v>
+        <v>-67</v>
       </c>
       <c r="O26">
         <v>0.1</v>
       </c>
-      <c r="P26" s="16">
-        <f>M26-B26</f>
-        <v>84</v>
-      </c>
-      <c r="Q26" s="16">
+      <c r="P26" s="16" t="s">
+        <v>1124</v>
+      </c>
+      <c r="Q26" s="16" t="e">
         <f>(1+O26)^(1/P26)-1</f>
-        <v>1.135288950835589E-3</v>
-      </c>
-      <c r="R26" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R26" s="16" t="e">
         <f>(1+Q26)^92</f>
-        <v>1.1100303305665855</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="27" spans="2:18">
@@ -6385,7 +6388,7 @@
       </c>
       <c r="N27" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-27</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="28" spans="2:18">
@@ -6430,7 +6433,7 @@
       </c>
       <c r="N28" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-27</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="29" spans="2:18">
@@ -6475,7 +6478,7 @@
       </c>
       <c r="N29" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-76</v>
+        <v>-74</v>
       </c>
       <c r="O29">
         <v>0.41</v>
@@ -6535,7 +6538,7 @@
       </c>
       <c r="N30" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-48</v>
+        <v>-46</v>
       </c>
       <c r="O30">
         <v>0.13400000000000001</v>
@@ -6595,7 +6598,7 @@
       </c>
       <c r="N31" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-62</v>
+        <v>-60</v>
       </c>
       <c r="O31">
         <v>0.17</v>
@@ -6655,7 +6658,7 @@
       </c>
       <c r="N32" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-62</v>
+        <v>-60</v>
       </c>
       <c r="O32">
         <v>0.12</v>
@@ -6715,7 +6718,7 @@
       </c>
       <c r="N33" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-62</v>
+        <v>-60</v>
       </c>
       <c r="O33">
         <v>0.13200000000000001</v>
@@ -6775,7 +6778,7 @@
       </c>
       <c r="N34" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-27</v>
+        <v>-25</v>
       </c>
       <c r="O34">
         <v>9.9000000000000005E-2</v>
@@ -6835,7 +6838,7 @@
       </c>
       <c r="N35" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-76</v>
+        <v>-74</v>
       </c>
       <c r="O35">
         <v>0.12</v>
@@ -6895,7 +6898,7 @@
       </c>
       <c r="N36" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-76</v>
+        <v>-74</v>
       </c>
       <c r="O36">
         <v>0.14000000000000001</v>
@@ -6955,7 +6958,7 @@
       </c>
       <c r="N37" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-76</v>
+        <v>-74</v>
       </c>
       <c r="O37">
         <v>0.35</v>
@@ -7015,7 +7018,7 @@
       </c>
       <c r="N38" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-76</v>
+        <v>-74</v>
       </c>
       <c r="O38" s="18">
         <v>0.28000000000000003</v>
@@ -7075,7 +7078,7 @@
       </c>
       <c r="N39" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="O39">
         <v>0.11</v>
@@ -7135,7 +7138,7 @@
       </c>
       <c r="N40" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-76</v>
+        <v>-74</v>
       </c>
       <c r="O40" s="18">
         <v>0.11</v>
@@ -7195,7 +7198,7 @@
       </c>
       <c r="N41" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-76</v>
+        <v>-74</v>
       </c>
       <c r="O41">
         <v>9.6000000000000002E-2</v>
@@ -7255,7 +7258,7 @@
       </c>
       <c r="N42" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-76</v>
+        <v>-74</v>
       </c>
       <c r="O42">
         <v>0.22</v>
@@ -7315,7 +7318,7 @@
       </c>
       <c r="N43" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-76</v>
+        <v>-74</v>
       </c>
       <c r="O43">
         <v>0.73</v>
@@ -7375,7 +7378,7 @@
       </c>
       <c r="N44" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-76</v>
+        <v>-74</v>
       </c>
       <c r="O44" s="18">
         <v>0.26500000000000001</v>
@@ -7435,7 +7438,7 @@
       </c>
       <c r="N45" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-76</v>
+        <v>-74</v>
       </c>
       <c r="O45">
         <v>0.13</v>
@@ -7495,7 +7498,7 @@
       </c>
       <c r="N46" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-76</v>
+        <v>-74</v>
       </c>
       <c r="O46">
         <v>0.16</v>
@@ -7555,7 +7558,7 @@
       </c>
       <c r="N47" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-76</v>
+        <v>-74</v>
       </c>
       <c r="O47" s="18">
         <v>0.09</v>
@@ -7615,7 +7618,7 @@
       </c>
       <c r="N48" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-76</v>
+        <v>-74</v>
       </c>
       <c r="O48" s="18">
         <v>0.3</v>
@@ -7675,7 +7678,7 @@
       </c>
       <c r="N49" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-62</v>
+        <v>-60</v>
       </c>
       <c r="O49">
         <v>0.12</v>
@@ -7735,7 +7738,7 @@
       </c>
       <c r="N50" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-41</v>
+        <v>-39</v>
       </c>
       <c r="O50">
         <v>9.4899999999999998E-2</v>
@@ -7795,7 +7798,7 @@
       </c>
       <c r="N51" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-76</v>
+        <v>-74</v>
       </c>
       <c r="O51">
         <v>0.14000000000000001</v>
@@ -7855,7 +7858,7 @@
       </c>
       <c r="N52" s="28">
         <f t="shared" ref="N52" ca="1" si="21">$M$9-M52</f>
-        <v>-13</v>
+        <v>-11</v>
       </c>
       <c r="O52" s="27">
         <v>0.16561899999999999</v>
@@ -7915,7 +7918,7 @@
       </c>
       <c r="N53" s="28">
         <f t="shared" ref="N53" ca="1" si="25">$M$9-M53</f>
-        <v>-83</v>
+        <v>-81</v>
       </c>
       <c r="O53" s="27">
         <v>0.44709700000000002</v>
@@ -7975,7 +7978,7 @@
       </c>
       <c r="N54" s="28">
         <f t="shared" ref="N54:N58" ca="1" si="29">$M$9-M54</f>
-        <v>-55</v>
+        <v>-53</v>
       </c>
       <c r="O54" s="27">
         <v>0.44709700000000002</v>
@@ -8035,7 +8038,7 @@
       </c>
       <c r="N55" s="28">
         <f t="shared" ca="1" si="29"/>
-        <v>-41</v>
+        <v>-39</v>
       </c>
       <c r="O55" s="27">
         <v>7.9225000000000004E-2</v>
@@ -8095,7 +8098,7 @@
       </c>
       <c r="N56" s="28">
         <f t="shared" ca="1" si="29"/>
-        <v>-27</v>
+        <v>-25</v>
       </c>
       <c r="O56" s="27">
         <v>4.7683999999999997E-2</v>
@@ -8155,7 +8158,7 @@
       </c>
       <c r="N57" s="28">
         <f t="shared" ca="1" si="29"/>
-        <v>-20</v>
+        <v>-18</v>
       </c>
       <c r="O57" s="27">
         <v>3.1424000000000001E-2</v>
@@ -8215,7 +8218,7 @@
       </c>
       <c r="N58" s="28">
         <f t="shared" ca="1" si="29"/>
-        <v>-27</v>
+        <v>-25</v>
       </c>
       <c r="O58" s="32">
         <v>2.7649E-2</v>
@@ -8275,7 +8278,7 @@
       </c>
       <c r="N59" s="28">
         <f ca="1">$M$9-M59</f>
-        <v>-43</v>
+        <v>-41</v>
       </c>
       <c r="O59">
         <v>6.7000000000000004E-2</v>
@@ -8335,7 +8338,7 @@
       </c>
       <c r="N60" s="28">
         <f ca="1">$M$9-M60</f>
-        <v>-29</v>
+        <v>-27</v>
       </c>
       <c r="O60">
         <v>0.08</v>
@@ -8353,13 +8356,73 @@
         <v>1.2315179609375255</v>
       </c>
     </row>
+    <row r="61" spans="1:18">
+      <c r="B61" s="1">
+        <v>44741</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D61" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>3</v>
+      </c>
+      <c r="F61" s="19" cm="1">
+        <f t="array" ref="F61">SUMPRODUCT(($C$11:$C$100=C61)*($E$11:$E$100))</f>
+        <v>3</v>
+      </c>
+      <c r="G61">
+        <v>323</v>
+      </c>
+      <c r="H61">
+        <f>G61*E61</f>
+        <v>969</v>
+      </c>
+      <c r="I61" s="33">
+        <v>-1</v>
+      </c>
+      <c r="J61" s="33">
+        <f t="shared" ref="J61" si="46">I61*H61</f>
+        <v>-969</v>
+      </c>
+      <c r="K61" t="s">
+        <v>10</v>
+      </c>
+      <c r="L61" t="s">
+        <v>141</v>
+      </c>
+      <c r="M61" s="1">
+        <v>44838</v>
+      </c>
+      <c r="N61" s="28">
+        <f ca="1">$M$9-M61</f>
+        <v>-97</v>
+      </c>
+      <c r="O61">
+        <v>0.09</v>
+      </c>
+      <c r="P61">
+        <f>M61-B61</f>
+        <v>97</v>
+      </c>
+      <c r="Q61">
+        <f>(1+O61)^(1/P61)-1</f>
+        <v>8.8882462886163971E-4</v>
+      </c>
+      <c r="R61">
+        <f>(1+Q61)^92</f>
+        <v>1.0851687956828595</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="N24:N60">
+  <conditionalFormatting sqref="N24:N61">
     <cfRule type="expression" priority="2">
       <formula>"&gt;=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q26:Q60">
+  <conditionalFormatting sqref="Q26:Q61">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -8371,7 +8434,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P26:P60">
+  <conditionalFormatting sqref="P26:P61">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -8631,10 +8694,10 @@
       <c r="A34" s="10"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="34"/>
+      <c r="B35" s="35"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="6"/>
@@ -8691,10 +8754,10 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="33" t="s">
+      <c r="A44" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="B44" s="34"/>
+      <c r="B44" s="35"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="6"/>
@@ -9180,10 +9243,10 @@
       <c r="A37" s="10"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="B38" s="34"/>
+      <c r="B38" s="35"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="6"/>
@@ -9240,10 +9303,10 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="33" t="s">
+      <c r="A47" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="34"/>
+      <c r="B47" s="35"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="6"/>
@@ -10626,10 +10689,10 @@
       <c r="A37" s="10"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="B38" s="34"/>
+      <c r="B38" s="35"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="6"/>
@@ -10686,10 +10749,10 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="33" t="s">
+      <c r="A47" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="34"/>
+      <c r="B47" s="35"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="6"/>
@@ -11012,10 +11075,10 @@
       <c r="A34" s="10"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="34"/>
+      <c r="B35" s="35"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="6"/>
@@ -11072,10 +11135,10 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="33" t="s">
+      <c r="A44" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="B44" s="34"/>
+      <c r="B44" s="35"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="6"/>
@@ -11572,10 +11635,10 @@
       <c r="A14" s="10"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="34"/>
+      <c r="B15" s="35"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="6"/>
@@ -11632,10 +11695,10 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="B24" s="34"/>
+      <c r="B24" s="35"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="6"/>
@@ -11950,10 +12013,10 @@
       <c r="A31" s="10"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="34"/>
+      <c r="B32" s="35"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="6"/>
@@ -12010,10 +12073,10 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="33" t="s">
+      <c r="A41" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="B41" s="34"/>
+      <c r="B41" s="35"/>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="6"/>
@@ -15744,10 +15807,10 @@
       <c r="A34" s="10"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="34"/>
+      <c r="B35" s="35"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="6"/>
@@ -15804,10 +15867,10 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="33" t="s">
+      <c r="A44" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="B44" s="34"/>
+      <c r="B44" s="35"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="6"/>
@@ -16135,10 +16198,10 @@
       <c r="A34" s="10"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="34"/>
+      <c r="B35" s="35"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="6"/>
@@ -16195,10 +16258,10 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="33" t="s">
+      <c r="A44" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="B44" s="34"/>
+      <c r="B44" s="35"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="6"/>
@@ -17338,10 +17401,10 @@
       <c r="A34" s="10"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="34"/>
+      <c r="B35" s="35"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="6"/>
@@ -17398,10 +17461,10 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="33" t="s">
+      <c r="A44" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="B44" s="34"/>
+      <c r="B44" s="35"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="6"/>
@@ -18014,10 +18077,10 @@
       <c r="A62" s="10"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="33" t="s">
+      <c r="A63" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="B63" s="34"/>
+      <c r="B63" s="35"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="6"/>
@@ -18074,10 +18137,10 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="33" t="s">
+      <c r="A72" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="B72" s="34"/>
+      <c r="B72" s="35"/>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="6"/>
@@ -18537,10 +18600,10 @@
       <c r="A31" s="10"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="34"/>
+      <c r="B32" s="35"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="6"/>
@@ -18597,10 +18660,10 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="33" t="s">
+      <c r="A41" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="B41" s="34"/>
+      <c r="B41" s="35"/>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="6"/>
@@ -19688,10 +19751,10 @@
       <c r="A31" s="22"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="34"/>
+      <c r="B32" s="35"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="12"/>
@@ -19748,10 +19811,10 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="B41" s="34"/>
+      <c r="B41" s="35"/>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="12"/>

--- a/code/Screener/record.xlsx
+++ b/code/Screener/record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\wiki\wiki\dev\python\Python-Stock\code\Screener\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76737857-0CC6-46B8-A829-4F47E858ADAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56788FD7-2D1D-4C55-B921-9ED2751776F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{785F8A36-E86A-4BD6-94E8-FC2E8B05B64B}"/>
+    <workbookView xWindow="4470" yWindow="2760" windowWidth="20730" windowHeight="11835" xr2:uid="{785F8A36-E86A-4BD6-94E8-FC2E8B05B64B}"/>
   </bookViews>
   <sheets>
     <sheet name="Record book" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2005" uniqueCount="1125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2009" uniqueCount="1125">
   <si>
     <t>EXC</t>
   </si>
@@ -3553,7 +3553,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3630,12 +3630,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5717,10 +5721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42EC1B12-8D19-48E1-AE18-CC4CE60CD15C}">
-  <dimension ref="A9:R61"/>
+  <dimension ref="A9:R62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I61" sqref="I61:J61"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N62" sqref="N62:R62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5743,7 +5747,7 @@
       </c>
       <c r="M9" s="1">
         <f ca="1">TODAY()</f>
-        <v>44741</v>
+        <v>44743</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>1061</v>
@@ -6242,7 +6246,7 @@
       </c>
       <c r="N24" s="28">
         <f ca="1">$M$9-M24</f>
-        <v>-22</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="25" spans="2:18">
@@ -6284,7 +6288,7 @@
       </c>
       <c r="N25" s="28">
         <f ca="1">$M$9-M25</f>
-        <v>-8</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="26" spans="2:18">
@@ -6329,7 +6333,7 @@
       </c>
       <c r="N26" s="28">
         <f t="shared" ref="N26:N51" ca="1" si="5">$M$9-M26</f>
-        <v>-67</v>
+        <v>-65</v>
       </c>
       <c r="O26">
         <v>0.1</v>
@@ -6388,7 +6392,7 @@
       </c>
       <c r="N27" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-25</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="28" spans="2:18">
@@ -6433,7 +6437,7 @@
       </c>
       <c r="N28" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-25</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="29" spans="2:18">
@@ -6478,7 +6482,7 @@
       </c>
       <c r="N29" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-74</v>
+        <v>-72</v>
       </c>
       <c r="O29">
         <v>0.41</v>
@@ -6538,7 +6542,7 @@
       </c>
       <c r="N30" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-46</v>
+        <v>-44</v>
       </c>
       <c r="O30">
         <v>0.13400000000000001</v>
@@ -6598,7 +6602,7 @@
       </c>
       <c r="N31" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-60</v>
+        <v>-58</v>
       </c>
       <c r="O31">
         <v>0.17</v>
@@ -6658,7 +6662,7 @@
       </c>
       <c r="N32" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-60</v>
+        <v>-58</v>
       </c>
       <c r="O32">
         <v>0.12</v>
@@ -6718,7 +6722,7 @@
       </c>
       <c r="N33" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-60</v>
+        <v>-58</v>
       </c>
       <c r="O33">
         <v>0.13200000000000001</v>
@@ -6778,7 +6782,7 @@
       </c>
       <c r="N34" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-25</v>
+        <v>-23</v>
       </c>
       <c r="O34">
         <v>9.9000000000000005E-2</v>
@@ -6838,7 +6842,7 @@
       </c>
       <c r="N35" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-74</v>
+        <v>-72</v>
       </c>
       <c r="O35">
         <v>0.12</v>
@@ -6898,7 +6902,7 @@
       </c>
       <c r="N36" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-74</v>
+        <v>-72</v>
       </c>
       <c r="O36">
         <v>0.14000000000000001</v>
@@ -6958,7 +6962,7 @@
       </c>
       <c r="N37" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-74</v>
+        <v>-72</v>
       </c>
       <c r="O37">
         <v>0.35</v>
@@ -7018,7 +7022,7 @@
       </c>
       <c r="N38" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-74</v>
+        <v>-72</v>
       </c>
       <c r="O38" s="18">
         <v>0.28000000000000003</v>
@@ -7078,7 +7082,7 @@
       </c>
       <c r="N39" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="O39">
         <v>0.11</v>
@@ -7138,7 +7142,7 @@
       </c>
       <c r="N40" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-74</v>
+        <v>-72</v>
       </c>
       <c r="O40" s="18">
         <v>0.11</v>
@@ -7198,7 +7202,7 @@
       </c>
       <c r="N41" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-74</v>
+        <v>-72</v>
       </c>
       <c r="O41">
         <v>9.6000000000000002E-2</v>
@@ -7258,7 +7262,7 @@
       </c>
       <c r="N42" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-74</v>
+        <v>-72</v>
       </c>
       <c r="O42">
         <v>0.22</v>
@@ -7318,7 +7322,7 @@
       </c>
       <c r="N43" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-74</v>
+        <v>-72</v>
       </c>
       <c r="O43">
         <v>0.73</v>
@@ -7378,7 +7382,7 @@
       </c>
       <c r="N44" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-74</v>
+        <v>-72</v>
       </c>
       <c r="O44" s="18">
         <v>0.26500000000000001</v>
@@ -7438,7 +7442,7 @@
       </c>
       <c r="N45" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-74</v>
+        <v>-72</v>
       </c>
       <c r="O45">
         <v>0.13</v>
@@ -7498,7 +7502,7 @@
       </c>
       <c r="N46" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-74</v>
+        <v>-72</v>
       </c>
       <c r="O46">
         <v>0.16</v>
@@ -7558,7 +7562,7 @@
       </c>
       <c r="N47" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-74</v>
+        <v>-72</v>
       </c>
       <c r="O47" s="18">
         <v>0.09</v>
@@ -7618,7 +7622,7 @@
       </c>
       <c r="N48" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-74</v>
+        <v>-72</v>
       </c>
       <c r="O48" s="18">
         <v>0.3</v>
@@ -7678,7 +7682,7 @@
       </c>
       <c r="N49" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-60</v>
+        <v>-58</v>
       </c>
       <c r="O49">
         <v>0.12</v>
@@ -7738,7 +7742,7 @@
       </c>
       <c r="N50" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-39</v>
+        <v>-37</v>
       </c>
       <c r="O50">
         <v>9.4899999999999998E-2</v>
@@ -7798,7 +7802,7 @@
       </c>
       <c r="N51" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-74</v>
+        <v>-72</v>
       </c>
       <c r="O51">
         <v>0.14000000000000001</v>
@@ -7858,7 +7862,7 @@
       </c>
       <c r="N52" s="28">
         <f t="shared" ref="N52" ca="1" si="21">$M$9-M52</f>
-        <v>-11</v>
+        <v>-9</v>
       </c>
       <c r="O52" s="27">
         <v>0.16561899999999999</v>
@@ -7918,7 +7922,7 @@
       </c>
       <c r="N53" s="28">
         <f t="shared" ref="N53" ca="1" si="25">$M$9-M53</f>
-        <v>-81</v>
+        <v>-79</v>
       </c>
       <c r="O53" s="27">
         <v>0.44709700000000002</v>
@@ -7978,7 +7982,7 @@
       </c>
       <c r="N54" s="28">
         <f t="shared" ref="N54:N58" ca="1" si="29">$M$9-M54</f>
-        <v>-53</v>
+        <v>-51</v>
       </c>
       <c r="O54" s="27">
         <v>0.44709700000000002</v>
@@ -8038,7 +8042,7 @@
       </c>
       <c r="N55" s="28">
         <f t="shared" ca="1" si="29"/>
-        <v>-39</v>
+        <v>-37</v>
       </c>
       <c r="O55" s="27">
         <v>7.9225000000000004E-2</v>
@@ -8098,7 +8102,7 @@
       </c>
       <c r="N56" s="28">
         <f t="shared" ca="1" si="29"/>
-        <v>-25</v>
+        <v>-23</v>
       </c>
       <c r="O56" s="27">
         <v>4.7683999999999997E-2</v>
@@ -8158,7 +8162,7 @@
       </c>
       <c r="N57" s="28">
         <f t="shared" ca="1" si="29"/>
-        <v>-18</v>
+        <v>-16</v>
       </c>
       <c r="O57" s="27">
         <v>3.1424000000000001E-2</v>
@@ -8218,7 +8222,7 @@
       </c>
       <c r="N58" s="28">
         <f t="shared" ca="1" si="29"/>
-        <v>-25</v>
+        <v>-23</v>
       </c>
       <c r="O58" s="32">
         <v>2.7649E-2</v>
@@ -8278,7 +8282,7 @@
       </c>
       <c r="N59" s="28">
         <f ca="1">$M$9-M59</f>
-        <v>-41</v>
+        <v>-39</v>
       </c>
       <c r="O59">
         <v>6.7000000000000004E-2</v>
@@ -8338,7 +8342,7 @@
       </c>
       <c r="N60" s="28">
         <f ca="1">$M$9-M60</f>
-        <v>-27</v>
+        <v>-25</v>
       </c>
       <c r="O60">
         <v>0.08</v>
@@ -8398,7 +8402,7 @@
       </c>
       <c r="N61" s="28">
         <f ca="1">$M$9-M61</f>
-        <v>-97</v>
+        <v>-95</v>
       </c>
       <c r="O61">
         <v>0.09</v>
@@ -8416,13 +8420,73 @@
         <v>1.0851687956828595</v>
       </c>
     </row>
+    <row r="62" spans="1:18">
+      <c r="B62" s="1">
+        <v>44743</v>
+      </c>
+      <c r="C62" s="34" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D62" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>33</v>
+      </c>
+      <c r="F62" s="34" cm="1">
+        <f t="array" ref="F62">SUMPRODUCT(($C$11:$C$100=C62)*($E$11:$E$100))</f>
+        <v>33</v>
+      </c>
+      <c r="G62" s="34">
+        <v>31.5</v>
+      </c>
+      <c r="H62" s="34">
+        <f>G62*E62</f>
+        <v>1039.5</v>
+      </c>
+      <c r="I62" s="34">
+        <v>-1</v>
+      </c>
+      <c r="J62" s="34">
+        <f t="shared" ref="J62" si="47">I62*H62</f>
+        <v>-1039.5</v>
+      </c>
+      <c r="K62" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="L62" t="s">
+        <v>142</v>
+      </c>
+      <c r="M62" s="38">
+        <v>44840</v>
+      </c>
+      <c r="N62" s="28">
+        <f ca="1">$M$9-M62</f>
+        <v>-97</v>
+      </c>
+      <c r="O62" s="34">
+        <v>0.09</v>
+      </c>
+      <c r="P62" s="34">
+        <f>M62-B62</f>
+        <v>97</v>
+      </c>
+      <c r="Q62" s="34">
+        <f>(1+O62)^(1/P62)-1</f>
+        <v>8.8882462886163971E-4</v>
+      </c>
+      <c r="R62" s="34">
+        <f>(1+Q62)^92</f>
+        <v>1.0851687956828595</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="N24:N61">
+  <conditionalFormatting sqref="N24:N62">
     <cfRule type="expression" priority="2">
       <formula>"&gt;=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q26:Q61">
+  <conditionalFormatting sqref="Q26:Q62">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -8434,7 +8498,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P26:P61">
+  <conditionalFormatting sqref="P26:P62">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -8694,10 +8758,10 @@
       <c r="A34" s="10"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="35"/>
+      <c r="B35" s="36"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="6"/>
@@ -8754,10 +8818,10 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="34" t="s">
+      <c r="A44" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="B44" s="35"/>
+      <c r="B44" s="36"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="6"/>
@@ -9243,10 +9307,10 @@
       <c r="A37" s="10"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="B38" s="35"/>
+      <c r="B38" s="36"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="6"/>
@@ -9303,10 +9367,10 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="34" t="s">
+      <c r="A47" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="35"/>
+      <c r="B47" s="36"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="6"/>
@@ -10689,10 +10753,10 @@
       <c r="A37" s="10"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="B38" s="35"/>
+      <c r="B38" s="36"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="6"/>
@@ -10749,10 +10813,10 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="34" t="s">
+      <c r="A47" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="35"/>
+      <c r="B47" s="36"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="6"/>
@@ -11075,10 +11139,10 @@
       <c r="A34" s="10"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="35"/>
+      <c r="B35" s="36"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="6"/>
@@ -11135,10 +11199,10 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="34" t="s">
+      <c r="A44" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="B44" s="35"/>
+      <c r="B44" s="36"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="6"/>
@@ -11635,10 +11699,10 @@
       <c r="A14" s="10"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="35"/>
+      <c r="B15" s="36"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="6"/>
@@ -11695,10 +11759,10 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="B24" s="35"/>
+      <c r="B24" s="36"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="6"/>
@@ -12013,10 +12077,10 @@
       <c r="A31" s="10"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="34" t="s">
+      <c r="A32" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="35"/>
+      <c r="B32" s="36"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="6"/>
@@ -12073,10 +12137,10 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="B41" s="35"/>
+      <c r="B41" s="36"/>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="6"/>
@@ -15807,10 +15871,10 @@
       <c r="A34" s="10"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="35"/>
+      <c r="B35" s="36"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="6"/>
@@ -15867,10 +15931,10 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="34" t="s">
+      <c r="A44" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="B44" s="35"/>
+      <c r="B44" s="36"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="6"/>
@@ -16198,10 +16262,10 @@
       <c r="A34" s="10"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="35"/>
+      <c r="B35" s="36"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="6"/>
@@ -16258,10 +16322,10 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="34" t="s">
+      <c r="A44" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="B44" s="35"/>
+      <c r="B44" s="36"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="6"/>
@@ -17401,10 +17465,10 @@
       <c r="A34" s="10"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="35"/>
+      <c r="B35" s="36"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="6"/>
@@ -17461,10 +17525,10 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="34" t="s">
+      <c r="A44" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="B44" s="35"/>
+      <c r="B44" s="36"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="6"/>
@@ -18077,10 +18141,10 @@
       <c r="A62" s="10"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="34" t="s">
+      <c r="A63" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="B63" s="35"/>
+      <c r="B63" s="36"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="6"/>
@@ -18137,10 +18201,10 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="34" t="s">
+      <c r="A72" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="B72" s="35"/>
+      <c r="B72" s="36"/>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="6"/>
@@ -18600,10 +18664,10 @@
       <c r="A31" s="10"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="34" t="s">
+      <c r="A32" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="35"/>
+      <c r="B32" s="36"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="6"/>
@@ -18660,10 +18724,10 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="B41" s="35"/>
+      <c r="B41" s="36"/>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="6"/>
@@ -19751,10 +19815,10 @@
       <c r="A31" s="22"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="36" t="s">
+      <c r="A32" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="35"/>
+      <c r="B32" s="36"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="12"/>
@@ -19811,10 +19875,10 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="36" t="s">
+      <c r="A41" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="B41" s="35"/>
+      <c r="B41" s="36"/>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="12"/>

--- a/code/Screener/record.xlsx
+++ b/code/Screener/record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\wiki\wiki\dev\python\Python-Stock\code\Screener\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56788FD7-2D1D-4C55-B921-9ED2751776F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEB47A8-0FC5-4BBC-9F74-8D5F1EFEEB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4470" yWindow="2760" windowWidth="20730" windowHeight="11835" xr2:uid="{785F8A36-E86A-4BD6-94E8-FC2E8B05B64B}"/>
+    <workbookView xWindow="4470" yWindow="2775" windowWidth="20730" windowHeight="11835" xr2:uid="{785F8A36-E86A-4BD6-94E8-FC2E8B05B64B}"/>
   </bookViews>
   <sheets>
     <sheet name="Record book" sheetId="1" r:id="rId1"/>
@@ -3553,7 +3553,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3641,6 +3641,7 @@
     <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5721,10 +5722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42EC1B12-8D19-48E1-AE18-CC4CE60CD15C}">
-  <dimension ref="A9:R62"/>
+  <dimension ref="A9:U62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N62" sqref="N62:R62"/>
+      <selection activeCell="U61" sqref="U61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5747,7 +5748,7 @@
       </c>
       <c r="M9" s="1">
         <f ca="1">TODAY()</f>
-        <v>44743</v>
+        <v>44744</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>1061</v>
@@ -6246,7 +6247,7 @@
       </c>
       <c r="N24" s="28">
         <f ca="1">$M$9-M24</f>
-        <v>-20</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="25" spans="2:18">
@@ -6288,7 +6289,7 @@
       </c>
       <c r="N25" s="28">
         <f ca="1">$M$9-M25</f>
-        <v>-6</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="26" spans="2:18">
@@ -6333,7 +6334,7 @@
       </c>
       <c r="N26" s="28">
         <f t="shared" ref="N26:N51" ca="1" si="5">$M$9-M26</f>
-        <v>-65</v>
+        <v>-64</v>
       </c>
       <c r="O26">
         <v>0.1</v>
@@ -6392,7 +6393,7 @@
       </c>
       <c r="N27" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-23</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="28" spans="2:18">
@@ -6437,7 +6438,7 @@
       </c>
       <c r="N28" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-23</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="29" spans="2:18">
@@ -6482,7 +6483,7 @@
       </c>
       <c r="N29" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-72</v>
+        <v>-71</v>
       </c>
       <c r="O29">
         <v>0.41</v>
@@ -6542,7 +6543,7 @@
       </c>
       <c r="N30" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-44</v>
+        <v>-43</v>
       </c>
       <c r="O30">
         <v>0.13400000000000001</v>
@@ -6602,7 +6603,7 @@
       </c>
       <c r="N31" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-58</v>
+        <v>-57</v>
       </c>
       <c r="O31">
         <v>0.17</v>
@@ -6662,7 +6663,7 @@
       </c>
       <c r="N32" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-58</v>
+        <v>-57</v>
       </c>
       <c r="O32">
         <v>0.12</v>
@@ -6722,7 +6723,7 @@
       </c>
       <c r="N33" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-58</v>
+        <v>-57</v>
       </c>
       <c r="O33">
         <v>0.13200000000000001</v>
@@ -6782,7 +6783,7 @@
       </c>
       <c r="N34" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-23</v>
+        <v>-22</v>
       </c>
       <c r="O34">
         <v>9.9000000000000005E-2</v>
@@ -6842,7 +6843,7 @@
       </c>
       <c r="N35" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-72</v>
+        <v>-71</v>
       </c>
       <c r="O35">
         <v>0.12</v>
@@ -6902,7 +6903,7 @@
       </c>
       <c r="N36" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-72</v>
+        <v>-71</v>
       </c>
       <c r="O36">
         <v>0.14000000000000001</v>
@@ -6962,7 +6963,7 @@
       </c>
       <c r="N37" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-72</v>
+        <v>-71</v>
       </c>
       <c r="O37">
         <v>0.35</v>
@@ -7022,7 +7023,7 @@
       </c>
       <c r="N38" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-72</v>
+        <v>-71</v>
       </c>
       <c r="O38" s="18">
         <v>0.28000000000000003</v>
@@ -7082,7 +7083,7 @@
       </c>
       <c r="N39" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="O39">
         <v>0.11</v>
@@ -7142,7 +7143,7 @@
       </c>
       <c r="N40" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-72</v>
+        <v>-71</v>
       </c>
       <c r="O40" s="18">
         <v>0.11</v>
@@ -7202,7 +7203,7 @@
       </c>
       <c r="N41" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-72</v>
+        <v>-71</v>
       </c>
       <c r="O41">
         <v>9.6000000000000002E-2</v>
@@ -7262,7 +7263,7 @@
       </c>
       <c r="N42" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-72</v>
+        <v>-71</v>
       </c>
       <c r="O42">
         <v>0.22</v>
@@ -7322,7 +7323,7 @@
       </c>
       <c r="N43" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-72</v>
+        <v>-71</v>
       </c>
       <c r="O43">
         <v>0.73</v>
@@ -7382,7 +7383,7 @@
       </c>
       <c r="N44" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-72</v>
+        <v>-71</v>
       </c>
       <c r="O44" s="18">
         <v>0.26500000000000001</v>
@@ -7442,7 +7443,7 @@
       </c>
       <c r="N45" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-72</v>
+        <v>-71</v>
       </c>
       <c r="O45">
         <v>0.13</v>
@@ -7502,7 +7503,7 @@
       </c>
       <c r="N46" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-72</v>
+        <v>-71</v>
       </c>
       <c r="O46">
         <v>0.16</v>
@@ -7562,7 +7563,7 @@
       </c>
       <c r="N47" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-72</v>
+        <v>-71</v>
       </c>
       <c r="O47" s="18">
         <v>0.09</v>
@@ -7622,7 +7623,7 @@
       </c>
       <c r="N48" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-72</v>
+        <v>-71</v>
       </c>
       <c r="O48" s="18">
         <v>0.3</v>
@@ -7640,7 +7641,7 @@
         <v>1.3037534691790746</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:21">
       <c r="B49" s="1">
         <v>44724</v>
       </c>
@@ -7682,7 +7683,7 @@
       </c>
       <c r="N49" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-58</v>
+        <v>-57</v>
       </c>
       <c r="O49">
         <v>0.12</v>
@@ -7700,7 +7701,7 @@
         <v>1.1450012193329568</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:21">
       <c r="B50" s="1">
         <v>44724</v>
       </c>
@@ -7742,7 +7743,7 @@
       </c>
       <c r="N50" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-37</v>
+        <v>-36</v>
       </c>
       <c r="O50">
         <v>9.4899999999999998E-2</v>
@@ -7760,7 +7761,7 @@
         <v>1.1606107956028482</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:21">
       <c r="B51" s="1">
         <v>44724</v>
       </c>
@@ -7802,7 +7803,7 @@
       </c>
       <c r="N51" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-72</v>
+        <v>-71</v>
       </c>
       <c r="O51">
         <v>0.14000000000000001</v>
@@ -7820,7 +7821,7 @@
         <v>1.1416426352652658</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:21">
       <c r="B52" s="1">
         <v>44729</v>
       </c>
@@ -7862,7 +7863,7 @@
       </c>
       <c r="N52" s="28">
         <f t="shared" ref="N52" ca="1" si="21">$M$9-M52</f>
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="O52" s="27">
         <v>0.16561899999999999</v>
@@ -7880,7 +7881,7 @@
         <v>1.8459777917460405</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:21">
       <c r="B53" s="1">
         <v>44729</v>
       </c>
@@ -7922,7 +7923,7 @@
       </c>
       <c r="N53" s="28">
         <f t="shared" ref="N53" ca="1" si="25">$M$9-M53</f>
-        <v>-79</v>
+        <v>-78</v>
       </c>
       <c r="O53" s="27">
         <v>0.44709700000000002</v>
@@ -7940,7 +7941,7 @@
         <v>1.4413579971829127</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:21">
       <c r="B54" s="1">
         <v>44729</v>
       </c>
@@ -7982,7 +7983,7 @@
       </c>
       <c r="N54" s="28">
         <f t="shared" ref="N54:N58" ca="1" si="29">$M$9-M54</f>
-        <v>-51</v>
+        <v>-50</v>
       </c>
       <c r="O54" s="27">
         <v>0.44709700000000002</v>
@@ -8000,7 +8001,7 @@
         <v>1.6871973902345887</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:21">
       <c r="B55" s="1">
         <v>44729</v>
       </c>
@@ -8042,7 +8043,7 @@
       </c>
       <c r="N55" s="28">
         <f t="shared" ca="1" si="29"/>
-        <v>-37</v>
+        <v>-36</v>
       </c>
       <c r="O55" s="27">
         <v>7.9225000000000004E-2</v>
@@ -8060,7 +8061,7 @@
         <v>1.1474438584033493</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:21">
       <c r="B56" s="1">
         <v>44729</v>
       </c>
@@ -8102,7 +8103,7 @@
       </c>
       <c r="N56" s="28">
         <f t="shared" ca="1" si="29"/>
-        <v>-23</v>
+        <v>-22</v>
       </c>
       <c r="O56" s="27">
         <v>4.7683999999999997E-2</v>
@@ -8120,7 +8121,7 @@
         <v>1.122799979907529</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:21">
       <c r="B57" s="1">
         <v>44729</v>
       </c>
@@ -8162,7 +8163,7 @@
       </c>
       <c r="N57" s="28">
         <f t="shared" ca="1" si="29"/>
-        <v>-16</v>
+        <v>-15</v>
       </c>
       <c r="O57" s="27">
         <v>3.1424000000000001E-2</v>
@@ -8180,7 +8181,7 @@
         <v>1.0995310894115367</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:21">
       <c r="B58" s="1">
         <v>44730</v>
       </c>
@@ -8222,7 +8223,7 @@
       </c>
       <c r="N58" s="28">
         <f t="shared" ca="1" si="29"/>
-        <v>-23</v>
+        <v>-22</v>
       </c>
       <c r="O58" s="32">
         <v>2.7649E-2</v>
@@ -8240,7 +8241,7 @@
         <v>1.0721858084819609</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:21">
       <c r="A59">
         <v>202</v>
       </c>
@@ -8282,7 +8283,7 @@
       </c>
       <c r="N59" s="28">
         <f ca="1">$M$9-M59</f>
-        <v>-39</v>
+        <v>-38</v>
       </c>
       <c r="O59">
         <v>6.7000000000000004E-2</v>
@@ -8300,7 +8301,7 @@
         <v>1.1323529188332864</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:21">
       <c r="A60">
         <v>37</v>
       </c>
@@ -8342,7 +8343,7 @@
       </c>
       <c r="N60" s="28">
         <f ca="1">$M$9-M60</f>
-        <v>-25</v>
+        <v>-24</v>
       </c>
       <c r="O60">
         <v>0.08</v>
@@ -8359,8 +8360,14 @@
         <f>(1+Q60)^92</f>
         <v>1.2315179609375255</v>
       </c>
-    </row>
-    <row r="61" spans="1:18">
+      <c r="T60" s="39">
+        <v>0.13</v>
+      </c>
+      <c r="U60" s="1">
+        <v>44778</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21">
       <c r="B61" s="1">
         <v>44741</v>
       </c>
@@ -8402,7 +8409,7 @@
       </c>
       <c r="N61" s="28">
         <f ca="1">$M$9-M61</f>
-        <v>-95</v>
+        <v>-94</v>
       </c>
       <c r="O61">
         <v>0.09</v>
@@ -8420,7 +8427,7 @@
         <v>1.0851687956828595</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:21">
       <c r="B62" s="1">
         <v>44743</v>
       </c>
@@ -8462,7 +8469,7 @@
       </c>
       <c r="N62" s="28">
         <f ca="1">$M$9-M62</f>
-        <v>-97</v>
+        <v>-96</v>
       </c>
       <c r="O62" s="34">
         <v>0.09</v>

--- a/code/Screener/record.xlsx
+++ b/code/Screener/record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\wiki\wiki\dev\python\Python-Stock\code\Screener\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEB47A8-0FC5-4BBC-9F74-8D5F1EFEEB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149E24AF-28D7-4966-B5AA-BBBA01DFDA01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4470" yWindow="2775" windowWidth="20730" windowHeight="11835" xr2:uid="{785F8A36-E86A-4BD6-94E8-FC2E8B05B64B}"/>
+    <workbookView xWindow="4470" yWindow="2820" windowWidth="20730" windowHeight="11835" xr2:uid="{785F8A36-E86A-4BD6-94E8-FC2E8B05B64B}"/>
   </bookViews>
   <sheets>
     <sheet name="Record book" sheetId="1" r:id="rId1"/>
@@ -5725,7 +5725,7 @@
   <dimension ref="A9:U62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U61" sqref="U61"/>
+      <selection activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5735,6 +5735,7 @@
     <col min="6" max="6" width="9.140625" style="19"/>
     <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.7109375" style="27" customWidth="1"/>
+    <col min="21" max="21" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="9" spans="1:18">
@@ -5748,7 +5749,7 @@
       </c>
       <c r="M9" s="1">
         <f ca="1">TODAY()</f>
-        <v>44744</v>
+        <v>44745</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>1061</v>
@@ -6247,7 +6248,7 @@
       </c>
       <c r="N24" s="28">
         <f ca="1">$M$9-M24</f>
-        <v>-19</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="25" spans="2:18">
@@ -6289,7 +6290,7 @@
       </c>
       <c r="N25" s="28">
         <f ca="1">$M$9-M25</f>
-        <v>-5</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="26" spans="2:18">
@@ -6334,7 +6335,7 @@
       </c>
       <c r="N26" s="28">
         <f t="shared" ref="N26:N51" ca="1" si="5">$M$9-M26</f>
-        <v>-64</v>
+        <v>-63</v>
       </c>
       <c r="O26">
         <v>0.1</v>
@@ -6393,7 +6394,7 @@
       </c>
       <c r="N27" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-22</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="28" spans="2:18">
@@ -6438,7 +6439,7 @@
       </c>
       <c r="N28" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-22</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="29" spans="2:18">
@@ -6483,7 +6484,7 @@
       </c>
       <c r="N29" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-71</v>
+        <v>-70</v>
       </c>
       <c r="O29">
         <v>0.41</v>
@@ -6543,7 +6544,7 @@
       </c>
       <c r="N30" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-43</v>
+        <v>-42</v>
       </c>
       <c r="O30">
         <v>0.13400000000000001</v>
@@ -6603,7 +6604,7 @@
       </c>
       <c r="N31" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-57</v>
+        <v>-56</v>
       </c>
       <c r="O31">
         <v>0.17</v>
@@ -6663,7 +6664,7 @@
       </c>
       <c r="N32" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-57</v>
+        <v>-56</v>
       </c>
       <c r="O32">
         <v>0.12</v>
@@ -6723,7 +6724,7 @@
       </c>
       <c r="N33" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-57</v>
+        <v>-56</v>
       </c>
       <c r="O33">
         <v>0.13200000000000001</v>
@@ -6783,7 +6784,7 @@
       </c>
       <c r="N34" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-22</v>
+        <v>-21</v>
       </c>
       <c r="O34">
         <v>9.9000000000000005E-2</v>
@@ -6843,7 +6844,7 @@
       </c>
       <c r="N35" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-71</v>
+        <v>-70</v>
       </c>
       <c r="O35">
         <v>0.12</v>
@@ -6903,7 +6904,7 @@
       </c>
       <c r="N36" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-71</v>
+        <v>-70</v>
       </c>
       <c r="O36">
         <v>0.14000000000000001</v>
@@ -6963,7 +6964,7 @@
       </c>
       <c r="N37" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-71</v>
+        <v>-70</v>
       </c>
       <c r="O37">
         <v>0.35</v>
@@ -7023,7 +7024,7 @@
       </c>
       <c r="N38" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-71</v>
+        <v>-70</v>
       </c>
       <c r="O38" s="18">
         <v>0.28000000000000003</v>
@@ -7083,7 +7084,7 @@
       </c>
       <c r="N39" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O39">
         <v>0.11</v>
@@ -7143,7 +7144,7 @@
       </c>
       <c r="N40" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-71</v>
+        <v>-70</v>
       </c>
       <c r="O40" s="18">
         <v>0.11</v>
@@ -7203,7 +7204,7 @@
       </c>
       <c r="N41" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-71</v>
+        <v>-70</v>
       </c>
       <c r="O41">
         <v>9.6000000000000002E-2</v>
@@ -7263,7 +7264,7 @@
       </c>
       <c r="N42" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-71</v>
+        <v>-70</v>
       </c>
       <c r="O42">
         <v>0.22</v>
@@ -7323,7 +7324,7 @@
       </c>
       <c r="N43" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-71</v>
+        <v>-70</v>
       </c>
       <c r="O43">
         <v>0.73</v>
@@ -7383,7 +7384,7 @@
       </c>
       <c r="N44" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-71</v>
+        <v>-70</v>
       </c>
       <c r="O44" s="18">
         <v>0.26500000000000001</v>
@@ -7443,7 +7444,7 @@
       </c>
       <c r="N45" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-71</v>
+        <v>-70</v>
       </c>
       <c r="O45">
         <v>0.13</v>
@@ -7503,7 +7504,7 @@
       </c>
       <c r="N46" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-71</v>
+        <v>-70</v>
       </c>
       <c r="O46">
         <v>0.16</v>
@@ -7563,7 +7564,7 @@
       </c>
       <c r="N47" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-71</v>
+        <v>-70</v>
       </c>
       <c r="O47" s="18">
         <v>0.09</v>
@@ -7623,7 +7624,7 @@
       </c>
       <c r="N48" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-71</v>
+        <v>-70</v>
       </c>
       <c r="O48" s="18">
         <v>0.3</v>
@@ -7683,7 +7684,7 @@
       </c>
       <c r="N49" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-57</v>
+        <v>-56</v>
       </c>
       <c r="O49">
         <v>0.12</v>
@@ -7743,7 +7744,7 @@
       </c>
       <c r="N50" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-36</v>
+        <v>-35</v>
       </c>
       <c r="O50">
         <v>9.4899999999999998E-2</v>
@@ -7803,7 +7804,7 @@
       </c>
       <c r="N51" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-71</v>
+        <v>-70</v>
       </c>
       <c r="O51">
         <v>0.14000000000000001</v>
@@ -7863,7 +7864,7 @@
       </c>
       <c r="N52" s="28">
         <f t="shared" ref="N52" ca="1" si="21">$M$9-M52</f>
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="O52" s="27">
         <v>0.16561899999999999</v>
@@ -7923,7 +7924,7 @@
       </c>
       <c r="N53" s="28">
         <f t="shared" ref="N53" ca="1" si="25">$M$9-M53</f>
-        <v>-78</v>
+        <v>-77</v>
       </c>
       <c r="O53" s="27">
         <v>0.44709700000000002</v>
@@ -7983,7 +7984,7 @@
       </c>
       <c r="N54" s="28">
         <f t="shared" ref="N54:N58" ca="1" si="29">$M$9-M54</f>
-        <v>-50</v>
+        <v>-49</v>
       </c>
       <c r="O54" s="27">
         <v>0.44709700000000002</v>
@@ -8043,7 +8044,7 @@
       </c>
       <c r="N55" s="28">
         <f t="shared" ca="1" si="29"/>
-        <v>-36</v>
+        <v>-35</v>
       </c>
       <c r="O55" s="27">
         <v>7.9225000000000004E-2</v>
@@ -8103,7 +8104,7 @@
       </c>
       <c r="N56" s="28">
         <f t="shared" ca="1" si="29"/>
-        <v>-22</v>
+        <v>-21</v>
       </c>
       <c r="O56" s="27">
         <v>4.7683999999999997E-2</v>
@@ -8163,7 +8164,7 @@
       </c>
       <c r="N57" s="28">
         <f t="shared" ca="1" si="29"/>
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="O57" s="27">
         <v>3.1424000000000001E-2</v>
@@ -8223,7 +8224,7 @@
       </c>
       <c r="N58" s="28">
         <f t="shared" ca="1" si="29"/>
-        <v>-22</v>
+        <v>-21</v>
       </c>
       <c r="O58" s="32">
         <v>2.7649E-2</v>
@@ -8283,7 +8284,7 @@
       </c>
       <c r="N59" s="28">
         <f ca="1">$M$9-M59</f>
-        <v>-38</v>
+        <v>-37</v>
       </c>
       <c r="O59">
         <v>6.7000000000000004E-2</v>
@@ -8300,6 +8301,12 @@
         <f>(1+Q59)^92</f>
         <v>1.1323529188332864</v>
       </c>
+      <c r="T59" s="39">
+        <v>0.13</v>
+      </c>
+      <c r="U59" s="1">
+        <v>44778</v>
+      </c>
     </row>
     <row r="60" spans="1:21">
       <c r="A60">
@@ -8343,7 +8350,7 @@
       </c>
       <c r="N60" s="28">
         <f ca="1">$M$9-M60</f>
-        <v>-24</v>
+        <v>-23</v>
       </c>
       <c r="O60">
         <v>0.08</v>
@@ -8360,11 +8367,11 @@
         <f>(1+Q60)^92</f>
         <v>1.2315179609375255</v>
       </c>
-      <c r="T60" s="39">
-        <v>0.13</v>
+      <c r="T60">
+        <v>0.02</v>
       </c>
       <c r="U60" s="1">
-        <v>44778</v>
+        <v>44834</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -8409,7 +8416,7 @@
       </c>
       <c r="N61" s="28">
         <f ca="1">$M$9-M61</f>
-        <v>-94</v>
+        <v>-93</v>
       </c>
       <c r="O61">
         <v>0.09</v>
@@ -8469,7 +8476,7 @@
       </c>
       <c r="N62" s="28">
         <f ca="1">$M$9-M62</f>
-        <v>-96</v>
+        <v>-95</v>
       </c>
       <c r="O62" s="34">
         <v>0.09</v>

--- a/code/Screener/record.xlsx
+++ b/code/Screener/record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\wiki\wiki\dev\python\Python-Stock\code\Screener\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149E24AF-28D7-4966-B5AA-BBBA01DFDA01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9AA3B7-C27A-47E6-8557-104A7B51A84A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4470" yWindow="2820" windowWidth="20730" windowHeight="11835" xr2:uid="{785F8A36-E86A-4BD6-94E8-FC2E8B05B64B}"/>
+    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{785F8A36-E86A-4BD6-94E8-FC2E8B05B64B}"/>
   </bookViews>
   <sheets>
     <sheet name="Record book" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2009" uniqueCount="1125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2013" uniqueCount="1126">
   <si>
     <t>EXC</t>
   </si>
@@ -3447,6 +3447,9 @@
   </si>
   <si>
     <t>yea</t>
+  </si>
+  <si>
+    <t>CHEF</t>
   </si>
 </sst>
 </file>
@@ -3553,7 +3556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3631,6 +3634,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3638,10 +3646,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5722,10 +5726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42EC1B12-8D19-48E1-AE18-CC4CE60CD15C}">
-  <dimension ref="A9:U62"/>
+  <dimension ref="A9:U63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O45" sqref="O45"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V55" sqref="V55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5749,7 +5753,7 @@
       </c>
       <c r="M9" s="1">
         <f ca="1">TODAY()</f>
-        <v>44745</v>
+        <v>44746</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>1061</v>
@@ -6248,7 +6252,7 @@
       </c>
       <c r="N24" s="28">
         <f ca="1">$M$9-M24</f>
-        <v>-18</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="25" spans="2:18">
@@ -6290,7 +6294,7 @@
       </c>
       <c r="N25" s="28">
         <f ca="1">$M$9-M25</f>
-        <v>-4</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="26" spans="2:18">
@@ -6335,7 +6339,7 @@
       </c>
       <c r="N26" s="28">
         <f t="shared" ref="N26:N51" ca="1" si="5">$M$9-M26</f>
-        <v>-63</v>
+        <v>-62</v>
       </c>
       <c r="O26">
         <v>0.1</v>
@@ -6394,7 +6398,7 @@
       </c>
       <c r="N27" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-21</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="28" spans="2:18">
@@ -6439,7 +6443,7 @@
       </c>
       <c r="N28" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-21</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="29" spans="2:18">
@@ -6484,7 +6488,7 @@
       </c>
       <c r="N29" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-70</v>
+        <v>-69</v>
       </c>
       <c r="O29">
         <v>0.41</v>
@@ -6544,7 +6548,7 @@
       </c>
       <c r="N30" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-42</v>
+        <v>-41</v>
       </c>
       <c r="O30">
         <v>0.13400000000000001</v>
@@ -6604,7 +6608,7 @@
       </c>
       <c r="N31" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-56</v>
+        <v>-55</v>
       </c>
       <c r="O31">
         <v>0.17</v>
@@ -6664,7 +6668,7 @@
       </c>
       <c r="N32" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-56</v>
+        <v>-55</v>
       </c>
       <c r="O32">
         <v>0.12</v>
@@ -6724,7 +6728,7 @@
       </c>
       <c r="N33" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-56</v>
+        <v>-55</v>
       </c>
       <c r="O33">
         <v>0.13200000000000001</v>
@@ -6784,7 +6788,7 @@
       </c>
       <c r="N34" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-21</v>
+        <v>-20</v>
       </c>
       <c r="O34">
         <v>9.9000000000000005E-2</v>
@@ -6844,7 +6848,7 @@
       </c>
       <c r="N35" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-70</v>
+        <v>-69</v>
       </c>
       <c r="O35">
         <v>0.12</v>
@@ -6904,7 +6908,7 @@
       </c>
       <c r="N36" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-70</v>
+        <v>-69</v>
       </c>
       <c r="O36">
         <v>0.14000000000000001</v>
@@ -6964,7 +6968,7 @@
       </c>
       <c r="N37" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-70</v>
+        <v>-69</v>
       </c>
       <c r="O37">
         <v>0.35</v>
@@ -7024,7 +7028,7 @@
       </c>
       <c r="N38" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-70</v>
+        <v>-69</v>
       </c>
       <c r="O38" s="18">
         <v>0.28000000000000003</v>
@@ -7084,7 +7088,7 @@
       </c>
       <c r="N39" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39">
         <v>0.11</v>
@@ -7144,7 +7148,7 @@
       </c>
       <c r="N40" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-70</v>
+        <v>-69</v>
       </c>
       <c r="O40" s="18">
         <v>0.11</v>
@@ -7204,7 +7208,7 @@
       </c>
       <c r="N41" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-70</v>
+        <v>-69</v>
       </c>
       <c r="O41">
         <v>9.6000000000000002E-2</v>
@@ -7264,7 +7268,7 @@
       </c>
       <c r="N42" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-70</v>
+        <v>-69</v>
       </c>
       <c r="O42">
         <v>0.22</v>
@@ -7324,7 +7328,7 @@
       </c>
       <c r="N43" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-70</v>
+        <v>-69</v>
       </c>
       <c r="O43">
         <v>0.73</v>
@@ -7384,7 +7388,7 @@
       </c>
       <c r="N44" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-70</v>
+        <v>-69</v>
       </c>
       <c r="O44" s="18">
         <v>0.26500000000000001</v>
@@ -7444,7 +7448,7 @@
       </c>
       <c r="N45" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-70</v>
+        <v>-69</v>
       </c>
       <c r="O45">
         <v>0.13</v>
@@ -7504,7 +7508,7 @@
       </c>
       <c r="N46" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-70</v>
+        <v>-69</v>
       </c>
       <c r="O46">
         <v>0.16</v>
@@ -7564,7 +7568,7 @@
       </c>
       <c r="N47" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-70</v>
+        <v>-69</v>
       </c>
       <c r="O47" s="18">
         <v>0.09</v>
@@ -7624,7 +7628,7 @@
       </c>
       <c r="N48" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-70</v>
+        <v>-69</v>
       </c>
       <c r="O48" s="18">
         <v>0.3</v>
@@ -7684,7 +7688,7 @@
       </c>
       <c r="N49" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-56</v>
+        <v>-55</v>
       </c>
       <c r="O49">
         <v>0.12</v>
@@ -7744,7 +7748,7 @@
       </c>
       <c r="N50" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-35</v>
+        <v>-34</v>
       </c>
       <c r="O50">
         <v>9.4899999999999998E-2</v>
@@ -7804,7 +7808,7 @@
       </c>
       <c r="N51" s="28">
         <f t="shared" ca="1" si="5"/>
-        <v>-70</v>
+        <v>-69</v>
       </c>
       <c r="O51">
         <v>0.14000000000000001</v>
@@ -7864,7 +7868,7 @@
       </c>
       <c r="N52" s="28">
         <f t="shared" ref="N52" ca="1" si="21">$M$9-M52</f>
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="O52" s="27">
         <v>0.16561899999999999</v>
@@ -7924,7 +7928,7 @@
       </c>
       <c r="N53" s="28">
         <f t="shared" ref="N53" ca="1" si="25">$M$9-M53</f>
-        <v>-77</v>
+        <v>-76</v>
       </c>
       <c r="O53" s="27">
         <v>0.44709700000000002</v>
@@ -7984,7 +7988,7 @@
       </c>
       <c r="N54" s="28">
         <f t="shared" ref="N54:N58" ca="1" si="29">$M$9-M54</f>
-        <v>-49</v>
+        <v>-48</v>
       </c>
       <c r="O54" s="27">
         <v>0.44709700000000002</v>
@@ -8044,7 +8048,7 @@
       </c>
       <c r="N55" s="28">
         <f t="shared" ca="1" si="29"/>
-        <v>-35</v>
+        <v>-34</v>
       </c>
       <c r="O55" s="27">
         <v>7.9225000000000004E-2</v>
@@ -8104,7 +8108,7 @@
       </c>
       <c r="N56" s="28">
         <f t="shared" ca="1" si="29"/>
-        <v>-21</v>
+        <v>-20</v>
       </c>
       <c r="O56" s="27">
         <v>4.7683999999999997E-2</v>
@@ -8164,7 +8168,7 @@
       </c>
       <c r="N57" s="28">
         <f t="shared" ca="1" si="29"/>
-        <v>-14</v>
+        <v>-13</v>
       </c>
       <c r="O57" s="27">
         <v>3.1424000000000001E-2</v>
@@ -8224,7 +8228,7 @@
       </c>
       <c r="N58" s="28">
         <f t="shared" ca="1" si="29"/>
-        <v>-21</v>
+        <v>-20</v>
       </c>
       <c r="O58" s="32">
         <v>2.7649E-2</v>
@@ -8284,7 +8288,7 @@
       </c>
       <c r="N59" s="28">
         <f ca="1">$M$9-M59</f>
-        <v>-37</v>
+        <v>-36</v>
       </c>
       <c r="O59">
         <v>6.7000000000000004E-2</v>
@@ -8301,7 +8305,7 @@
         <f>(1+Q59)^92</f>
         <v>1.1323529188332864</v>
       </c>
-      <c r="T59" s="39">
+      <c r="T59" s="37">
         <v>0.13</v>
       </c>
       <c r="U59" s="1">
@@ -8350,7 +8354,7 @@
       </c>
       <c r="N60" s="28">
         <f ca="1">$M$9-M60</f>
-        <v>-23</v>
+        <v>-22</v>
       </c>
       <c r="O60">
         <v>0.08</v>
@@ -8416,7 +8420,7 @@
       </c>
       <c r="N61" s="28">
         <f ca="1">$M$9-M61</f>
-        <v>-93</v>
+        <v>-92</v>
       </c>
       <c r="O61">
         <v>0.09</v>
@@ -8471,12 +8475,12 @@
       <c r="L62" t="s">
         <v>142</v>
       </c>
-      <c r="M62" s="38">
+      <c r="M62" s="36">
         <v>44840</v>
       </c>
       <c r="N62" s="28">
         <f ca="1">$M$9-M62</f>
-        <v>-95</v>
+        <v>-94</v>
       </c>
       <c r="O62" s="34">
         <v>0.09</v>
@@ -8494,13 +8498,72 @@
         <v>1.0851687956828595</v>
       </c>
     </row>
+    <row r="63" spans="1:21">
+      <c r="B63" s="1">
+        <v>44744</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D63" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>37</v>
+      </c>
+      <c r="F63" s="19">
+        <v>39.4</v>
+      </c>
+      <c r="G63" s="35">
+        <v>31.5</v>
+      </c>
+      <c r="H63" s="35">
+        <f>G63*E63</f>
+        <v>1165.5</v>
+      </c>
+      <c r="I63" s="35">
+        <v>-1</v>
+      </c>
+      <c r="J63" s="35">
+        <f t="shared" ref="J63" si="48">I63*H63</f>
+        <v>-1165.5</v>
+      </c>
+      <c r="K63" t="s">
+        <v>1100</v>
+      </c>
+      <c r="L63" t="s">
+        <v>142</v>
+      </c>
+      <c r="M63" s="1">
+        <v>44834</v>
+      </c>
+      <c r="N63" s="28">
+        <f ca="1">$M$9-M63</f>
+        <v>-88</v>
+      </c>
+      <c r="O63">
+        <v>0.19</v>
+      </c>
+      <c r="P63" s="35">
+        <f>M63-B63</f>
+        <v>90</v>
+      </c>
+      <c r="Q63" s="35">
+        <f>(1+O63)^(1/P63)-1</f>
+        <v>1.9346836135925027E-3</v>
+      </c>
+      <c r="R63" s="35">
+        <f>(1+Q63)^92</f>
+        <v>1.1946090011711641</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="N24:N62">
+  <conditionalFormatting sqref="N24:N63">
     <cfRule type="expression" priority="2">
       <formula>"&gt;=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q26:Q62">
+  <conditionalFormatting sqref="Q26:Q63">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -8512,7 +8575,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P26:P62">
+  <conditionalFormatting sqref="P26:P63">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -8772,10 +8835,10 @@
       <c r="A34" s="10"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="36"/>
+      <c r="B35" s="39"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="6"/>
@@ -8832,10 +8895,10 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="35" t="s">
+      <c r="A44" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="B44" s="36"/>
+      <c r="B44" s="39"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="6"/>
@@ -9321,10 +9384,10 @@
       <c r="A37" s="10"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="B38" s="36"/>
+      <c r="B38" s="39"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="6"/>
@@ -9381,10 +9444,10 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="35" t="s">
+      <c r="A47" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="36"/>
+      <c r="B47" s="39"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="6"/>
@@ -10767,10 +10830,10 @@
       <c r="A37" s="10"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="B38" s="36"/>
+      <c r="B38" s="39"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="6"/>
@@ -10827,10 +10890,10 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="35" t="s">
+      <c r="A47" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="36"/>
+      <c r="B47" s="39"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="6"/>
@@ -11153,10 +11216,10 @@
       <c r="A34" s="10"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="36"/>
+      <c r="B35" s="39"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="6"/>
@@ -11213,10 +11276,10 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="35" t="s">
+      <c r="A44" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="B44" s="36"/>
+      <c r="B44" s="39"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="6"/>
@@ -11713,10 +11776,10 @@
       <c r="A14" s="10"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="36"/>
+      <c r="B15" s="39"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="6"/>
@@ -11773,10 +11836,10 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="B24" s="36"/>
+      <c r="B24" s="39"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="6"/>
@@ -12091,10 +12154,10 @@
       <c r="A31" s="10"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="36"/>
+      <c r="B32" s="39"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="6"/>
@@ -12151,10 +12214,10 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="B41" s="36"/>
+      <c r="B41" s="39"/>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="6"/>
@@ -15885,10 +15948,10 @@
       <c r="A34" s="10"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="36"/>
+      <c r="B35" s="39"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="6"/>
@@ -15945,10 +16008,10 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="35" t="s">
+      <c r="A44" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="B44" s="36"/>
+      <c r="B44" s="39"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="6"/>
@@ -16276,10 +16339,10 @@
       <c r="A34" s="10"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="36"/>
+      <c r="B35" s="39"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="6"/>
@@ -16336,10 +16399,10 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="35" t="s">
+      <c r="A44" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="B44" s="36"/>
+      <c r="B44" s="39"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="6"/>
@@ -17479,10 +17542,10 @@
       <c r="A34" s="10"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="36"/>
+      <c r="B35" s="39"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="6"/>
@@ -17539,10 +17602,10 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="35" t="s">
+      <c r="A44" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="B44" s="36"/>
+      <c r="B44" s="39"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="6"/>
@@ -18155,10 +18218,10 @@
       <c r="A62" s="10"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="35" t="s">
+      <c r="A63" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="B63" s="36"/>
+      <c r="B63" s="39"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="6"/>
@@ -18215,10 +18278,10 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="35" t="s">
+      <c r="A72" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="B72" s="36"/>
+      <c r="B72" s="39"/>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="6"/>
@@ -18678,10 +18741,10 @@
       <c r="A31" s="10"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="36"/>
+      <c r="B32" s="39"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="6"/>
@@ -18738,10 +18801,10 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="B41" s="36"/>
+      <c r="B41" s="39"/>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="6"/>
@@ -19829,10 +19892,10 @@
       <c r="A31" s="22"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="36"/>
+      <c r="B32" s="39"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="12"/>
@@ -19889,10 +19952,10 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="37" t="s">
+      <c r="A41" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="B41" s="36"/>
+      <c r="B41" s="39"/>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="12"/>

--- a/code/Screener/record.xlsx
+++ b/code/Screener/record.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\wiki\wiki\dev\python\Python-Stock\code\Screener\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9AA3B7-C27A-47E6-8557-104A7B51A84A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF9C789-B127-4536-B60E-CC41BE4BFFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{785F8A36-E86A-4BD6-94E8-FC2E8B05B64B}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2013" uniqueCount="1126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2017" uniqueCount="1127">
   <si>
     <t>EXC</t>
   </si>
@@ -3450,6 +3450,9 @@
   </si>
   <si>
     <t>CHEF</t>
+  </si>
+  <si>
+    <t>NOC</t>
   </si>
 </sst>
 </file>
@@ -3556,7 +3559,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3639,6 +3642,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5726,10 +5730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42EC1B12-8D19-48E1-AE18-CC4CE60CD15C}">
-  <dimension ref="A9:U63"/>
+  <dimension ref="A9:U64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V55" sqref="V55"/>
+      <selection activeCell="Q66" sqref="Q66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8500,7 +8504,7 @@
     </row>
     <row r="63" spans="1:21">
       <c r="B63" s="1">
-        <v>44744</v>
+        <v>44746</v>
       </c>
       <c r="C63" t="s">
         <v>1125</v>
@@ -8546,24 +8550,83 @@
       </c>
       <c r="P63" s="35">
         <f>M63-B63</f>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q63" s="35">
         <f>(1+O63)^(1/P63)-1</f>
-        <v>1.9346836135925027E-3</v>
+        <v>1.9786971691126976E-3</v>
       </c>
       <c r="R63" s="35">
         <f>(1+Q63)^92</f>
-        <v>1.1946090011711641</v>
+        <v>1.1994465902506755</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21">
+      <c r="B64" s="1">
+        <v>44746</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D64" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64" s="19">
+        <v>486.85</v>
+      </c>
+      <c r="G64" s="38">
+        <v>31.5</v>
+      </c>
+      <c r="H64" s="38">
+        <f>G64*E64</f>
+        <v>63</v>
+      </c>
+      <c r="I64" s="38">
+        <v>-1</v>
+      </c>
+      <c r="J64" s="38">
+        <f t="shared" ref="J64" si="49">I64*H64</f>
+        <v>-63</v>
+      </c>
+      <c r="K64" t="s">
+        <v>1064</v>
+      </c>
+      <c r="L64" t="s">
+        <v>141</v>
+      </c>
+      <c r="M64" s="1">
+        <v>44827</v>
+      </c>
+      <c r="N64" s="28">
+        <f ca="1">$M$9-M64</f>
+        <v>-81</v>
+      </c>
+      <c r="O64" s="38">
+        <v>0.19</v>
+      </c>
+      <c r="P64" s="38">
+        <f>M64-B64</f>
+        <v>81</v>
+      </c>
+      <c r="Q64" s="38">
+        <f>(1+O64)^(1/P64)-1</f>
+        <v>2.1498793766463464E-3</v>
+      </c>
+      <c r="R64" s="38">
+        <f>(1+Q64)^92</f>
+        <v>1.2184463892045581</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="N24:N63">
+  <conditionalFormatting sqref="N24:N64">
     <cfRule type="expression" priority="2">
       <formula>"&gt;=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q26:Q63">
+  <conditionalFormatting sqref="Q26:Q64">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -8575,7 +8638,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P26:P63">
+  <conditionalFormatting sqref="P26:P64">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -8835,10 +8898,10 @@
       <c r="A34" s="10"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="38" t="s">
+      <c r="A35" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="39"/>
+      <c r="B35" s="40"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="6"/>
@@ -8895,10 +8958,10 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="38" t="s">
+      <c r="A44" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="B44" s="39"/>
+      <c r="B44" s="40"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="6"/>
@@ -9384,10 +9447,10 @@
       <c r="A37" s="10"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="38" t="s">
+      <c r="A38" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="B38" s="39"/>
+      <c r="B38" s="40"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="6"/>
@@ -9444,10 +9507,10 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="38" t="s">
+      <c r="A47" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="39"/>
+      <c r="B47" s="40"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="6"/>
@@ -10830,10 +10893,10 @@
       <c r="A37" s="10"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="38" t="s">
+      <c r="A38" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="B38" s="39"/>
+      <c r="B38" s="40"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="6"/>
@@ -10890,10 +10953,10 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="38" t="s">
+      <c r="A47" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="39"/>
+      <c r="B47" s="40"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="6"/>
@@ -11216,10 +11279,10 @@
       <c r="A34" s="10"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="38" t="s">
+      <c r="A35" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="39"/>
+      <c r="B35" s="40"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="6"/>
@@ -11276,10 +11339,10 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="38" t="s">
+      <c r="A44" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="B44" s="39"/>
+      <c r="B44" s="40"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="6"/>
@@ -11776,10 +11839,10 @@
       <c r="A14" s="10"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="39"/>
+      <c r="B15" s="40"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="6"/>
@@ -11836,10 +11899,10 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="B24" s="39"/>
+      <c r="B24" s="40"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="6"/>
@@ -12154,10 +12217,10 @@
       <c r="A31" s="10"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="39"/>
+      <c r="B32" s="40"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="6"/>
@@ -12214,10 +12277,10 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="38" t="s">
+      <c r="A41" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="B41" s="39"/>
+      <c r="B41" s="40"/>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="6"/>
@@ -15948,10 +16011,10 @@
       <c r="A34" s="10"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="38" t="s">
+      <c r="A35" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="39"/>
+      <c r="B35" s="40"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="6"/>
@@ -16008,10 +16071,10 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="38" t="s">
+      <c r="A44" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="B44" s="39"/>
+      <c r="B44" s="40"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="6"/>
@@ -16339,10 +16402,10 @@
       <c r="A34" s="10"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="38" t="s">
+      <c r="A35" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="39"/>
+      <c r="B35" s="40"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="6"/>
@@ -16399,10 +16462,10 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="38" t="s">
+      <c r="A44" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="B44" s="39"/>
+      <c r="B44" s="40"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="6"/>
@@ -17542,10 +17605,10 @@
       <c r="A34" s="10"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="38" t="s">
+      <c r="A35" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="39"/>
+      <c r="B35" s="40"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="6"/>
@@ -17602,10 +17665,10 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="38" t="s">
+      <c r="A44" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="B44" s="39"/>
+      <c r="B44" s="40"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="6"/>
@@ -18218,10 +18281,10 @@
       <c r="A62" s="10"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="38" t="s">
+      <c r="A63" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="B63" s="39"/>
+      <c r="B63" s="40"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="6"/>
@@ -18278,10 +18341,10 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="38" t="s">
+      <c r="A72" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="B72" s="39"/>
+      <c r="B72" s="40"/>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="6"/>
@@ -18741,10 +18804,10 @@
       <c r="A31" s="10"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="39"/>
+      <c r="B32" s="40"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="6"/>
@@ -18801,10 +18864,10 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="38" t="s">
+      <c r="A41" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="B41" s="39"/>
+      <c r="B41" s="40"/>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="6"/>
@@ -19892,10 +19955,10 @@
       <c r="A31" s="22"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="39"/>
+      <c r="B32" s="40"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="12"/>
@@ -19952,10 +20015,10 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="40" t="s">
+      <c r="A41" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="B41" s="39"/>
+      <c r="B41" s="40"/>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="12"/>
